--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JF102"/>
+  <dimension ref="A1:JG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1254,8 +1254,11 @@
       <c r="JE1" s="1" t="n">
         <v>10726</v>
       </c>
-      <c r="JF1" t="n">
+      <c r="JF1" s="1" t="n">
         <v>10734</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>10751</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2056,8 +2059,11 @@
       <c r="JE2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JF2" s="1" t="n">
         <v>2022</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -2858,8 +2864,11 @@
       <c r="JE3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JF3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3660,8 +3669,11 @@
       <c r="JE4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JF4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4462,8 +4474,11 @@
       <c r="JE5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JF5" t="n">
+      <c r="JF5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5264,8 +5279,11 @@
       <c r="JE6" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="JF6" t="n">
+      <c r="JF6" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6066,8 +6084,11 @@
       <c r="JE7" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="JF7" t="n">
+      <c r="JF7" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6868,8 +6889,11 @@
       <c r="JE8" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="JF8" t="n">
+      <c r="JF8" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7670,8 +7694,11 @@
       <c r="JE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JF9" t="n">
+      <c r="JF9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8472,8 +8499,11 @@
       <c r="JE10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JF10" t="n">
+      <c r="JF10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9274,8 +9304,11 @@
       <c r="JE11" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="JF11" t="n">
+      <c r="JF11" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10076,8 +10109,11 @@
       <c r="JE12" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="JF12" t="n">
+      <c r="JF12" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10878,8 +10914,11 @@
       <c r="JE13" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="JF13" t="n">
+      <c r="JF13" s="1" t="n">
         <v>350</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11680,8 +11719,11 @@
       <c r="JE14" s="1" t="n">
         <v>1.78</v>
       </c>
-      <c r="JF14" t="n">
+      <c r="JF14" s="1" t="n">
         <v>1.8</v>
+      </c>
+      <c r="JG14" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12482,8 +12524,11 @@
       <c r="JE15" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JF15" t="n">
+      <c r="JF15" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="JG15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13284,8 +13329,11 @@
       <c r="JE16" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JF16" t="n">
+      <c r="JF16" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="JG16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14086,8 +14134,11 @@
       <c r="JE17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JF17" t="n">
+      <c r="JF17" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14888,8 +14939,11 @@
       <c r="JE18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JF18" t="n">
+      <c r="JF18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JG18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15690,7 +15744,10 @@
       <c r="JE19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JF19" t="n">
+      <c r="JF19" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -16492,8 +16549,11 @@
       <c r="JE20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JF20" t="n">
+      <c r="JF20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JG20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17294,8 +17354,11 @@
       <c r="JE21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JF21" t="n">
+      <c r="JF21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JG21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18096,8 +18159,11 @@
       <c r="JE22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JF22" t="n">
+      <c r="JF22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JG22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -18898,8 +18964,11 @@
       <c r="JE23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JF23" t="n">
+      <c r="JF23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -19700,8 +19769,11 @@
       <c r="JE24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JF24" t="n">
+      <c r="JF24" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="JG24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -20502,8 +20574,11 @@
       <c r="JE25" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="JF25" t="n">
+      <c r="JF25" s="1" t="n">
         <v>41.7</v>
+      </c>
+      <c r="JG25" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -21304,8 +21379,11 @@
       <c r="JE26" s="1" t="n">
         <v>33.9</v>
       </c>
-      <c r="JF26" t="n">
+      <c r="JF26" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JG26" t="n">
+        <v>42.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22106,8 +22184,11 @@
       <c r="JE27" s="1" t="n">
         <v>14.12</v>
       </c>
-      <c r="JF27" t="n">
+      <c r="JF27" s="1" t="n">
         <v>14.58</v>
+      </c>
+      <c r="JG27" t="n">
+        <v>18.89</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -22908,8 +22989,11 @@
       <c r="JE28" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JF28" t="n">
+      <c r="JF28" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JG28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -23710,8 +23794,11 @@
       <c r="JE29" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="JF29" t="n">
+      <c r="JF29" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JG29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -24512,8 +24599,11 @@
       <c r="JE30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JF30" t="n">
+      <c r="JF30" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JG30" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -25314,8 +25404,11 @@
       <c r="JE31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="JF31" t="n">
+      <c r="JF31" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="JG31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -26116,8 +26209,11 @@
       <c r="JE32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JF32" t="n">
+      <c r="JF32" s="1" t="n">
         <v>2.71</v>
+      </c>
+      <c r="JG32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -26918,8 +27014,11 @@
       <c r="JE33" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="JF33" t="n">
+      <c r="JF33" s="1" t="n">
         <v>6.5</v>
+      </c>
+      <c r="JG33" t="n">
+        <v>5.62</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -27720,8 +27819,11 @@
       <c r="JE34" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="JF34" t="n">
+      <c r="JF34" s="1" t="n">
         <v>35.4</v>
+      </c>
+      <c r="JG34" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -28522,8 +28624,11 @@
       <c r="JE35" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="JF35" t="n">
+      <c r="JF35" s="1" t="n">
         <v>15.4</v>
+      </c>
+      <c r="JG35" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -29324,8 +29429,11 @@
       <c r="JE36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="JF36" t="n">
+      <c r="JF36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="JG36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -30126,8 +30234,11 @@
       <c r="JE37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JF37" t="n">
+      <c r="JF37" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JG37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -30928,8 +31039,11 @@
       <c r="JE38" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="JF38" t="n">
+      <c r="JF38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JG38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -31730,8 +31844,11 @@
       <c r="JE39" s="1" t="n">
         <v>82.09999999999999</v>
       </c>
-      <c r="JF39" t="n">
+      <c r="JF39" s="1" t="n">
         <v>86.8</v>
+      </c>
+      <c r="JG39" t="n">
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -32532,8 +32649,11 @@
       <c r="JE40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JF40" t="n">
+      <c r="JF40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JG40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -33334,8 +33454,11 @@
       <c r="JE41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JF41" t="n">
+      <c r="JF41" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JG41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -34136,8 +34259,11 @@
       <c r="JE42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JF42" t="n">
+      <c r="JF42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JG42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -34938,7 +35064,10 @@
       <c r="JE43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JF43" t="n">
+      <c r="JF43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JG43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -35740,8 +35869,11 @@
       <c r="JE44" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="JF44" t="n">
+      <c r="JF44" s="1" t="n">
         <v>177</v>
+      </c>
+      <c r="JG44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -36542,8 +36674,11 @@
       <c r="JE45" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="JF45" t="n">
+      <c r="JF45" s="1" t="n">
         <v>179</v>
+      </c>
+      <c r="JG45" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -37344,8 +37479,11 @@
       <c r="JE46" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="JF46" t="n">
+      <c r="JF46" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="JG46" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -38146,8 +38284,11 @@
       <c r="JE47" s="1" t="n">
         <v>63.7</v>
       </c>
-      <c r="JF47" t="n">
+      <c r="JF47" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="JG47" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -38948,8 +39089,11 @@
       <c r="JE48" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="JF48" t="n">
+      <c r="JF48" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JG48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -39750,8 +39894,11 @@
       <c r="JE49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JF49" t="n">
+      <c r="JF49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JG49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -40552,8 +40699,11 @@
       <c r="JE50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JF50" t="n">
+      <c r="JF50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JG50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -41354,8 +41504,11 @@
       <c r="JE51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JF51" t="n">
+      <c r="JF51" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JG51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -42156,8 +42309,11 @@
       <c r="JE52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JF52" t="n">
+      <c r="JF52" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JG52" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -42958,8 +43114,11 @@
       <c r="JE53" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="JF53" t="n">
+      <c r="JF53" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JG53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -43760,8 +43919,11 @@
       <c r="JE54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JF54" t="n">
+      <c r="JF54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JG54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -44562,8 +44724,11 @@
       <c r="JE55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JF55" t="n">
+      <c r="JF55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JG55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -45364,7 +45529,10 @@
       <c r="JE56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JF56" t="n">
+      <c r="JF56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JG56" t="n">
         <v>50</v>
       </c>
     </row>
@@ -46166,8 +46334,11 @@
       <c r="JE57" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="JF57" t="n">
+      <c r="JF57" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="JG57" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -46968,8 +47139,11 @@
       <c r="JE58" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="JF58" t="n">
+      <c r="JF58" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="JG58" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -47770,8 +47944,11 @@
       <c r="JE59" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="JF59" t="n">
+      <c r="JF59" s="1" t="n">
         <v>328</v>
+      </c>
+      <c r="JG59" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -48572,8 +48749,11 @@
       <c r="JE60" s="1" t="n">
         <v>1.48</v>
       </c>
-      <c r="JF60" t="n">
+      <c r="JF60" s="1" t="n">
         <v>1.56</v>
+      </c>
+      <c r="JG60" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -49374,8 +49554,11 @@
       <c r="JE61" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="JF61" t="n">
+      <c r="JF61" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="JG61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -50176,8 +50359,11 @@
       <c r="JE62" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="JF62" t="n">
+      <c r="JF62" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="JG62" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -50978,8 +51164,11 @@
       <c r="JE63" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JF63" t="n">
+      <c r="JF63" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JG63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -51780,7 +51969,10 @@
       <c r="JE64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JF64" t="n">
+      <c r="JF64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG64" t="n">
         <v>19</v>
       </c>
     </row>
@@ -52582,8 +52774,11 @@
       <c r="JE65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JF65" t="n">
+      <c r="JF65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JG65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -53384,8 +53579,11 @@
       <c r="JE66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JF66" t="n">
+      <c r="JF66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JG66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -54186,8 +54384,11 @@
       <c r="JE67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JF67" t="n">
+      <c r="JF67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JG67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -54988,8 +55189,11 @@
       <c r="JE68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JF68" t="n">
+      <c r="JF68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JG68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -55790,8 +55994,11 @@
       <c r="JE69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JF69" t="n">
+      <c r="JF69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JG69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -56592,8 +56799,11 @@
       <c r="JE70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JF70" t="n">
+      <c r="JF70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JG70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -57394,8 +57604,11 @@
       <c r="JE71" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="JF71" t="n">
+      <c r="JF71" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JG71" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -58196,8 +58409,11 @@
       <c r="JE72" s="1" t="n">
         <v>32.45</v>
       </c>
-      <c r="JF72" t="n">
+      <c r="JF72" s="1" t="n">
         <v>29.82</v>
+      </c>
+      <c r="JG72" t="n">
+        <v>43.62</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -58998,8 +59214,11 @@
       <c r="JE73" s="1" t="n">
         <v>14.88</v>
       </c>
-      <c r="JF73" t="n">
+      <c r="JF73" s="1" t="n">
         <v>16.4</v>
+      </c>
+      <c r="JG73" t="n">
+        <v>19.39</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -59800,8 +60019,11 @@
       <c r="JE74" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JF74" t="n">
+      <c r="JF74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JG74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -60602,8 +60824,11 @@
       <c r="JE75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JF75" t="n">
+      <c r="JF75" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JG75" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -61404,8 +61629,11 @@
       <c r="JE76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JF76" t="n">
+      <c r="JF76" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JG76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -62206,8 +62434,11 @@
       <c r="JE77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="JF77" t="n">
+      <c r="JF77" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JG77" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -63008,8 +63239,11 @@
       <c r="JE78" s="1" t="n">
         <v>2.42</v>
       </c>
-      <c r="JF78" t="n">
+      <c r="JF78" s="1" t="n">
         <v>2.2</v>
+      </c>
+      <c r="JG78" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -63810,8 +64044,11 @@
       <c r="JE79" s="1" t="n">
         <v>5.27</v>
       </c>
-      <c r="JF79" t="n">
+      <c r="JF79" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JG79" t="n">
+        <v>8.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -64612,8 +64849,11 @@
       <c r="JE80" s="1" t="n">
         <v>37.9</v>
       </c>
-      <c r="JF80" t="n">
+      <c r="JF80" s="1" t="n">
         <v>43.2</v>
+      </c>
+      <c r="JG80" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -65414,8 +65654,11 @@
       <c r="JE81" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JF81" t="n">
+      <c r="JF81" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JG81" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -66216,8 +66459,11 @@
       <c r="JE82" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="JF82" t="n">
+      <c r="JF82" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JG82" t="n">
+        <v>186.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -67018,7 +67264,10 @@
       <c r="JE83" s="1" t="n">
         <v>87.8</v>
       </c>
-      <c r="JF83" t="n">
+      <c r="JF83" s="1" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JG83" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -67820,8 +68069,11 @@
       <c r="JE84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="JF84" t="n">
+      <c r="JF84" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JG84" t="n">
+        <v>27.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -68622,8 +68874,11 @@
       <c r="JE85" s="1" t="n">
         <v>120.7</v>
       </c>
-      <c r="JF85" t="n">
+      <c r="JF85" s="1" t="n">
         <v>107.1</v>
+      </c>
+      <c r="JG85" t="n">
+        <v>133.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -69424,8 +69679,11 @@
       <c r="JE86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JF86" t="n">
+      <c r="JF86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JG86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -70226,8 +70484,11 @@
       <c r="JE87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JF87" t="n">
+      <c r="JF87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JG87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -71028,8 +71289,11 @@
       <c r="JE88" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JF88" t="n">
+      <c r="JF88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JG88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -71830,7 +72094,10 @@
       <c r="JE89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JF89" t="n">
+      <c r="JF89" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -72632,8 +72899,11 @@
       <c r="JE90" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="JF90" t="n">
+      <c r="JF90" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="JG90" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -73434,8 +73704,11 @@
       <c r="JE91" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="JF91" t="n">
+      <c r="JF91" s="1" t="n">
         <v>193</v>
+      </c>
+      <c r="JG91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -74236,8 +74509,11 @@
       <c r="JE92" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="JF92" t="n">
+      <c r="JF92" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="JG92" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -75038,8 +75314,11 @@
       <c r="JE93" s="1" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="JF93" t="n">
+      <c r="JF93" s="1" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="JG93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -75840,8 +76119,11 @@
       <c r="JE94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JF94" t="n">
+      <c r="JF94" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JG94" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -76642,8 +76924,11 @@
       <c r="JE95" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JF95" t="n">
+      <c r="JF95" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JG95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -77444,8 +77729,11 @@
       <c r="JE96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JF96" t="n">
+      <c r="JF96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JG96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -78246,8 +78534,11 @@
       <c r="JE97" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JF97" t="n">
+      <c r="JF97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JG97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -79048,8 +79339,11 @@
       <c r="JE98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JF98" t="n">
+      <c r="JF98" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JG98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -79850,8 +80144,11 @@
       <c r="JE99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JF99" t="n">
+      <c r="JF99" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="JG99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -80652,8 +80949,11 @@
       <c r="JE100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JF100" t="n">
+      <c r="JF100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JG100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -81454,8 +81754,11 @@
       <c r="JE101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JF101" t="n">
+      <c r="JF101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JG101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -82256,8 +82559,11 @@
       <c r="JE102" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="JF102" t="n">
+      <c r="JF102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="JG102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JG102"/>
+  <dimension ref="A1:JH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1257,8 +1257,11 @@
       <c r="JF1" s="1" t="n">
         <v>10734</v>
       </c>
-      <c r="JG1" t="n">
+      <c r="JG1" s="1" t="n">
         <v>10751</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>10760</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2062,7 +2065,10 @@
       <c r="JF2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JG2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2867,8 +2873,11 @@
       <c r="JF3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JG3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3672,8 +3681,11 @@
       <c r="JF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JG4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4477,8 +4489,11 @@
       <c r="JF5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JG5" t="n">
+      <c r="JG5" s="1" t="n">
         <v>0.5</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5282,8 +5297,11 @@
       <c r="JF6" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="JG6" t="n">
+      <c r="JG6" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6087,8 +6105,11 @@
       <c r="JF7" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="JG7" t="n">
+      <c r="JG7" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6892,8 +6913,11 @@
       <c r="JF8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="JG8" t="n">
+      <c r="JG8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7697,8 +7721,11 @@
       <c r="JF9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JG9" t="n">
+      <c r="JG9" s="1" t="n">
         <v>0.5</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8502,8 +8529,11 @@
       <c r="JF10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JG10" t="n">
+      <c r="JG10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9307,8 +9337,11 @@
       <c r="JF11" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="JG11" t="n">
+      <c r="JG11" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10112,8 +10145,11 @@
       <c r="JF12" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="JG12" t="n">
+      <c r="JG12" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10917,8 +10953,11 @@
       <c r="JF13" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="JG13" t="n">
+      <c r="JG13" s="1" t="n">
         <v>340</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11722,8 +11761,11 @@
       <c r="JF14" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="JG14" t="n">
+      <c r="JG14" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="JH14" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12527,8 +12569,11 @@
       <c r="JF15" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="JG15" t="n">
+      <c r="JG15" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="JH15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13332,8 +13377,11 @@
       <c r="JF16" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="JG16" t="n">
+      <c r="JG16" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14137,8 +14185,11 @@
       <c r="JF17" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JG17" t="n">
+      <c r="JG17" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -14942,8 +14993,11 @@
       <c r="JF18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JG18" t="n">
+      <c r="JG18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JH18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15747,8 +15801,11 @@
       <c r="JF19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JG19" t="n">
+      <c r="JG19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JH19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -16552,8 +16609,11 @@
       <c r="JF20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JG20" t="n">
+      <c r="JG20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JH20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17357,8 +17417,11 @@
       <c r="JF21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JG21" t="n">
+      <c r="JG21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JH21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18162,8 +18225,11 @@
       <c r="JF22" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JG22" t="n">
+      <c r="JG22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JH22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -18967,7 +19033,10 @@
       <c r="JF23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JG23" t="n">
+      <c r="JG23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19772,8 +19841,11 @@
       <c r="JF24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JG24" t="n">
+      <c r="JG24" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -20577,8 +20649,11 @@
       <c r="JF25" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="JG25" t="n">
+      <c r="JG25" s="1" t="n">
         <v>44.4</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -21382,8 +21457,11 @@
       <c r="JF26" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JG26" t="n">
+      <c r="JG26" s="1" t="n">
         <v>42.5</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>29.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22187,8 +22265,11 @@
       <c r="JF27" s="1" t="n">
         <v>14.58</v>
       </c>
-      <c r="JG27" t="n">
+      <c r="JG27" s="1" t="n">
         <v>18.89</v>
+      </c>
+      <c r="JH27" t="n">
+        <v>15.28</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -22992,7 +23073,10 @@
       <c r="JF28" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JG28" t="n">
+      <c r="JG28" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JH28" t="n">
         <v>32</v>
       </c>
     </row>
@@ -23797,8 +23881,11 @@
       <c r="JF29" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JG29" t="n">
+      <c r="JG29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JH29" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -24602,8 +24689,11 @@
       <c r="JF30" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JG30" t="n">
+      <c r="JG30" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JH30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -25407,8 +25497,11 @@
       <c r="JF31" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="JG31" t="n">
+      <c r="JG31" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JH31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -26212,8 +26305,11 @@
       <c r="JF32" s="1" t="n">
         <v>2.71</v>
       </c>
-      <c r="JG32" t="n">
+      <c r="JG32" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="JH32" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -27017,8 +27113,11 @@
       <c r="JF33" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="JG33" t="n">
+      <c r="JG33" s="1" t="n">
         <v>5.62</v>
+      </c>
+      <c r="JH33" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -27822,8 +27921,11 @@
       <c r="JF34" s="1" t="n">
         <v>35.4</v>
       </c>
-      <c r="JG34" t="n">
+      <c r="JG34" s="1" t="n">
         <v>35.6</v>
+      </c>
+      <c r="JH34" t="n">
+        <v>47.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -28627,8 +28729,11 @@
       <c r="JF35" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="JG35" t="n">
+      <c r="JG35" s="1" t="n">
         <v>17.8</v>
+      </c>
+      <c r="JH35" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -29432,8 +29537,11 @@
       <c r="JF36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="JG36" t="n">
+      <c r="JG36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JH36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -30237,8 +30345,11 @@
       <c r="JF37" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="JG37" t="n">
+      <c r="JG37" s="1" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JH37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -31042,8 +31153,11 @@
       <c r="JF38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="JG38" t="n">
+      <c r="JG38" s="1" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JH38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -31847,8 +31961,11 @@
       <c r="JF39" s="1" t="n">
         <v>86.8</v>
       </c>
-      <c r="JG39" t="n">
+      <c r="JG39" s="1" t="n">
         <v>91.40000000000001</v>
+      </c>
+      <c r="JH39" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -32652,8 +32769,11 @@
       <c r="JF40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JG40" t="n">
+      <c r="JG40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JH40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -33457,7 +33577,10 @@
       <c r="JF41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JG41" t="n">
+      <c r="JG41" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34262,8 +34385,11 @@
       <c r="JF42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JG42" t="n">
+      <c r="JG42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JH42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -35067,7 +35193,10 @@
       <c r="JF43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JG43" t="n">
+      <c r="JG43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -35872,8 +36001,11 @@
       <c r="JF44" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="JG44" t="n">
+      <c r="JG44" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="JH44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -36677,8 +36809,11 @@
       <c r="JF45" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="JG45" t="n">
+      <c r="JG45" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="JH45" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -37482,8 +37617,11 @@
       <c r="JF46" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="JG46" t="n">
+      <c r="JG46" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="JH46" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -38287,8 +38425,11 @@
       <c r="JF47" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="JG47" t="n">
+      <c r="JG47" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JH47" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -39092,8 +39233,11 @@
       <c r="JF48" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JG48" t="n">
+      <c r="JG48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JH48" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -39897,8 +40041,11 @@
       <c r="JF49" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JG49" t="n">
+      <c r="JG49" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JH49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -40702,8 +40849,11 @@
       <c r="JF50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JG50" t="n">
+      <c r="JG50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JH50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -41507,7 +41657,10 @@
       <c r="JF51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JG51" t="n">
+      <c r="JG51" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JH51" t="n">
         <v>32</v>
       </c>
     </row>
@@ -42312,8 +42465,11 @@
       <c r="JF52" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JG52" t="n">
+      <c r="JG52" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JH52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -43117,8 +43273,11 @@
       <c r="JF53" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JG53" t="n">
+      <c r="JG53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JH53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -43922,8 +44081,11 @@
       <c r="JF54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JG54" t="n">
+      <c r="JG54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JH54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -44727,8 +44889,11 @@
       <c r="JF55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JG55" t="n">
+      <c r="JG55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JH55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -45532,8 +45697,11 @@
       <c r="JF56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JG56" t="n">
+      <c r="JG56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JH56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -46337,8 +46505,11 @@
       <c r="JF57" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="JG57" t="n">
+      <c r="JG57" s="1" t="n">
         <v>228</v>
+      </c>
+      <c r="JH57" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -47142,8 +47313,11 @@
       <c r="JF58" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="JG58" t="n">
+      <c r="JG58" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="JH58" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -47947,8 +48121,11 @@
       <c r="JF59" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="JG59" t="n">
+      <c r="JG59" s="1" t="n">
         <v>349</v>
+      </c>
+      <c r="JH59" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -48752,8 +48929,11 @@
       <c r="JF60" s="1" t="n">
         <v>1.56</v>
       </c>
-      <c r="JG60" t="n">
+      <c r="JG60" s="1" t="n">
         <v>1.88</v>
+      </c>
+      <c r="JH60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -49557,8 +49737,11 @@
       <c r="JF61" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="JG61" t="n">
+      <c r="JG61" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="JH61" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -50362,8 +50545,11 @@
       <c r="JF62" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="JG62" t="n">
+      <c r="JG62" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="JH62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -51167,8 +51353,11 @@
       <c r="JF63" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JG63" t="n">
+      <c r="JG63" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JH63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -51972,8 +52161,11 @@
       <c r="JF64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JG64" t="n">
+      <c r="JG64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JH64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -52777,8 +52969,11 @@
       <c r="JF65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JG65" t="n">
+      <c r="JG65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JH65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -53582,8 +53777,11 @@
       <c r="JF66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JG66" t="n">
+      <c r="JG66" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JH66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -54387,8 +54585,11 @@
       <c r="JF67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JG67" t="n">
+      <c r="JG67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JH67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -55192,8 +55393,11 @@
       <c r="JF68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JG68" t="n">
+      <c r="JG68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JH68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -55997,8 +56201,11 @@
       <c r="JF69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JG69" t="n">
+      <c r="JG69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JH69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -56802,8 +57009,11 @@
       <c r="JF70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JG70" t="n">
+      <c r="JG70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JH70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -57607,8 +57817,11 @@
       <c r="JF71" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JG71" t="n">
+      <c r="JG71" s="1" t="n">
         <v>44.4</v>
+      </c>
+      <c r="JH71" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -58412,8 +58625,11 @@
       <c r="JF72" s="1" t="n">
         <v>29.82</v>
       </c>
-      <c r="JG72" t="n">
+      <c r="JG72" s="1" t="n">
         <v>43.62</v>
+      </c>
+      <c r="JH72" t="n">
+        <v>27.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -59217,8 +59433,11 @@
       <c r="JF73" s="1" t="n">
         <v>16.4</v>
       </c>
-      <c r="JG73" t="n">
+      <c r="JG73" s="1" t="n">
         <v>19.39</v>
+      </c>
+      <c r="JH73" t="n">
+        <v>14.91</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -60022,8 +60241,11 @@
       <c r="JF74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JG74" t="n">
+      <c r="JG74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JH74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -60827,8 +61049,11 @@
       <c r="JF75" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JG75" t="n">
+      <c r="JG75" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="JH75" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -61632,8 +61857,11 @@
       <c r="JF76" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JG76" t="n">
+      <c r="JG76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JH76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -62437,8 +62665,11 @@
       <c r="JF77" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JG77" t="n">
+      <c r="JG77" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="JH77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -63242,8 +63473,11 @@
       <c r="JF78" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="JG78" t="n">
+      <c r="JG78" s="1" t="n">
         <v>3.67</v>
+      </c>
+      <c r="JH78" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -64047,8 +64281,11 @@
       <c r="JF79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JG79" t="n">
+      <c r="JG79" s="1" t="n">
         <v>8.25</v>
+      </c>
+      <c r="JH79" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -64852,8 +65089,11 @@
       <c r="JF80" s="1" t="n">
         <v>43.2</v>
       </c>
-      <c r="JG80" t="n">
+      <c r="JG80" s="1" t="n">
         <v>27.3</v>
+      </c>
+      <c r="JH80" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -65657,8 +65897,11 @@
       <c r="JF81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JG81" t="n">
+      <c r="JG81" s="1" t="n">
         <v>12.1</v>
+      </c>
+      <c r="JH81" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -66462,8 +66705,11 @@
       <c r="JF82" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="JG82" t="n">
+      <c r="JG82" s="1" t="n">
         <v>186.3</v>
+      </c>
+      <c r="JH82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -67267,8 +67513,11 @@
       <c r="JF83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JG83" t="n">
+      <c r="JG83" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="JH83" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -68072,8 +68321,11 @@
       <c r="JF84" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JG84" t="n">
+      <c r="JG84" s="1" t="n">
         <v>27.41</v>
+      </c>
+      <c r="JH84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -68877,8 +69129,11 @@
       <c r="JF85" s="1" t="n">
         <v>107.1</v>
       </c>
-      <c r="JG85" t="n">
+      <c r="JG85" s="1" t="n">
         <v>133.2</v>
+      </c>
+      <c r="JH85" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -69682,8 +69937,11 @@
       <c r="JF86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JG86" t="n">
+      <c r="JG86" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JH86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -70487,8 +70745,11 @@
       <c r="JF87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JG87" t="n">
+      <c r="JG87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JH87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -71292,8 +71553,11 @@
       <c r="JF88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JG88" t="n">
+      <c r="JG88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JH88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -72097,8 +72361,11 @@
       <c r="JF89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JG89" t="n">
+      <c r="JG89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JH89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -72902,8 +73169,11 @@
       <c r="JF90" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="JG90" t="n">
+      <c r="JG90" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="JH90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -73707,8 +73977,11 @@
       <c r="JF91" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="JG91" t="n">
+      <c r="JG91" s="1" t="n">
         <v>199</v>
+      </c>
+      <c r="JH91" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -74512,8 +74785,11 @@
       <c r="JF92" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="JG92" t="n">
+      <c r="JG92" s="1" t="n">
         <v>248</v>
+      </c>
+      <c r="JH92" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -75317,8 +75593,11 @@
       <c r="JF93" s="1" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="JG93" t="n">
+      <c r="JG93" s="1" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="JH93" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -76122,8 +76401,11 @@
       <c r="JF94" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JG94" t="n">
+      <c r="JG94" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="JH94" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -76927,8 +77209,11 @@
       <c r="JF95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JG95" t="n">
+      <c r="JG95" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JH95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -77732,8 +78017,11 @@
       <c r="JF96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JG96" t="n">
+      <c r="JG96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JH96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -78537,8 +78825,11 @@
       <c r="JF97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JG97" t="n">
+      <c r="JG97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JH97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -79342,8 +79633,11 @@
       <c r="JF98" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JG98" t="n">
+      <c r="JG98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JH98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -80147,8 +80441,11 @@
       <c r="JF99" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="JG99" t="n">
+      <c r="JG99" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JH99" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -80952,8 +81249,11 @@
       <c r="JF100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JG100" t="n">
+      <c r="JG100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JH100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -81757,8 +82057,11 @@
       <c r="JF101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JG101" t="n">
+      <c r="JG101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JH101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -82562,8 +82865,11 @@
       <c r="JF102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="JG102" t="n">
+      <c r="JG102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="JH102" t="n">
+        <v>91.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JI102"/>
+  <dimension ref="A1:JJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1263,8 +1263,11 @@
       <c r="JH1" s="1" t="n">
         <v>10760</v>
       </c>
-      <c r="JI1" t="n">
+      <c r="JI1" s="1" t="n">
         <v>10772</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>10779</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2074,7 +2077,10 @@
       <c r="JH2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JI2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JJ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2885,8 +2891,11 @@
       <c r="JH3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JI3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3696,7 +3705,10 @@
       <c r="JH4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JI4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,7 +4519,10 @@
       <c r="JH5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JI5" t="n">
+      <c r="JI5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,8 +5333,11 @@
       <c r="JH6" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="JI6" t="n">
+      <c r="JI6" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6129,8 +6147,11 @@
       <c r="JH7" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="JI7" t="n">
+      <c r="JI7" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6940,8 +6961,11 @@
       <c r="JH8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JI8" t="n">
+      <c r="JI8" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7751,7 +7775,10 @@
       <c r="JH9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JI9" t="n">
+      <c r="JI9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8562,8 +8589,11 @@
       <c r="JH10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JI10" t="n">
+      <c r="JI10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9373,8 +9403,11 @@
       <c r="JH11" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="JI11" t="n">
+      <c r="JI11" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10184,8 +10217,11 @@
       <c r="JH12" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="JI12" t="n">
+      <c r="JI12" s="1" t="n">
         <v>162</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10995,8 +11031,11 @@
       <c r="JH13" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="JI13" t="n">
+      <c r="JI13" s="1" t="n">
         <v>397</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11806,8 +11845,11 @@
       <c r="JH14" s="1" t="n">
         <v>1.83</v>
       </c>
-      <c r="JI14" t="n">
+      <c r="JI14" s="1" t="n">
         <v>1.45</v>
+      </c>
+      <c r="JJ14" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12617,8 +12659,11 @@
       <c r="JH15" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="JI15" t="n">
+      <c r="JI15" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="JJ15" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13428,8 +13473,11 @@
       <c r="JH16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JI16" t="n">
+      <c r="JI16" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14239,8 +14287,11 @@
       <c r="JH17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JI17" t="n">
+      <c r="JI17" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15050,8 +15101,11 @@
       <c r="JH18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JI18" t="n">
+      <c r="JI18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JJ18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15861,8 +15915,11 @@
       <c r="JH19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JI19" t="n">
+      <c r="JI19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JJ19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -16672,8 +16729,11 @@
       <c r="JH20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JI20" t="n">
+      <c r="JI20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17483,8 +17543,11 @@
       <c r="JH21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JI21" t="n">
+      <c r="JI21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18294,8 +18357,11 @@
       <c r="JH22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JI22" t="n">
+      <c r="JI22" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JJ22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19105,8 +19171,11 @@
       <c r="JH23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JI23" t="n">
+      <c r="JI23" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -19916,8 +19985,11 @@
       <c r="JH24" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JI24" t="n">
+      <c r="JI24" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -20727,8 +20799,11 @@
       <c r="JH25" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JI25" t="n">
+      <c r="JI25" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -21538,8 +21613,11 @@
       <c r="JH26" s="1" t="n">
         <v>29.38</v>
       </c>
-      <c r="JI26" t="n">
+      <c r="JI26" s="1" t="n">
         <v>44.11</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>23.69</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22349,8 +22427,11 @@
       <c r="JH27" s="1" t="n">
         <v>15.28</v>
       </c>
-      <c r="JI27" t="n">
+      <c r="JI27" s="1" t="n">
         <v>13.69</v>
+      </c>
+      <c r="JJ27" t="n">
+        <v>14.04</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23160,8 +23241,11 @@
       <c r="JH28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JI28" t="n">
+      <c r="JI28" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JJ28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -23971,8 +24055,11 @@
       <c r="JH29" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="JI29" t="n">
+      <c r="JI29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JJ29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -24782,8 +24869,11 @@
       <c r="JH30" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JI30" t="n">
+      <c r="JI30" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JJ30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -25593,8 +25683,11 @@
       <c r="JH31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="JI31" t="n">
+      <c r="JI31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="JJ31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -26404,8 +26497,11 @@
       <c r="JH32" s="1" t="n">
         <v>1.92</v>
       </c>
-      <c r="JI32" t="n">
+      <c r="JI32" s="1" t="n">
         <v>2.1</v>
+      </c>
+      <c r="JJ32" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -27215,8 +27311,11 @@
       <c r="JH33" s="1" t="n">
         <v>3.69</v>
       </c>
-      <c r="JI33" t="n">
+      <c r="JI33" s="1" t="n">
         <v>6.78</v>
+      </c>
+      <c r="JJ33" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28026,8 +28125,11 @@
       <c r="JH34" s="1" t="n">
         <v>47.9</v>
       </c>
-      <c r="JI34" t="n">
+      <c r="JI34" s="1" t="n">
         <v>34.4</v>
+      </c>
+      <c r="JJ34" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -28837,8 +28939,11 @@
       <c r="JH35" s="1" t="n">
         <v>27.1</v>
       </c>
-      <c r="JI35" t="n">
+      <c r="JI35" s="1" t="n">
         <v>14.8</v>
+      </c>
+      <c r="JJ35" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -29648,8 +29753,11 @@
       <c r="JH36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="JI36" t="n">
+      <c r="JI36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JJ36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -30459,8 +30567,11 @@
       <c r="JH37" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="JI37" t="n">
+      <c r="JI37" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JJ37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -31270,8 +31381,11 @@
       <c r="JH38" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="JI38" t="n">
+      <c r="JI38" s="1" t="n">
         <v>25.49</v>
+      </c>
+      <c r="JJ38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -32081,8 +32195,11 @@
       <c r="JH39" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="JI39" t="n">
+      <c r="JI39" s="1" t="n">
         <v>86.8</v>
+      </c>
+      <c r="JJ39" t="n">
+        <v>81.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -32892,8 +33009,11 @@
       <c r="JH40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JI40" t="n">
+      <c r="JI40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -33703,7 +33823,10 @@
       <c r="JH41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JI41" t="n">
+      <c r="JI41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34514,8 +34637,11 @@
       <c r="JH42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JI42" t="n">
+      <c r="JI42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -35325,7 +35451,10 @@
       <c r="JH43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JI43" t="n">
+      <c r="JI43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -36136,8 +36265,11 @@
       <c r="JH44" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="JI44" t="n">
+      <c r="JI44" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="JJ44" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -36947,8 +37079,11 @@
       <c r="JH45" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="JI45" t="n">
+      <c r="JI45" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="JJ45" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -37758,8 +37893,11 @@
       <c r="JH46" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="JI46" t="n">
+      <c r="JI46" s="1" t="n">
         <v>299</v>
+      </c>
+      <c r="JJ46" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -38569,8 +38707,11 @@
       <c r="JH47" s="1" t="n">
         <v>71.5</v>
       </c>
-      <c r="JI47" t="n">
+      <c r="JI47" s="1" t="n">
         <v>75.3</v>
+      </c>
+      <c r="JJ47" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -39380,8 +39521,11 @@
       <c r="JH48" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="JI48" t="n">
+      <c r="JI48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JJ48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -40191,7 +40335,10 @@
       <c r="JH49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JI49" t="n">
+      <c r="JI49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JJ49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -41002,8 +41149,11 @@
       <c r="JH50" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JI50" t="n">
+      <c r="JI50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -41813,8 +41963,11 @@
       <c r="JH51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JI51" t="n">
+      <c r="JI51" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JJ51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -42624,8 +42777,11 @@
       <c r="JH52" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JI52" t="n">
+      <c r="JI52" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JJ52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -43435,8 +43591,11 @@
       <c r="JH53" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JI53" t="n">
+      <c r="JI53" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JJ53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -44246,8 +44405,11 @@
       <c r="JH54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JI54" t="n">
+      <c r="JI54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JJ54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -45057,8 +45219,11 @@
       <c r="JH55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JI55" t="n">
+      <c r="JI55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -45868,8 +46033,11 @@
       <c r="JH56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JI56" t="n">
+      <c r="JI56" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="JJ56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -46679,8 +46847,11 @@
       <c r="JH57" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="JI57" t="n">
+      <c r="JI57" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="JJ57" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -47490,8 +47661,11 @@
       <c r="JH58" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="JI58" t="n">
+      <c r="JI58" s="1" t="n">
         <v>167</v>
+      </c>
+      <c r="JJ58" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -48301,8 +48475,11 @@
       <c r="JH59" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="JI59" t="n">
+      <c r="JI59" s="1" t="n">
         <v>380</v>
+      </c>
+      <c r="JJ59" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -49112,8 +49289,11 @@
       <c r="JH60" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="JI60" t="n">
+      <c r="JI60" s="1" t="n">
         <v>1.28</v>
+      </c>
+      <c r="JJ60" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -49923,8 +50103,11 @@
       <c r="JH61" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JI61" t="n">
+      <c r="JI61" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JJ61" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -50734,8 +50917,11 @@
       <c r="JH62" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JI62" t="n">
+      <c r="JI62" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JJ62" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -51545,8 +51731,11 @@
       <c r="JH63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JI63" t="n">
+      <c r="JI63" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JJ63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -52356,8 +52545,11 @@
       <c r="JH64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JI64" t="n">
+      <c r="JI64" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JJ64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -53167,8 +53359,11 @@
       <c r="JH65" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JI65" t="n">
+      <c r="JI65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JJ65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -53978,8 +54173,11 @@
       <c r="JH66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JI66" t="n">
+      <c r="JI66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -54789,8 +54987,11 @@
       <c r="JH67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JI67" t="n">
+      <c r="JI67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -55600,8 +55801,11 @@
       <c r="JH68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JI68" t="n">
+      <c r="JI68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -56411,8 +56615,11 @@
       <c r="JH69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JI69" t="n">
+      <c r="JI69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -57222,8 +57429,11 @@
       <c r="JH70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JI70" t="n">
+      <c r="JI70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JJ70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -58033,8 +58243,11 @@
       <c r="JH71" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="JI71" t="n">
+      <c r="JI71" s="1" t="n">
         <v>47.4</v>
+      </c>
+      <c r="JJ71" t="n">
+        <v>37.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -58844,8 +59057,11 @@
       <c r="JH72" s="1" t="n">
         <v>27.33</v>
       </c>
-      <c r="JI72" t="n">
+      <c r="JI72" s="1" t="n">
         <v>42.22</v>
+      </c>
+      <c r="JJ72" t="n">
+        <v>35.64</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -59655,8 +59871,11 @@
       <c r="JH73" s="1" t="n">
         <v>14.91</v>
       </c>
-      <c r="JI73" t="n">
+      <c r="JI73" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JJ73" t="n">
+        <v>13.52</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -60466,8 +60685,11 @@
       <c r="JH74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JI74" t="n">
+      <c r="JI74" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JJ74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -61277,8 +61499,11 @@
       <c r="JH75" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="JI75" t="n">
+      <c r="JI75" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="JJ75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -62088,8 +62313,11 @@
       <c r="JH76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JI76" t="n">
+      <c r="JI76" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JJ76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -62899,7 +63127,10 @@
       <c r="JH77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JI77" t="n">
+      <c r="JI77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JJ77" t="n">
         <v>54</v>
       </c>
     </row>
@@ -63710,8 +63941,11 @@
       <c r="JH78" s="1" t="n">
         <v>2.45</v>
       </c>
-      <c r="JI78" t="n">
+      <c r="JI78" s="1" t="n">
         <v>2.84</v>
+      </c>
+      <c r="JJ78" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -64521,8 +64755,11 @@
       <c r="JH79" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="JI79" t="n">
+      <c r="JI79" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ79" t="n">
+        <v>4.91</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -65332,8 +65569,11 @@
       <c r="JH80" s="1" t="n">
         <v>35.2</v>
       </c>
-      <c r="JI80" t="n">
+      <c r="JI80" s="1" t="n">
         <v>25.9</v>
+      </c>
+      <c r="JJ80" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -66143,8 +66383,11 @@
       <c r="JH81" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="JI81" t="n">
+      <c r="JI81" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="JJ81" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -66954,8 +67197,11 @@
       <c r="JH82" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="JI82" t="n">
+      <c r="JI82" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="JJ82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -67765,8 +68011,11 @@
       <c r="JH83" s="1" t="n">
         <v>88.8</v>
       </c>
-      <c r="JI83" t="n">
+      <c r="JI83" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JJ83" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -68576,8 +68825,11 @@
       <c r="JH84" s="1" t="n">
         <v>27.24</v>
       </c>
-      <c r="JI84" t="n">
+      <c r="JI84" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="JJ84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -69387,8 +69639,11 @@
       <c r="JH85" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="JI85" t="n">
+      <c r="JI85" s="1" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JJ85" t="n">
+        <v>106.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -70198,8 +70453,11 @@
       <c r="JH86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JI86" t="n">
+      <c r="JI86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -71009,8 +71267,11 @@
       <c r="JH87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JI87" t="n">
+      <c r="JI87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JJ87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -71820,8 +72081,11 @@
       <c r="JH88" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JI88" t="n">
+      <c r="JI88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JJ88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -72631,8 +72895,11 @@
       <c r="JH89" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JI89" t="n">
+      <c r="JI89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -73442,8 +73709,11 @@
       <c r="JH90" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="JI90" t="n">
+      <c r="JI90" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="JJ90" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -74253,8 +74523,11 @@
       <c r="JH91" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="JI91" t="n">
+      <c r="JI91" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="JJ91" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -75064,8 +75337,11 @@
       <c r="JH92" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="JI92" t="n">
+      <c r="JI92" s="1" t="n">
         <v>284</v>
+      </c>
+      <c r="JJ92" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -75875,8 +76151,11 @@
       <c r="JH93" s="1" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="JI93" t="n">
+      <c r="JI93" s="1" t="n">
         <v>74.7</v>
+      </c>
+      <c r="JJ93" t="n">
+        <v>76.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -76686,8 +76965,11 @@
       <c r="JH94" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="JI94" t="n">
+      <c r="JI94" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="JJ94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -77497,8 +77779,11 @@
       <c r="JH95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JI95" t="n">
+      <c r="JI95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -78308,8 +78593,11 @@
       <c r="JH96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JI96" t="n">
+      <c r="JI96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JJ96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -79119,8 +79407,11 @@
       <c r="JH97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JI97" t="n">
+      <c r="JI97" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JJ97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -79930,8 +80221,11 @@
       <c r="JH98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JI98" t="n">
+      <c r="JI98" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JJ98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -80741,8 +81035,11 @@
       <c r="JH99" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JI99" t="n">
+      <c r="JI99" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JJ99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -81552,8 +81849,11 @@
       <c r="JH100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JI100" t="n">
+      <c r="JI100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -82363,8 +82663,11 @@
       <c r="JH101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JI101" t="n">
+      <c r="JI101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -83174,8 +83477,11 @@
       <c r="JH102" s="1" t="n">
         <v>91.7</v>
       </c>
-      <c r="JI102" t="n">
+      <c r="JI102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JJ102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JJ102"/>
+  <dimension ref="A1:JK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1266,8 +1266,11 @@
       <c r="JI1" s="1" t="n">
         <v>10772</v>
       </c>
-      <c r="JJ1" t="n">
+      <c r="JJ1" s="1" t="n">
         <v>10779</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>10787</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2080,7 +2083,10 @@
       <c r="JI2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JJ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JK2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2894,8 +2900,11 @@
       <c r="JI3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JJ3" t="n">
+      <c r="JJ3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3708,7 +3717,10 @@
       <c r="JI4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JJ4" t="n">
+      <c r="JJ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,8 +4534,11 @@
       <c r="JI5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JJ5" t="n">
+      <c r="JJ5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5336,8 +5351,11 @@
       <c r="JI6" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="JJ6" t="n">
+      <c r="JJ6" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6150,8 +6168,11 @@
       <c r="JI7" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="JJ7" t="n">
+      <c r="JJ7" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6964,8 +6985,11 @@
       <c r="JI8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JJ8" t="n">
+      <c r="JJ8" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>-56</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7778,8 +7802,11 @@
       <c r="JI9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JJ9" t="n">
+      <c r="JJ9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8592,8 +8619,11 @@
       <c r="JI10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JJ10" t="n">
+      <c r="JJ10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9406,8 +9436,11 @@
       <c r="JI11" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="JJ11" t="n">
+      <c r="JJ11" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10220,8 +10253,11 @@
       <c r="JI12" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="JJ12" t="n">
+      <c r="JJ12" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11034,8 +11070,11 @@
       <c r="JI13" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="JJ13" t="n">
+      <c r="JJ13" s="1" t="n">
         <v>379</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11848,8 +11887,11 @@
       <c r="JI14" s="1" t="n">
         <v>1.45</v>
       </c>
-      <c r="JJ14" t="n">
+      <c r="JJ14" s="1" t="n">
         <v>1.71</v>
+      </c>
+      <c r="JK14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12662,8 +12704,11 @@
       <c r="JI15" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="JJ15" t="n">
+      <c r="JJ15" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="JK15" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13476,8 +13521,11 @@
       <c r="JI16" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JJ16" t="n">
+      <c r="JJ16" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14290,8 +14338,11 @@
       <c r="JI17" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JJ17" t="n">
+      <c r="JJ17" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15104,8 +15155,11 @@
       <c r="JI18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JJ18" t="n">
+      <c r="JJ18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="JK18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15918,8 +15972,11 @@
       <c r="JI19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JJ19" t="n">
+      <c r="JJ19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JK19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -16732,8 +16789,11 @@
       <c r="JI20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JJ20" t="n">
+      <c r="JJ20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JK20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17546,8 +17606,11 @@
       <c r="JI21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JJ21" t="n">
+      <c r="JJ21" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JK21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18360,8 +18423,11 @@
       <c r="JI22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JJ22" t="n">
+      <c r="JJ22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JK22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19174,8 +19240,11 @@
       <c r="JI23" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JJ23" t="n">
+      <c r="JJ23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JK23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -19988,8 +20057,11 @@
       <c r="JI24" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JJ24" t="n">
+      <c r="JJ24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -20802,8 +20874,11 @@
       <c r="JI25" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="JJ25" t="n">
+      <c r="JJ25" s="1" t="n">
         <v>59.3</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -21616,8 +21691,11 @@
       <c r="JI26" s="1" t="n">
         <v>44.11</v>
       </c>
-      <c r="JJ26" t="n">
+      <c r="JJ26" s="1" t="n">
         <v>23.69</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>35.56</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22430,8 +22508,11 @@
       <c r="JI27" s="1" t="n">
         <v>13.69</v>
       </c>
-      <c r="JJ27" t="n">
+      <c r="JJ27" s="1" t="n">
         <v>14.04</v>
+      </c>
+      <c r="JK27" t="n">
+        <v>18.82</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23244,8 +23325,11 @@
       <c r="JI28" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JJ28" t="n">
+      <c r="JJ28" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JK28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24058,8 +24142,11 @@
       <c r="JI29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JJ29" t="n">
+      <c r="JJ29" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JK29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -24872,8 +24959,11 @@
       <c r="JI30" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JJ30" t="n">
+      <c r="JJ30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JK30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -25686,8 +25776,11 @@
       <c r="JI31" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JJ31" t="n">
+      <c r="JJ31" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JK31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -26500,8 +26593,11 @@
       <c r="JI32" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="JJ32" t="n">
+      <c r="JJ32" s="1" t="n">
         <v>1.93</v>
+      </c>
+      <c r="JK32" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -27314,8 +27410,11 @@
       <c r="JI33" s="1" t="n">
         <v>6.78</v>
       </c>
-      <c r="JJ33" t="n">
+      <c r="JJ33" s="1" t="n">
         <v>3.25</v>
+      </c>
+      <c r="JK33" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28128,8 +28227,11 @@
       <c r="JI34" s="1" t="n">
         <v>34.4</v>
       </c>
-      <c r="JJ34" t="n">
+      <c r="JJ34" s="1" t="n">
         <v>46.2</v>
+      </c>
+      <c r="JK34" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -28942,8 +29044,11 @@
       <c r="JI35" s="1" t="n">
         <v>14.8</v>
       </c>
-      <c r="JJ35" t="n">
+      <c r="JJ35" s="1" t="n">
         <v>30.8</v>
+      </c>
+      <c r="JK35" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -29756,8 +29861,11 @@
       <c r="JI36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="JJ36" t="n">
+      <c r="JJ36" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="JK36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -30570,8 +30678,11 @@
       <c r="JI37" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="JJ37" t="n">
+      <c r="JJ37" s="1" t="n">
         <v>87.2</v>
+      </c>
+      <c r="JK37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -31384,8 +31495,11 @@
       <c r="JI38" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="JJ38" t="n">
+      <c r="JJ38" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JK38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -32198,8 +32312,11 @@
       <c r="JI39" s="1" t="n">
         <v>86.8</v>
       </c>
-      <c r="JJ39" t="n">
+      <c r="JJ39" s="1" t="n">
         <v>81.7</v>
+      </c>
+      <c r="JK39" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -33012,8 +33129,11 @@
       <c r="JI40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JJ40" t="n">
+      <c r="JJ40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JK40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -33826,8 +33946,11 @@
       <c r="JI41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JJ41" t="n">
+      <c r="JJ41" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JK41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -34640,8 +34763,11 @@
       <c r="JI42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JJ42" t="n">
+      <c r="JJ42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JK42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -35454,7 +35580,10 @@
       <c r="JI43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JJ43" t="n">
+      <c r="JJ43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -36268,8 +36397,11 @@
       <c r="JI44" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="JJ44" t="n">
+      <c r="JJ44" s="1" t="n">
         <v>132</v>
+      </c>
+      <c r="JK44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -37082,8 +37214,11 @@
       <c r="JI45" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="JJ45" t="n">
+      <c r="JJ45" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="JK45" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -37896,8 +38031,11 @@
       <c r="JI46" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="JJ46" t="n">
+      <c r="JJ46" s="1" t="n">
         <v>285</v>
+      </c>
+      <c r="JK46" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -38710,8 +38848,11 @@
       <c r="JI47" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="JJ47" t="n">
+      <c r="JJ47" s="1" t="n">
         <v>75.2</v>
+      </c>
+      <c r="JK47" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -39524,8 +39665,11 @@
       <c r="JI48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JJ48" t="n">
+      <c r="JJ48" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JK48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -40338,7 +40482,10 @@
       <c r="JI49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JJ49" t="n">
+      <c r="JJ49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JK49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -41152,8 +41299,11 @@
       <c r="JI50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JJ50" t="n">
+      <c r="JJ50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JK50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -41966,8 +42116,11 @@
       <c r="JI51" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JJ51" t="n">
+      <c r="JJ51" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JK51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -42780,8 +42933,11 @@
       <c r="JI52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JJ52" t="n">
+      <c r="JJ52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JK52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -43594,8 +43750,11 @@
       <c r="JI53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JJ53" t="n">
+      <c r="JJ53" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="JK53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -44408,8 +44567,11 @@
       <c r="JI54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JJ54" t="n">
+      <c r="JJ54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JK54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -45222,8 +45384,11 @@
       <c r="JI55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JJ55" t="n">
+      <c r="JJ55" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JK55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -46036,8 +46201,11 @@
       <c r="JI56" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="JJ56" t="n">
+      <c r="JJ56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JK56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -46850,8 +47018,11 @@
       <c r="JI57" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="JJ57" t="n">
+      <c r="JJ57" s="1" t="n">
         <v>203</v>
+      </c>
+      <c r="JK57" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -47664,8 +47835,11 @@
       <c r="JI58" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="JJ58" t="n">
+      <c r="JJ58" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="JK58" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -48478,8 +48652,11 @@
       <c r="JI59" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="JJ59" t="n">
+      <c r="JJ59" s="1" t="n">
         <v>392</v>
+      </c>
+      <c r="JK59" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -49292,8 +49469,11 @@
       <c r="JI60" s="1" t="n">
         <v>1.28</v>
       </c>
-      <c r="JJ60" t="n">
+      <c r="JJ60" s="1" t="n">
         <v>1.07</v>
+      </c>
+      <c r="JK60" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -50106,8 +50286,11 @@
       <c r="JI61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JJ61" t="n">
+      <c r="JJ61" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="JK61" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -50920,8 +51103,11 @@
       <c r="JI62" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JJ62" t="n">
+      <c r="JJ62" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JK62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -51734,8 +51920,11 @@
       <c r="JI63" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JJ63" t="n">
+      <c r="JJ63" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JK63" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -52548,8 +52737,11 @@
       <c r="JI64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JJ64" t="n">
+      <c r="JJ64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JK64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -53362,8 +53554,11 @@
       <c r="JI65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JJ65" t="n">
+      <c r="JJ65" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="JK65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -54176,8 +54371,11 @@
       <c r="JI66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JJ66" t="n">
+      <c r="JJ66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JK66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -54990,8 +55188,11 @@
       <c r="JI67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JJ67" t="n">
+      <c r="JJ67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JK67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -55804,8 +56005,11 @@
       <c r="JI68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JJ68" t="n">
+      <c r="JJ68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JK68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -56618,8 +56822,11 @@
       <c r="JI69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JJ69" t="n">
+      <c r="JJ69" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JK69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -57432,8 +57639,11 @@
       <c r="JI70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JJ70" t="n">
+      <c r="JJ70" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JK70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -58246,8 +58456,11 @@
       <c r="JI71" s="1" t="n">
         <v>47.4</v>
       </c>
-      <c r="JJ71" t="n">
+      <c r="JJ71" s="1" t="n">
         <v>37.9</v>
+      </c>
+      <c r="JK71" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -59060,8 +59273,11 @@
       <c r="JI72" s="1" t="n">
         <v>42.22</v>
       </c>
-      <c r="JJ72" t="n">
+      <c r="JJ72" s="1" t="n">
         <v>35.64</v>
+      </c>
+      <c r="JK72" t="n">
+        <v>22.11</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -59874,8 +60090,11 @@
       <c r="JI73" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JJ73" t="n">
+      <c r="JJ73" s="1" t="n">
         <v>13.52</v>
+      </c>
+      <c r="JK73" t="n">
+        <v>14.21</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -60688,8 +60907,11 @@
       <c r="JI74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JJ74" t="n">
+      <c r="JJ74" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JK74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -61502,8 +61724,11 @@
       <c r="JI75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JJ75" t="n">
+      <c r="JJ75" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="JK75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -62316,8 +62541,11 @@
       <c r="JI76" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JJ76" t="n">
+      <c r="JJ76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JK76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -63130,8 +63358,11 @@
       <c r="JI77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JJ77" t="n">
+      <c r="JJ77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JK77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -63944,8 +64175,11 @@
       <c r="JI78" s="1" t="n">
         <v>2.84</v>
       </c>
-      <c r="JJ78" t="n">
+      <c r="JJ78" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="JK78" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -64758,8 +64992,11 @@
       <c r="JI79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JJ79" t="n">
+      <c r="JJ79" s="1" t="n">
         <v>4.91</v>
+      </c>
+      <c r="JK79" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -65572,8 +65809,11 @@
       <c r="JI80" s="1" t="n">
         <v>25.9</v>
       </c>
-      <c r="JJ80" t="n">
+      <c r="JJ80" s="1" t="n">
         <v>40.7</v>
+      </c>
+      <c r="JK80" t="n">
+        <v>54.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -66386,8 +66626,11 @@
       <c r="JI81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="JJ81" t="n">
+      <c r="JJ81" s="1" t="n">
         <v>20.4</v>
+      </c>
+      <c r="JK81" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -67200,8 +67443,11 @@
       <c r="JI82" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="JJ82" t="n">
+      <c r="JJ82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="JK82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -68014,8 +68260,11 @@
       <c r="JI83" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="JJ83" t="n">
+      <c r="JJ83" s="1" t="n">
         <v>84.7</v>
+      </c>
+      <c r="JK83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -68828,8 +69077,11 @@
       <c r="JI84" s="1" t="n">
         <v>25.24</v>
       </c>
-      <c r="JJ84" t="n">
+      <c r="JJ84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JK84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -69642,8 +69894,11 @@
       <c r="JI85" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="JJ85" t="n">
+      <c r="JJ85" s="1" t="n">
         <v>106.8</v>
+      </c>
+      <c r="JK85" t="n">
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -70456,8 +70711,11 @@
       <c r="JI86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JJ86" t="n">
+      <c r="JJ86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JK86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -71270,8 +71528,11 @@
       <c r="JI87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JJ87" t="n">
+      <c r="JJ87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JK87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -72084,8 +72345,11 @@
       <c r="JI88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JJ88" t="n">
+      <c r="JJ88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JK88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -72898,8 +73162,11 @@
       <c r="JI89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JJ89" t="n">
+      <c r="JJ89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JK89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -73712,8 +73979,11 @@
       <c r="JI90" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="JJ90" t="n">
+      <c r="JJ90" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="JK90" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -74526,8 +74796,11 @@
       <c r="JI91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="JJ91" t="n">
+      <c r="JJ91" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="JK91" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -75340,8 +75613,11 @@
       <c r="JI92" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="JJ92" t="n">
+      <c r="JJ92" s="1" t="n">
         <v>301</v>
+      </c>
+      <c r="JK92" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -76154,8 +76430,11 @@
       <c r="JI93" s="1" t="n">
         <v>74.7</v>
       </c>
-      <c r="JJ93" t="n">
+      <c r="JJ93" s="1" t="n">
         <v>76.8</v>
+      </c>
+      <c r="JK93" t="n">
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -76968,8 +77247,11 @@
       <c r="JI94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JJ94" t="n">
+      <c r="JJ94" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="JK94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -77782,8 +78064,11 @@
       <c r="JI95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JJ95" t="n">
+      <c r="JJ95" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JK95" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -78596,8 +78881,11 @@
       <c r="JI96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JJ96" t="n">
+      <c r="JJ96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JK96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -79410,8 +79698,11 @@
       <c r="JI97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JJ97" t="n">
+      <c r="JJ97" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JK97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -80224,8 +80515,11 @@
       <c r="JI98" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JJ98" t="n">
+      <c r="JJ98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JK98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -81038,7 +81332,10 @@
       <c r="JI99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JJ99" t="n">
+      <c r="JJ99" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JK99" t="n">
         <v>52</v>
       </c>
     </row>
@@ -81852,8 +82149,11 @@
       <c r="JI100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JJ100" t="n">
+      <c r="JJ100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JK100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -82666,8 +82966,11 @@
       <c r="JI101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JJ101" t="n">
+      <c r="JJ101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JK101" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -83480,8 +83783,11 @@
       <c r="JI102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="JJ102" t="n">
+      <c r="JJ102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="JK102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JK102"/>
+  <dimension ref="A1:JN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1269,8 +1269,17 @@
       <c r="JJ1" s="1" t="n">
         <v>10779</v>
       </c>
-      <c r="JK1" t="n">
+      <c r="JK1" s="1" t="n">
         <v>10787</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>10801</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2086,7 +2095,16 @@
       <c r="JJ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JK2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JL2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JM2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JN2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2903,8 +2921,17 @@
       <c r="JJ3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JK3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JL3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3720,8 +3747,17 @@
       <c r="JJ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JK4" t="n">
+      <c r="JK4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JL4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4537,8 +4573,17 @@
       <c r="JJ5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JK5" t="n">
+      <c r="JK5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JL5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5354,8 +5399,17 @@
       <c r="JJ6" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="JK6" t="n">
+      <c r="JK6" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="JL6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JM6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6171,8 +6225,17 @@
       <c r="JJ7" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="JK7" t="n">
+      <c r="JK7" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="JL7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JM7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6988,8 +7051,17 @@
       <c r="JJ8" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JK8" t="n">
+      <c r="JK8" s="1" t="n">
         <v>-56</v>
+      </c>
+      <c r="JL8" s="1" t="n">
+        <v>-22</v>
+      </c>
+      <c r="JM8" s="1" t="n">
+        <v>-22</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7805,7 +7877,16 @@
       <c r="JJ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JK9" t="n">
+      <c r="JK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8622,8 +8703,17 @@
       <c r="JJ10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JK10" t="n">
+      <c r="JK10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JL10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JM10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9439,8 +9529,17 @@
       <c r="JJ11" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="JK11" t="n">
+      <c r="JK11" s="1" t="n">
         <v>183</v>
+      </c>
+      <c r="JL11" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="JM11" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10256,8 +10355,17 @@
       <c r="JJ12" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="JK12" t="n">
+      <c r="JK12" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="JL12" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="JM12" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11073,8 +11181,17 @@
       <c r="JJ13" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="JK13" t="n">
+      <c r="JK13" s="1" t="n">
         <v>320</v>
+      </c>
+      <c r="JL13" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="JM13" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>446</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -11890,8 +12007,17 @@
       <c r="JJ14" s="1" t="n">
         <v>1.71</v>
       </c>
-      <c r="JK14" t="n">
+      <c r="JK14" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="JL14" s="1" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JM14" s="1" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12707,8 +12833,17 @@
       <c r="JJ15" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="JK15" t="n">
+      <c r="JK15" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="JL15" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="JM15" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13524,8 +13659,17 @@
       <c r="JJ16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JK16" t="n">
+      <c r="JK16" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="JL16" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM16" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14341,8 +14485,17 @@
       <c r="JJ17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JK17" t="n">
+      <c r="JK17" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JL17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JM17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15158,8 +15311,17 @@
       <c r="JJ18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JK18" t="n">
+      <c r="JK18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -15975,8 +16137,17 @@
       <c r="JJ19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JK19" t="n">
+      <c r="JK19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -16792,8 +16963,17 @@
       <c r="JJ20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JK20" t="n">
+      <c r="JK20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JL20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17609,8 +17789,17 @@
       <c r="JJ21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JK21" t="n">
+      <c r="JK21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JL21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18426,8 +18615,17 @@
       <c r="JJ22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JK22" t="n">
+      <c r="JK22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JL22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19243,8 +19441,17 @@
       <c r="JJ23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JK23" t="n">
+      <c r="JK23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JL23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20060,8 +20267,17 @@
       <c r="JJ24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="JK24" t="n">
+      <c r="JK24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JL24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -20877,8 +21093,17 @@
       <c r="JJ25" s="1" t="n">
         <v>59.3</v>
       </c>
-      <c r="JK25" t="n">
+      <c r="JK25" s="1" t="n">
         <v>52.9</v>
+      </c>
+      <c r="JL25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JM25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -21694,8 +21919,17 @@
       <c r="JJ26" s="1" t="n">
         <v>23.69</v>
       </c>
-      <c r="JK26" t="n">
+      <c r="JK26" s="1" t="n">
         <v>35.56</v>
+      </c>
+      <c r="JL26" s="1" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JM26" s="1" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>55.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22511,8 +22745,17 @@
       <c r="JJ27" s="1" t="n">
         <v>14.04</v>
       </c>
-      <c r="JK27" t="n">
+      <c r="JK27" s="1" t="n">
         <v>18.82</v>
+      </c>
+      <c r="JL27" s="1" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JM27" s="1" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>22.3</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23328,8 +23571,17 @@
       <c r="JJ28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JK28" t="n">
+      <c r="JK28" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JL28" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="JM28" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="JN28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24145,8 +24397,17 @@
       <c r="JJ29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JK29" t="n">
+      <c r="JK29" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JL29" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JM29" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -24962,8 +25223,17 @@
       <c r="JJ30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JK30" t="n">
+      <c r="JK30" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JL30" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JM30" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -25779,8 +26049,17 @@
       <c r="JJ31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JK31" t="n">
+      <c r="JK31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JL31" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JM31" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JN31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -26596,8 +26875,17 @@
       <c r="JJ32" s="1" t="n">
         <v>1.93</v>
       </c>
-      <c r="JK32" t="n">
+      <c r="JK32" s="1" t="n">
         <v>3.12</v>
+      </c>
+      <c r="JL32" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JM32" s="1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JN32" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -27413,8 +27701,17 @@
       <c r="JJ33" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="JK33" t="n">
+      <c r="JK33" s="1" t="n">
         <v>5.89</v>
+      </c>
+      <c r="JL33" s="1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JM33" s="1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JN33" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28230,8 +28527,17 @@
       <c r="JJ34" s="1" t="n">
         <v>46.2</v>
       </c>
-      <c r="JK34" t="n">
+      <c r="JK34" s="1" t="n">
         <v>24.5</v>
+      </c>
+      <c r="JL34" s="1" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JM34" s="1" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JN34" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29047,8 +29353,17 @@
       <c r="JJ35" s="1" t="n">
         <v>30.8</v>
       </c>
-      <c r="JK35" t="n">
+      <c r="JK35" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JL35" s="1" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JM35" s="1" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JN35" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -29864,8 +30179,17 @@
       <c r="JJ36" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="JK36" t="n">
+      <c r="JK36" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JL36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JM36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JN36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -30681,8 +31005,17 @@
       <c r="JJ37" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="JK37" t="n">
+      <c r="JK37" s="1" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JL37" s="1" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JM37" s="1" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JN37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -31498,8 +31831,17 @@
       <c r="JJ38" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JK38" t="n">
+      <c r="JK38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JL38" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JM38" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -32315,8 +32657,17 @@
       <c r="JJ39" s="1" t="n">
         <v>81.7</v>
       </c>
-      <c r="JK39" t="n">
+      <c r="JK39" s="1" t="n">
         <v>87.8</v>
+      </c>
+      <c r="JL39" s="1" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JM39" s="1" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JN39" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -33132,7 +33483,16 @@
       <c r="JJ40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JK40" t="n">
+      <c r="JK40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33949,8 +34309,17 @@
       <c r="JJ41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK41" t="n">
+      <c r="JK41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JL41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -34766,7 +35135,16 @@
       <c r="JJ42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JK42" t="n">
+      <c r="JK42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -35583,8 +35961,17 @@
       <c r="JJ43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JK43" t="n">
+      <c r="JK43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JL43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -36400,8 +36787,17 @@
       <c r="JJ44" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="JK44" t="n">
+      <c r="JK44" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="JL44" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="JM44" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -37217,8 +37613,17 @@
       <c r="JJ45" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="JK45" t="n">
+      <c r="JK45" s="1" t="n">
         <v>181</v>
+      </c>
+      <c r="JL45" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="JM45" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -38034,8 +38439,17 @@
       <c r="JJ46" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="JK46" t="n">
+      <c r="JK46" s="1" t="n">
         <v>226</v>
+      </c>
+      <c r="JL46" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="JM46" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="JN46" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -38851,8 +39265,17 @@
       <c r="JJ47" s="1" t="n">
         <v>75.2</v>
       </c>
-      <c r="JK47" t="n">
+      <c r="JK47" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JL47" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JM47" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JN47" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -39668,8 +40091,17 @@
       <c r="JJ48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JK48" t="n">
+      <c r="JK48" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JL48" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JM48" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="JN48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -40485,7 +40917,16 @@
       <c r="JJ49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JK49" t="n">
+      <c r="JK49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JN49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -41302,8 +41743,17 @@
       <c r="JJ50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JK50" t="n">
+      <c r="JK50" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JL50" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM50" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -42119,8 +42569,17 @@
       <c r="JJ51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JK51" t="n">
+      <c r="JK51" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JL51" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="JM51" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="JN51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -42936,8 +43395,17 @@
       <c r="JJ52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JK52" t="n">
+      <c r="JK52" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JL52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JM52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -43753,8 +44221,17 @@
       <c r="JJ53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JK53" t="n">
+      <c r="JK53" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JL53" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM53" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -44570,8 +45047,17 @@
       <c r="JJ54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JK54" t="n">
+      <c r="JK54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JL54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -45387,8 +45873,17 @@
       <c r="JJ55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JK55" t="n">
+      <c r="JK55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JL55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -46204,8 +46699,17 @@
       <c r="JJ56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JK56" t="n">
+      <c r="JK56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JL56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JM56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -47021,8 +47525,17 @@
       <c r="JJ57" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="JK57" t="n">
+      <c r="JK57" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="JL57" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="JM57" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="JN57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -47838,8 +48351,17 @@
       <c r="JJ58" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="JK58" t="n">
+      <c r="JK58" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="JL58" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="JM58" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="JN58" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -48655,8 +49177,17 @@
       <c r="JJ59" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="JK59" t="n">
+      <c r="JK59" s="1" t="n">
         <v>398</v>
+      </c>
+      <c r="JL59" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="JM59" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -49472,8 +50003,17 @@
       <c r="JJ60" s="1" t="n">
         <v>1.07</v>
       </c>
-      <c r="JK60" t="n">
+      <c r="JK60" s="1" t="n">
         <v>1.55</v>
+      </c>
+      <c r="JL60" s="1" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JM60" s="1" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JN60" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -50289,8 +50829,17 @@
       <c r="JJ61" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="JK61" t="n">
+      <c r="JK61" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="JL61" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="JM61" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="JN61" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -51106,8 +51655,17 @@
       <c r="JJ62" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JK62" t="n">
+      <c r="JK62" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JL62" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM62" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JN62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -51923,8 +52481,17 @@
       <c r="JJ63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JK63" t="n">
+      <c r="JK63" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JL63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JN63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -52740,8 +53307,17 @@
       <c r="JJ64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JK64" t="n">
+      <c r="JK64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL64" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM64" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JN64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -53557,8 +54133,17 @@
       <c r="JJ65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JK65" t="n">
+      <c r="JK65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JL65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -54374,8 +54959,17 @@
       <c r="JJ66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JK66" t="n">
+      <c r="JK66" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JL66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -55191,8 +55785,17 @@
       <c r="JJ67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JK67" t="n">
+      <c r="JK67" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JL67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -56008,8 +56611,17 @@
       <c r="JJ68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JK68" t="n">
+      <c r="JK68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JL68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -56825,8 +57437,17 @@
       <c r="JJ69" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK69" t="n">
+      <c r="JK69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JL69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -57642,8 +58263,17 @@
       <c r="JJ70" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JK70" t="n">
+      <c r="JK70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="JL70" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM70" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JN70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -58459,8 +59089,17 @@
       <c r="JJ71" s="1" t="n">
         <v>37.9</v>
       </c>
-      <c r="JK71" t="n">
+      <c r="JK71" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="JL71" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JM71" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JN71" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -59276,8 +59915,17 @@
       <c r="JJ72" s="1" t="n">
         <v>35.64</v>
       </c>
-      <c r="JK72" t="n">
+      <c r="JK72" s="1" t="n">
         <v>22.11</v>
+      </c>
+      <c r="JL72" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM72" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="JN72" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -60093,8 +60741,17 @@
       <c r="JJ73" s="1" t="n">
         <v>13.52</v>
       </c>
-      <c r="JK73" t="n">
+      <c r="JK73" s="1" t="n">
         <v>14.21</v>
+      </c>
+      <c r="JL73" s="1" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JM73" s="1" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JN73" t="n">
+        <v>16.36</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -60910,8 +61567,17 @@
       <c r="JJ74" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JK74" t="n">
+      <c r="JK74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="JL74" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM74" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JN74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -61727,8 +62393,17 @@
       <c r="JJ75" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JK75" t="n">
+      <c r="JK75" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JL75" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JM75" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JN75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -62544,7 +63219,16 @@
       <c r="JJ76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JK76" t="n">
+      <c r="JK76" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JL76" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM76" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN76" t="n">
         <v>43</v>
       </c>
     </row>
@@ -63361,8 +64045,17 @@
       <c r="JJ77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JK77" t="n">
+      <c r="JK77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JL77" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JM77" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="JN77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -64178,8 +64871,17 @@
       <c r="JJ78" s="1" t="n">
         <v>1.86</v>
       </c>
-      <c r="JK78" t="n">
+      <c r="JK78" s="1" t="n">
         <v>1.82</v>
+      </c>
+      <c r="JL78" s="1" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JM78" s="1" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JN78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -64995,8 +65697,17 @@
       <c r="JJ79" s="1" t="n">
         <v>4.91</v>
       </c>
-      <c r="JK79" t="n">
+      <c r="JK79" s="1" t="n">
         <v>2.83</v>
+      </c>
+      <c r="JL79" s="1" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JM79" s="1" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JN79" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -65812,8 +66523,17 @@
       <c r="JJ80" s="1" t="n">
         <v>40.7</v>
       </c>
-      <c r="JK80" t="n">
+      <c r="JK80" s="1" t="n">
         <v>54.9</v>
+      </c>
+      <c r="JL80" s="1" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JM80" s="1" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JN80" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -66629,8 +67349,17 @@
       <c r="JJ81" s="1" t="n">
         <v>20.4</v>
       </c>
-      <c r="JK81" t="n">
+      <c r="JK81" s="1" t="n">
         <v>35.3</v>
+      </c>
+      <c r="JL81" s="1" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JM81" s="1" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JN81" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -67446,7 +68175,16 @@
       <c r="JJ82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="JK82" t="n">
+      <c r="JK82" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JL82" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JM82" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JN82" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -68263,8 +69001,17 @@
       <c r="JJ83" s="1" t="n">
         <v>84.7</v>
       </c>
-      <c r="JK83" t="n">
+      <c r="JK83" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="JL83" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="JM83" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="JN83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -69080,8 +69827,17 @@
       <c r="JJ84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="JK84" t="n">
+      <c r="JK84" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="JL84" s="1" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JM84" s="1" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JN84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -69897,8 +70653,17 @@
       <c r="JJ85" s="1" t="n">
         <v>106.8</v>
       </c>
-      <c r="JK85" t="n">
+      <c r="JK85" s="1" t="n">
         <v>81.59999999999999</v>
+      </c>
+      <c r="JL85" s="1" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JM85" s="1" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JN85" t="n">
+        <v>94.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -70714,8 +71479,17 @@
       <c r="JJ86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JK86" t="n">
+      <c r="JK86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JL86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -71531,8 +72305,17 @@
       <c r="JJ87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK87" t="n">
+      <c r="JK87" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JL87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -72348,8 +73131,17 @@
       <c r="JJ88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JK88" t="n">
+      <c r="JK88" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JL88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -73165,8 +73957,17 @@
       <c r="JJ89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JK89" t="n">
+      <c r="JK89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JL89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -73982,8 +74783,17 @@
       <c r="JJ90" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="JK90" t="n">
+      <c r="JK90" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="JL90" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="JM90" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="JN90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -74799,8 +75609,17 @@
       <c r="JJ91" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="JK91" t="n">
+      <c r="JK91" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="JL91" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="JM91" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="JN91" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -75616,8 +76435,17 @@
       <c r="JJ92" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="JK92" t="n">
+      <c r="JK92" s="1" t="n">
         <v>302</v>
+      </c>
+      <c r="JL92" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="JM92" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="JN92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -76433,8 +77261,17 @@
       <c r="JJ93" s="1" t="n">
         <v>76.8</v>
       </c>
-      <c r="JK93" t="n">
+      <c r="JK93" s="1" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="JL93" s="1" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JM93" s="1" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JN93" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -77250,8 +78087,17 @@
       <c r="JJ94" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JK94" t="n">
+      <c r="JK94" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JL94" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JM94" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="JN94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -78067,8 +78913,17 @@
       <c r="JJ95" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JK95" t="n">
+      <c r="JK95" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JL95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -78884,8 +79739,17 @@
       <c r="JJ96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JK96" t="n">
+      <c r="JK96" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JL96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -79701,8 +80565,17 @@
       <c r="JJ97" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JK97" t="n">
+      <c r="JK97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="JL97" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM97" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="JN97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -80518,7 +81391,16 @@
       <c r="JJ98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JK98" t="n">
+      <c r="JK98" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JL98" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM98" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JN98" t="n">
         <v>43</v>
       </c>
     </row>
@@ -81335,8 +82217,17 @@
       <c r="JJ99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JK99" t="n">
+      <c r="JK99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JL99" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM99" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -82152,8 +83043,17 @@
       <c r="JJ100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JK100" t="n">
+      <c r="JK100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JL100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -82969,8 +83869,17 @@
       <c r="JJ101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JK101" t="n">
+      <c r="JK101" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JL101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -83786,8 +84695,17 @@
       <c r="JJ102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="JK102" t="n">
+      <c r="JK102" s="1" t="n">
         <v>83.3</v>
+      </c>
+      <c r="JL102" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JM102" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JN102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JU102"/>
+  <dimension ref="A1:JV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GS74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GV98" activeCellId="0" sqref="GV98"/>
@@ -1299,8 +1299,11 @@
       <c r="JT1" s="1" t="n">
         <v>10801</v>
       </c>
-      <c r="JU1" t="n">
+      <c r="JU1" s="1" t="n">
         <v>10801</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>10810</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2146,7 +2149,10 @@
       <c r="JT2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JU2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2993,8 +2999,11 @@
       <c r="JT3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JU3" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3840,8 +3849,11 @@
       <c r="JT4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JU4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4687,7 +4699,10 @@
       <c r="JT5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JU5" t="n">
+      <c r="JU5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,8 +5549,11 @@
       <c r="JT6" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JU6" t="n">
+      <c r="JU6" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6381,8 +6399,11 @@
       <c r="JT7" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="JU7" t="n">
+      <c r="JU7" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7228,8 +7249,11 @@
       <c r="JT8" s="1" t="n">
         <v>-22</v>
       </c>
-      <c r="JU8" t="n">
+      <c r="JU8" s="1" t="n">
         <v>-22</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8075,8 +8099,11 @@
       <c r="JT9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JU9" t="n">
+      <c r="JU9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8922,8 +8949,11 @@
       <c r="JT10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JU10" t="n">
+      <c r="JU10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9769,8 +9799,11 @@
       <c r="JT11" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="JU11" t="n">
+      <c r="JU11" s="1" t="n">
         <v>256</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10616,8 +10649,11 @@
       <c r="JT12" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="JU12" t="n">
+      <c r="JU12" s="1" t="n">
         <v>190</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11463,8 +11499,11 @@
       <c r="JT13" s="1" t="n">
         <v>446</v>
       </c>
-      <c r="JU13" t="n">
+      <c r="JU13" s="1" t="n">
         <v>446</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>452</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12310,8 +12349,11 @@
       <c r="JT14" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="JU14" t="n">
+      <c r="JU14" s="1" t="n">
         <v>1.35</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13157,8 +13199,11 @@
       <c r="JT15" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="JU15" t="n">
+      <c r="JU15" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14004,8 +14049,11 @@
       <c r="JT16" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JU16" t="n">
+      <c r="JU16" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14851,8 +14899,11 @@
       <c r="JT17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JU17" t="n">
+      <c r="JU17" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15698,8 +15749,11 @@
       <c r="JT18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JU18" t="n">
+      <c r="JU18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JV18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16545,8 +16599,11 @@
       <c r="JT19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JU19" t="n">
+      <c r="JU19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JV19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17392,8 +17449,11 @@
       <c r="JT20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU20" t="n">
+      <c r="JU20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18239,8 +18299,11 @@
       <c r="JT21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JU21" t="n">
+      <c r="JU21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19086,8 +19149,11 @@
       <c r="JT22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JU22" t="n">
+      <c r="JU22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JV22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19933,8 +19999,11 @@
       <c r="JT23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JU23" t="n">
+      <c r="JU23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20780,8 +20849,11 @@
       <c r="JT24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JU24" t="n">
+      <c r="JU24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21627,8 +21699,11 @@
       <c r="JT25" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JU25" t="n">
+      <c r="JU25" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>62.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22474,8 +22549,11 @@
       <c r="JT26" s="1" t="n">
         <v>55.75</v>
       </c>
-      <c r="JU26" t="n">
+      <c r="JU26" s="1" t="n">
         <v>55.75</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>19.65</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23321,8 +23399,11 @@
       <c r="JT27" s="1" t="n">
         <v>22.3</v>
       </c>
-      <c r="JU27" t="n">
+      <c r="JU27" s="1" t="n">
         <v>22.3</v>
+      </c>
+      <c r="JV27" t="n">
+        <v>12.22</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24168,8 +24249,11 @@
       <c r="JT28" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="JU28" t="n">
+      <c r="JU28" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="JV28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25015,8 +25099,11 @@
       <c r="JT29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JU29" t="n">
+      <c r="JU29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JV29" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25862,8 +25949,11 @@
       <c r="JT30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JU30" t="n">
+      <c r="JU30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JV30" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26709,8 +26799,11 @@
       <c r="JT31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JU31" t="n">
+      <c r="JU31" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JV31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27556,8 +27649,11 @@
       <c r="JT32" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="JU32" t="n">
+      <c r="JU32" s="1" t="n">
         <v>2.6</v>
+      </c>
+      <c r="JV32" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28403,8 +28499,11 @@
       <c r="JT33" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="JU33" t="n">
+      <c r="JU33" s="1" t="n">
         <v>6.5</v>
+      </c>
+      <c r="JV33" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29250,8 +29349,11 @@
       <c r="JT34" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="JU34" t="n">
+      <c r="JU34" s="1" t="n">
         <v>36.5</v>
+      </c>
+      <c r="JV34" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30097,8 +30199,11 @@
       <c r="JT35" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="JU35" t="n">
+      <c r="JU35" s="1" t="n">
         <v>15.4</v>
+      </c>
+      <c r="JV35" t="n">
+        <v>41.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30944,8 +31049,11 @@
       <c r="JT36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="JU36" t="n">
+      <c r="JU36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JV36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -31791,8 +31899,11 @@
       <c r="JT37" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="JU37" t="n">
+      <c r="JU37" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JV37" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32638,8 +32749,11 @@
       <c r="JT38" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JU38" t="n">
+      <c r="JU38" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JV38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33485,8 +33599,11 @@
       <c r="JT39" s="1" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="JU39" t="n">
+      <c r="JU39" s="1" t="n">
         <v>80.40000000000001</v>
+      </c>
+      <c r="JV39" t="n">
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34332,8 +34449,11 @@
       <c r="JT40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU40" t="n">
+      <c r="JU40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JV40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -35179,7 +35299,10 @@
       <c r="JT41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JU41" t="n">
+      <c r="JU41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36026,8 +36149,11 @@
       <c r="JT42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JU42" t="n">
+      <c r="JU42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JV42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -36873,8 +36999,11 @@
       <c r="JT43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JU43" t="n">
+      <c r="JU43" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JV43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -37720,8 +37849,11 @@
       <c r="JT44" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="JU44" t="n">
+      <c r="JU44" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38567,8 +38699,11 @@
       <c r="JT45" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="JU45" t="n">
+      <c r="JU45" s="1" t="n">
         <v>304</v>
+      </c>
+      <c r="JV45" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39414,8 +39549,11 @@
       <c r="JT46" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="JU46" t="n">
+      <c r="JU46" s="1" t="n">
         <v>341</v>
+      </c>
+      <c r="JV46" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40261,8 +40399,11 @@
       <c r="JT47" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="JU47" t="n">
+      <c r="JU47" s="1" t="n">
         <v>76.5</v>
+      </c>
+      <c r="JV47" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41108,8 +41249,11 @@
       <c r="JT48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JU48" t="n">
+      <c r="JU48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JV48" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41955,7 +42099,10 @@
       <c r="JT49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JU49" t="n">
+      <c r="JU49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -42802,8 +42949,11 @@
       <c r="JT50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JU50" t="n">
+      <c r="JU50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JV50" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43649,8 +43799,11 @@
       <c r="JT51" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="JU51" t="n">
+      <c r="JU51" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="JV51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44496,8 +44649,11 @@
       <c r="JT52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JU52" t="n">
+      <c r="JU52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JV52" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45343,7 +45499,10 @@
       <c r="JT53" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JU53" t="n">
+      <c r="JU53" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="JV53" t="n">
         <v>46</v>
       </c>
     </row>
@@ -46190,8 +46349,11 @@
       <c r="JT54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JU54" t="n">
+      <c r="JU54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JV54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -47037,8 +47199,11 @@
       <c r="JT55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JU55" t="n">
+      <c r="JU55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JV55" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47884,8 +48049,11 @@
       <c r="JT56" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JU56" t="n">
+      <c r="JU56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JV56" t="n">
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48731,8 +48899,11 @@
       <c r="JT57" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="JU57" t="n">
+      <c r="JU57" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="JV57" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49578,8 +49749,11 @@
       <c r="JT58" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="JU58" t="n">
+      <c r="JU58" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="JV58" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50425,8 +50599,11 @@
       <c r="JT59" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="JU59" t="n">
+      <c r="JU59" s="1" t="n">
         <v>360</v>
+      </c>
+      <c r="JV59" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -51272,8 +51449,11 @@
       <c r="JT60" s="1" t="n">
         <v>1.57</v>
       </c>
-      <c r="JU60" t="n">
+      <c r="JU60" s="1" t="n">
         <v>1.57</v>
+      </c>
+      <c r="JV60" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -52119,8 +52299,11 @@
       <c r="JT61" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="JU61" t="n">
+      <c r="JU61" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="JV61" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52966,8 +53149,11 @@
       <c r="JT62" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JU62" t="n">
+      <c r="JU62" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="JV62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53813,8 +53999,11 @@
       <c r="JT63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JU63" t="n">
+      <c r="JU63" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JV63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54660,8 +54849,11 @@
       <c r="JT64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JU64" t="n">
+      <c r="JU64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JV64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -55507,8 +55699,11 @@
       <c r="JT65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JU65" t="n">
+      <c r="JU65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="JV65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -56354,8 +56549,11 @@
       <c r="JT66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JU66" t="n">
+      <c r="JU66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JV66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -57201,8 +57399,11 @@
       <c r="JT67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU67" t="n">
+      <c r="JU67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JV67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -58048,8 +58249,11 @@
       <c r="JT68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JU68" t="n">
+      <c r="JU68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JV68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58895,8 +59099,11 @@
       <c r="JT69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JU69" t="n">
+      <c r="JU69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JV69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -59742,8 +59949,11 @@
       <c r="JT70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JU70" t="n">
+      <c r="JU70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JV70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -60589,8 +60799,11 @@
       <c r="JT71" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="JU71" t="n">
+      <c r="JU71" s="1" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JV71" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -61436,8 +61649,11 @@
       <c r="JT72" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JU72" t="n">
+      <c r="JU72" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JV72" t="n">
+        <v>47.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -62283,8 +62499,11 @@
       <c r="JT73" s="1" t="n">
         <v>16.36</v>
       </c>
-      <c r="JU73" t="n">
+      <c r="JU73" s="1" t="n">
         <v>16.36</v>
+      </c>
+      <c r="JV73" t="n">
+        <v>20.36</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -63130,8 +63349,11 @@
       <c r="JT74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JU74" t="n">
+      <c r="JU74" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JV74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63977,8 +64199,11 @@
       <c r="JT75" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JU75" t="n">
+      <c r="JU75" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JV75" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -64824,8 +65049,11 @@
       <c r="JT76" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JU76" t="n">
+      <c r="JU76" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JV76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -65671,8 +65899,11 @@
       <c r="JT77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JU77" t="n">
+      <c r="JU77" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JV77" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -66518,8 +66749,11 @@
       <c r="JT78" s="1" t="n">
         <v>2.55</v>
       </c>
-      <c r="JU78" t="n">
+      <c r="JU78" s="1" t="n">
         <v>2.55</v>
+      </c>
+      <c r="JV78" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -67365,8 +67599,11 @@
       <c r="JT79" s="1" t="n">
         <v>4.67</v>
       </c>
-      <c r="JU79" t="n">
+      <c r="JU79" s="1" t="n">
         <v>4.67</v>
+      </c>
+      <c r="JV79" t="n">
+        <v>5.67</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -68212,8 +68449,11 @@
       <c r="JT80" s="1" t="n">
         <v>33.9</v>
       </c>
-      <c r="JU80" t="n">
+      <c r="JU80" s="1" t="n">
         <v>33.9</v>
+      </c>
+      <c r="JV80" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -69059,8 +69299,11 @@
       <c r="JT81" s="1" t="n">
         <v>21.4</v>
       </c>
-      <c r="JU81" t="n">
+      <c r="JU81" s="1" t="n">
         <v>21.4</v>
+      </c>
+      <c r="JV81" t="n">
+        <v>17.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69906,8 +70149,11 @@
       <c r="JT82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="JU82" t="n">
+      <c r="JU82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="JV82" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -70753,8 +70999,11 @@
       <c r="JT83" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="JU83" t="n">
+      <c r="JU83" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="JV83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -71600,8 +71849,11 @@
       <c r="JT84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="JU84" t="n">
+      <c r="JU84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="JV84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -72447,8 +72699,11 @@
       <c r="JT85" s="1" t="n">
         <v>94.2</v>
       </c>
-      <c r="JU85" t="n">
+      <c r="JU85" s="1" t="n">
         <v>94.2</v>
+      </c>
+      <c r="JV85" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -73294,8 +73549,11 @@
       <c r="JT86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JU86" t="n">
+      <c r="JU86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JV86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -74141,8 +74399,11 @@
       <c r="JT87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JU87" t="n">
+      <c r="JU87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JV87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -74988,8 +75249,11 @@
       <c r="JT88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JU88" t="n">
+      <c r="JU88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JV88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -75835,7 +76099,10 @@
       <c r="JT89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JU89" t="n">
+      <c r="JU89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76682,8 +76949,11 @@
       <c r="JT90" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="JU90" t="n">
+      <c r="JU90" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="JV90" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -77529,8 +77799,11 @@
       <c r="JT91" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="JU91" t="n">
+      <c r="JU91" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="JV91" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -78376,8 +78649,11 @@
       <c r="JT92" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="JU92" t="n">
+      <c r="JU92" s="1" t="n">
         <v>264</v>
+      </c>
+      <c r="JV92" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -79223,8 +79499,11 @@
       <c r="JT93" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="JU93" t="n">
+      <c r="JU93" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="JV93" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -80070,8 +80349,11 @@
       <c r="JT94" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JU94" t="n">
+      <c r="JU94" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JV94" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -80917,8 +81199,11 @@
       <c r="JT95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU95" t="n">
+      <c r="JU95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JV95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -81764,8 +82049,11 @@
       <c r="JT96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JU96" t="n">
+      <c r="JU96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JV96" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -82611,8 +82899,11 @@
       <c r="JT97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JU97" t="n">
+      <c r="JU97" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JV97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -83458,8 +83749,11 @@
       <c r="JT98" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JU98" t="n">
+      <c r="JU98" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JV98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -84305,8 +84599,11 @@
       <c r="JT99" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JU99" t="n">
+      <c r="JU99" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JV99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -85152,8 +85449,11 @@
       <c r="JT100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JU100" t="n">
+      <c r="JU100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JV100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -85999,8 +86299,11 @@
       <c r="JT101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU101" t="n">
+      <c r="JU101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JV101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -86846,8 +87149,11 @@
       <c r="JT102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="JU102" t="n">
+      <c r="JU102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JV102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KD102"/>
+  <dimension ref="A1:KE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1330,8 +1330,11 @@
       <c r="KC1" s="2" t="n">
         <v>10839</v>
       </c>
-      <c r="KD1" t="n">
+      <c r="KD1" s="2" t="n">
         <v>10841</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>10850</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2204,7 +2207,10 @@
       <c r="KC2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KE2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3078,8 +3084,11 @@
       <c r="KC3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KD3" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3952,7 +3961,10 @@
       <c r="KC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,7 +4838,10 @@
       <c r="KC5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD5" t="n">
+      <c r="KD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5700,8 +5715,11 @@
       <c r="KC6" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KD6" t="n">
+      <c r="KD6" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6574,8 +6592,11 @@
       <c r="KC7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KD7" t="n">
+      <c r="KD7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7448,8 +7469,11 @@
       <c r="KC8" s="2" t="n">
         <v>-28</v>
       </c>
-      <c r="KD8" t="n">
+      <c r="KD8" s="2" t="n">
         <v>-26</v>
+      </c>
+      <c r="KE8" t="n">
+        <v>-17</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8322,7 +8346,10 @@
       <c r="KC9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KD9" t="n">
+      <c r="KD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9196,8 +9223,11 @@
       <c r="KC10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD10" t="n">
+      <c r="KD10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KE10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10070,8 +10100,11 @@
       <c r="KC11" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KD11" t="n">
+      <c r="KD11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KE11" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10944,8 +10977,11 @@
       <c r="KC12" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="KD12" t="n">
+      <c r="KD12" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KE12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11818,8 +11854,11 @@
       <c r="KC13" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="KD13" t="n">
+      <c r="KD13" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="KE13" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12692,8 +12731,11 @@
       <c r="KC14" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="KD14" t="n">
+      <c r="KD14" s="2" t="n">
         <v>1.44</v>
+      </c>
+      <c r="KE14" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13566,8 +13608,11 @@
       <c r="KC15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KD15" t="n">
+      <c r="KD15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KE15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14440,8 +14485,11 @@
       <c r="KC16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KD16" t="n">
+      <c r="KD16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KE16" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15314,8 +15362,11 @@
       <c r="KC17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KD17" t="n">
+      <c r="KD17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16188,8 +16239,11 @@
       <c r="KC18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KD18" t="n">
+      <c r="KD18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KE18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17062,7 +17116,10 @@
       <c r="KC19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KD19" t="n">
+      <c r="KD19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE19" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17936,7 +17993,10 @@
       <c r="KC20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD20" t="n">
+      <c r="KD20" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -18810,7 +18870,10 @@
       <c r="KC21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD21" t="n">
+      <c r="KD21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -19684,8 +19747,11 @@
       <c r="KC22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KD22" t="n">
+      <c r="KD22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KE22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20558,8 +20624,11 @@
       <c r="KC23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD23" t="n">
+      <c r="KD23" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21432,8 +21501,11 @@
       <c r="KC24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KD24" t="n">
+      <c r="KD24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KE24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22306,8 +22378,11 @@
       <c r="KC25" s="2" t="n">
         <v>31.8</v>
       </c>
-      <c r="KD25" t="n">
+      <c r="KD25" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="KE25" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23180,8 +23255,11 @@
       <c r="KC26" s="2" t="n">
         <v>53.43</v>
       </c>
-      <c r="KD26" t="n">
+      <c r="KD26" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KE26" t="n">
+        <v>54.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24054,8 +24132,11 @@
       <c r="KC27" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KD27" t="n">
+      <c r="KD27" s="2" t="n">
         <v>17.57</v>
+      </c>
+      <c r="KE27" t="n">
+        <v>23.43</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24928,8 +25009,11 @@
       <c r="KC28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KD28" t="n">
+      <c r="KD28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KE28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25802,8 +25886,11 @@
       <c r="KC29" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KD29" t="n">
+      <c r="KD29" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KE29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26676,8 +26763,11 @@
       <c r="KC30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD30" t="n">
+      <c r="KD30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KE30" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27550,8 +27640,11 @@
       <c r="KC31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KD31" t="n">
+      <c r="KD31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KE31" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28424,8 +28517,11 @@
       <c r="KC32" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="KD32" t="n">
+      <c r="KD32" s="2" t="n">
         <v>2.81</v>
+      </c>
+      <c r="KE32" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29298,8 +29394,11 @@
       <c r="KC33" s="2" t="n">
         <v>7.29</v>
       </c>
-      <c r="KD33" t="n">
+      <c r="KD33" s="2" t="n">
         <v>9.83</v>
+      </c>
+      <c r="KE33" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30172,8 +30271,11 @@
       <c r="KC34" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KD34" t="n">
+      <c r="KD34" s="2" t="n">
         <v>25.4</v>
+      </c>
+      <c r="KE34" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31046,8 +31148,11 @@
       <c r="KC35" s="2" t="n">
         <v>13.7</v>
       </c>
-      <c r="KD35" t="n">
+      <c r="KD35" s="2" t="n">
         <v>10.2</v>
+      </c>
+      <c r="KE35" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31920,8 +32025,11 @@
       <c r="KC36" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="KD36" t="n">
+      <c r="KD36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="KE36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -32794,8 +32902,11 @@
       <c r="KC37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KD37" t="n">
+      <c r="KD37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KE37" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -33668,8 +33779,11 @@
       <c r="KC38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KD38" t="n">
+      <c r="KD38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="KE38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -34542,8 +34656,11 @@
       <c r="KC39" s="2" t="n">
         <v>92.59999999999999</v>
       </c>
-      <c r="KD39" t="n">
+      <c r="KD39" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KE39" t="n">
+        <v>83.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35416,8 +35533,11 @@
       <c r="KC40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD40" t="n">
+      <c r="KD40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36290,8 +36410,11 @@
       <c r="KC41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD41" t="n">
+      <c r="KD41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37164,8 +37287,11 @@
       <c r="KC42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD42" t="n">
+      <c r="KD42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38038,8 +38164,11 @@
       <c r="KC43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD43" t="n">
+      <c r="KD43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -38912,8 +39041,11 @@
       <c r="KC44" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="KD44" t="n">
+      <c r="KD44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KE44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -39786,8 +39918,11 @@
       <c r="KC45" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="KD45" t="n">
+      <c r="KD45" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="KE45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -40660,8 +40795,11 @@
       <c r="KC46" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="KD46" t="n">
+      <c r="KD46" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="KE46" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -41534,8 +41672,11 @@
       <c r="KC47" s="2" t="n">
         <v>76.5</v>
       </c>
-      <c r="KD47" t="n">
+      <c r="KD47" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="KE47" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42408,8 +42549,11 @@
       <c r="KC48" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KD48" t="n">
+      <c r="KD48" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KE48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43282,8 +43426,11 @@
       <c r="KC49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD49" t="n">
+      <c r="KD49" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KE49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44156,8 +44303,11 @@
       <c r="KC50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KD50" t="n">
+      <c r="KD50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45030,8 +45180,11 @@
       <c r="KC51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KD51" t="n">
+      <c r="KD51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KE51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -45904,8 +46057,11 @@
       <c r="KC52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD52" t="n">
+      <c r="KD52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KE52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -46778,8 +46934,11 @@
       <c r="KC53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD53" t="n">
+      <c r="KD53" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KE53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -47652,8 +47811,11 @@
       <c r="KC54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD54" t="n">
+      <c r="KD54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -48526,7 +48688,10 @@
       <c r="KC55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD55" t="n">
+      <c r="KD55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE55" t="n">
         <v>5</v>
       </c>
     </row>
@@ -49400,7 +49565,10 @@
       <c r="KC56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="KD56" t="n">
+      <c r="KD56" s="2" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="KE56" t="n">
         <v>83.3</v>
       </c>
     </row>
@@ -50274,8 +50442,11 @@
       <c r="KC57" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KD57" t="n">
+      <c r="KD57" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="KE57" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51148,8 +51319,11 @@
       <c r="KC58" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KD58" t="n">
+      <c r="KD58" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KE58" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52022,8 +52196,11 @@
       <c r="KC59" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="KD59" t="n">
+      <c r="KD59" s="2" t="n">
         <v>382</v>
+      </c>
+      <c r="KE59" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -52896,8 +53073,11 @@
       <c r="KC60" s="2" t="n">
         <v>1.39</v>
       </c>
-      <c r="KD60" t="n">
+      <c r="KD60" s="2" t="n">
         <v>1.53</v>
+      </c>
+      <c r="KE60" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -53770,8 +53950,11 @@
       <c r="KC61" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KD61" t="n">
+      <c r="KD61" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KE61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -54644,8 +54827,11 @@
       <c r="KC62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KD62" t="n">
+      <c r="KD62" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KE62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -55518,8 +55704,11 @@
       <c r="KC63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KD63" t="n">
+      <c r="KD63" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KE63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -56392,7 +56581,10 @@
       <c r="KC64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KD64" t="n">
+      <c r="KD64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE64" t="n">
         <v>13</v>
       </c>
     </row>
@@ -57266,8 +57458,11 @@
       <c r="KC65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KD65" t="n">
+      <c r="KD65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KE65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58140,8 +58335,11 @@
       <c r="KC66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD66" t="n">
+      <c r="KD66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59014,8 +59212,11 @@
       <c r="KC67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KD67" t="n">
+      <c r="KD67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KE67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -59888,8 +60089,11 @@
       <c r="KC68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD68" t="n">
+      <c r="KD68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -60762,8 +60966,11 @@
       <c r="KC69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD69" t="n">
+      <c r="KD69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KE69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -61636,8 +61843,11 @@
       <c r="KC70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KD70" t="n">
+      <c r="KD70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KE70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -62510,8 +62720,11 @@
       <c r="KC71" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KD71" t="n">
+      <c r="KD71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KE71" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -63384,8 +63597,11 @@
       <c r="KC72" s="2" t="n">
         <v>27.08</v>
       </c>
-      <c r="KD72" t="n">
+      <c r="KD72" s="2" t="n">
         <v>34.73</v>
+      </c>
+      <c r="KE72" t="n">
+        <v>47.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -64258,8 +64474,11 @@
       <c r="KC73" s="2" t="n">
         <v>17.6</v>
       </c>
-      <c r="KD73" t="n">
+      <c r="KD73" s="2" t="n">
         <v>17.36</v>
+      </c>
+      <c r="KE73" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -65132,8 +65351,11 @@
       <c r="KC74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KD74" t="n">
+      <c r="KD74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KE74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66006,8 +66228,11 @@
       <c r="KC75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KD75" t="n">
+      <c r="KD75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KE75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -66880,8 +67105,11 @@
       <c r="KC76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KD76" t="n">
+      <c r="KD76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KE76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -67754,8 +67982,11 @@
       <c r="KC77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KD77" t="n">
+      <c r="KD77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KE77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -68628,8 +68859,11 @@
       <c r="KC78" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="KD78" t="n">
+      <c r="KD78" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="KE78" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -69502,8 +69736,11 @@
       <c r="KC79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="KD79" t="n">
+      <c r="KD79" s="2" t="n">
         <v>4.73</v>
+      </c>
+      <c r="KE79" t="n">
+        <v>7.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -70376,8 +70613,11 @@
       <c r="KC80" s="2" t="n">
         <v>37.3</v>
       </c>
-      <c r="KD80" t="n">
+      <c r="KD80" s="2" t="n">
         <v>36.5</v>
+      </c>
+      <c r="KE80" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -71250,8 +71490,11 @@
       <c r="KC81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="KD81" t="n">
+      <c r="KD81" s="2" t="n">
         <v>21.2</v>
+      </c>
+      <c r="KE81" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -72124,8 +72367,11 @@
       <c r="KC82" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="KD82" t="n">
+      <c r="KD82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="KE82" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -72998,8 +73244,11 @@
       <c r="KC83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KD83" t="n">
+      <c r="KD83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="KE83" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -73872,8 +74121,11 @@
       <c r="KC84" s="2" t="n">
         <v>27.16</v>
       </c>
-      <c r="KD84" t="n">
+      <c r="KD84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KE84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -74746,8 +74998,11 @@
       <c r="KC85" s="2" t="n">
         <v>123.6</v>
       </c>
-      <c r="KD85" t="n">
+      <c r="KD85" s="2" t="n">
         <v>106.3</v>
+      </c>
+      <c r="KE85" t="n">
+        <v>116.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -75620,7 +75875,10 @@
       <c r="KC86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD86" t="n">
+      <c r="KD86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -76494,8 +76752,11 @@
       <c r="KC87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD87" t="n">
+      <c r="KD87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KE87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -77368,8 +77629,11 @@
       <c r="KC88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KD88" t="n">
+      <c r="KD88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KE88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -78242,8 +78506,11 @@
       <c r="KC89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD89" t="n">
+      <c r="KD89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -79116,8 +79383,11 @@
       <c r="KC90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="KD90" t="n">
+      <c r="KD90" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="KE90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -79990,8 +80260,11 @@
       <c r="KC91" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KD91" t="n">
+      <c r="KD91" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="KE91" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -80864,8 +81137,11 @@
       <c r="KC92" s="2" t="n">
         <v>262</v>
       </c>
-      <c r="KD92" t="n">
+      <c r="KD92" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="KE92" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -81738,8 +82014,11 @@
       <c r="KC93" s="2" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="KD93" t="n">
+      <c r="KD93" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="KE93" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -82612,8 +82891,11 @@
       <c r="KC94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KD94" t="n">
+      <c r="KD94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KE94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -83486,7 +83768,10 @@
       <c r="KC95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD95" t="n">
+      <c r="KD95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KE95" t="n">
         <v>16</v>
       </c>
     </row>
@@ -84360,8 +84645,11 @@
       <c r="KC96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD96" t="n">
+      <c r="KD96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -85234,8 +85522,11 @@
       <c r="KC97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KD97" t="n">
+      <c r="KD97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KE97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -86108,8 +86399,11 @@
       <c r="KC98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KD98" t="n">
+      <c r="KD98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KE98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -86982,8 +87276,11 @@
       <c r="KC99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD99" t="n">
+      <c r="KD99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KE99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -87856,8 +88153,11 @@
       <c r="KC100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD100" t="n">
+      <c r="KD100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -88730,8 +89030,11 @@
       <c r="KC101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KD101" t="n">
+      <c r="KD101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KE101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -89604,8 +89907,11 @@
       <c r="KC102" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="KD102" t="n">
+      <c r="KD102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KE102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KG102"/>
+  <dimension ref="A1:KH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1339,8 +1339,11 @@
       <c r="KF1" s="2" t="n">
         <v>10863</v>
       </c>
-      <c r="KG1" t="n">
+      <c r="KG1" s="2" t="n">
         <v>10869</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>10880</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2222,7 +2225,10 @@
       <c r="KF2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KG2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3105,8 +3111,11 @@
       <c r="KF3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KG3" t="n">
+      <c r="KG3" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3988,8 +3997,11 @@
       <c r="KF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KG4" t="n">
+      <c r="KG4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4871,8 +4883,11 @@
       <c r="KF5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KG5" t="n">
+      <c r="KG5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5754,8 +5769,11 @@
       <c r="KF6" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KG6" t="n">
+      <c r="KG6" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6637,8 +6655,11 @@
       <c r="KF7" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KG7" t="n">
+      <c r="KG7" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7520,8 +7541,11 @@
       <c r="KF8" s="2" t="n">
         <v>-34</v>
       </c>
-      <c r="KG8" t="n">
+      <c r="KG8" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KH8" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8403,7 +8427,10 @@
       <c r="KF9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KG9" t="n">
+      <c r="KG9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9286,8 +9313,11 @@
       <c r="KF10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KG10" t="n">
+      <c r="KG10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10169,8 +10199,11 @@
       <c r="KF11" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KG11" t="n">
+      <c r="KG11" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11052,8 +11085,11 @@
       <c r="KF12" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KG12" t="n">
+      <c r="KG12" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11935,8 +11971,11 @@
       <c r="KF13" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="KG13" t="n">
+      <c r="KG13" s="2" t="n">
         <v>378</v>
+      </c>
+      <c r="KH13" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12818,7 +12857,10 @@
       <c r="KF14" s="2" t="n">
         <v>1.07</v>
       </c>
-      <c r="KG14" t="n">
+      <c r="KG14" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="KH14" t="n">
         <v>1.41</v>
       </c>
     </row>
@@ -13701,8 +13743,11 @@
       <c r="KF15" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KG15" t="n">
+      <c r="KG15" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14584,8 +14629,11 @@
       <c r="KF16" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KG16" t="n">
+      <c r="KG16" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15467,8 +15515,11 @@
       <c r="KF17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KG17" t="n">
+      <c r="KG17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16350,7 +16401,10 @@
       <c r="KF18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KG18" t="n">
+      <c r="KG18" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KH18" t="n">
         <v>21</v>
       </c>
     </row>
@@ -17233,8 +17287,11 @@
       <c r="KF19" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KG19" t="n">
+      <c r="KG19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KH19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18116,8 +18173,11 @@
       <c r="KF20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KG20" t="n">
+      <c r="KG20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KH20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18999,7 +19059,10 @@
       <c r="KF21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG21" t="n">
+      <c r="KG21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KH21" t="n">
         <v>16</v>
       </c>
     </row>
@@ -19882,7 +19945,10 @@
       <c r="KF22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KG22" t="n">
+      <c r="KG22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KH22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -20765,8 +20831,11 @@
       <c r="KF23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG23" t="n">
+      <c r="KG23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21648,8 +21717,11 @@
       <c r="KF24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KG24" t="n">
+      <c r="KG24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22531,8 +22603,11 @@
       <c r="KF25" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="KG25" t="n">
+      <c r="KG25" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KH25" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23414,8 +23489,11 @@
       <c r="KF26" s="2" t="n">
         <v>64.67</v>
       </c>
-      <c r="KG26" t="n">
+      <c r="KG26" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KH26" t="n">
+        <v>23.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24297,8 +24375,11 @@
       <c r="KF27" s="2" t="n">
         <v>17.64</v>
       </c>
-      <c r="KG27" t="n">
+      <c r="KG27" s="2" t="n">
         <v>12.6</v>
+      </c>
+      <c r="KH27" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25180,8 +25261,11 @@
       <c r="KF28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KG28" t="n">
+      <c r="KG28" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KH28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26063,8 +26147,11 @@
       <c r="KF29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KG29" t="n">
+      <c r="KG29" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KH29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26946,8 +27033,11 @@
       <c r="KF30" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KG30" t="n">
+      <c r="KG30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KH30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27829,7 +27919,10 @@
       <c r="KF31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KG31" t="n">
+      <c r="KG31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KH31" t="n">
         <v>54</v>
       </c>
     </row>
@@ -28712,8 +28805,11 @@
       <c r="KF32" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="KG32" t="n">
+      <c r="KG32" s="2" t="n">
         <v>1.8</v>
+      </c>
+      <c r="KH32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29595,8 +29691,11 @@
       <c r="KF33" s="2" t="n">
         <v>9.33</v>
       </c>
-      <c r="KG33" t="n">
+      <c r="KG33" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KH33" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30478,8 +30577,11 @@
       <c r="KF34" s="2" t="n">
         <v>32.1</v>
       </c>
-      <c r="KG34" t="n">
+      <c r="KG34" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KH34" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31361,8 +31463,11 @@
       <c r="KF35" s="2" t="n">
         <v>10.7</v>
       </c>
-      <c r="KG35" t="n">
+      <c r="KG35" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KH35" t="n">
+        <v>31.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32244,8 +32349,11 @@
       <c r="KF36" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="KG36" t="n">
+      <c r="KG36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KH36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33127,8 +33235,11 @@
       <c r="KF37" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="KG37" t="n">
+      <c r="KG37" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KH37" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34010,8 +34121,11 @@
       <c r="KF38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KG38" t="n">
+      <c r="KG38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KH38" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -34893,8 +35007,11 @@
       <c r="KF39" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KG39" t="n">
+      <c r="KG39" s="2" t="n">
         <v>85.5</v>
+      </c>
+      <c r="KH39" t="n">
+        <v>100.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35776,8 +35893,11 @@
       <c r="KF40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG40" t="n">
+      <c r="KG40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KH40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36659,8 +36779,11 @@
       <c r="KF41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KG41" t="n">
+      <c r="KG41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KH41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37542,8 +37665,11 @@
       <c r="KF42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KG42" t="n">
+      <c r="KG42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KH42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38425,8 +38551,11 @@
       <c r="KF43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG43" t="n">
+      <c r="KG43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KH43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39308,8 +39437,11 @@
       <c r="KF44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="KG44" t="n">
+      <c r="KG44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KH44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40191,8 +40323,11 @@
       <c r="KF45" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="KG45" t="n">
+      <c r="KG45" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KH45" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41074,8 +41209,11 @@
       <c r="KF46" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="KG46" t="n">
+      <c r="KG46" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="KH46" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -41957,8 +42095,11 @@
       <c r="KF47" s="2" t="n">
         <v>74.5</v>
       </c>
-      <c r="KG47" t="n">
+      <c r="KG47" s="2" t="n">
         <v>72.5</v>
+      </c>
+      <c r="KH47" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42840,8 +42981,11 @@
       <c r="KF48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KG48" t="n">
+      <c r="KG48" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KH48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43723,7 +43867,10 @@
       <c r="KF49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KG49" t="n">
+      <c r="KG49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KH49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -44606,8 +44753,11 @@
       <c r="KF50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KG50" t="n">
+      <c r="KG50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KH50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45489,8 +45639,11 @@
       <c r="KF51" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KG51" t="n">
+      <c r="KG51" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KH51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46372,8 +46525,11 @@
       <c r="KF52" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KG52" t="n">
+      <c r="KG52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KH52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47255,8 +47411,11 @@
       <c r="KF53" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KG53" t="n">
+      <c r="KG53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KH53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48138,8 +48297,11 @@
       <c r="KF54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KG54" t="n">
+      <c r="KG54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KH54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49021,7 +49183,10 @@
       <c r="KF55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG55" t="n">
+      <c r="KG55" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KH55" t="n">
         <v>16</v>
       </c>
     </row>
@@ -49904,8 +50069,11 @@
       <c r="KF56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KG56" t="n">
+      <c r="KG56" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KH56" t="n">
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50787,8 +50955,11 @@
       <c r="KF57" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KG57" t="n">
+      <c r="KG57" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KH57" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51670,8 +51841,11 @@
       <c r="KF58" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KG58" t="n">
+      <c r="KG58" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="KH58" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52553,8 +52727,11 @@
       <c r="KF59" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="KG59" t="n">
+      <c r="KG59" s="2" t="n">
         <v>309</v>
+      </c>
+      <c r="KH59" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53436,8 +53613,11 @@
       <c r="KF60" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="KG60" t="n">
+      <c r="KG60" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="KH60" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54319,8 +54499,11 @@
       <c r="KF61" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KG61" t="n">
+      <c r="KG61" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KH61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55202,8 +55385,11 @@
       <c r="KF62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KG62" t="n">
+      <c r="KG62" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KH62" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56085,8 +56271,11 @@
       <c r="KF63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KG63" t="n">
+      <c r="KG63" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KH63" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -56968,8 +57157,11 @@
       <c r="KF64" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KG64" t="n">
+      <c r="KG64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KH64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -57851,7 +58043,10 @@
       <c r="KF65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KG65" t="n">
+      <c r="KG65" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KH65" t="n">
         <v>21</v>
       </c>
     </row>
@@ -58734,8 +58929,11 @@
       <c r="KF66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KG66" t="n">
+      <c r="KG66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KH66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59617,8 +59815,11 @@
       <c r="KF67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KG67" t="n">
+      <c r="KG67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KH67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60500,8 +60701,11 @@
       <c r="KF68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG68" t="n">
+      <c r="KG68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KH68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61383,8 +61587,11 @@
       <c r="KF69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KG69" t="n">
+      <c r="KG69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KH69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62266,8 +62473,11 @@
       <c r="KF70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KG70" t="n">
+      <c r="KG70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KH70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63149,8 +63359,11 @@
       <c r="KF71" s="2" t="n">
         <v>61.9</v>
       </c>
-      <c r="KG71" t="n">
+      <c r="KG71" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KH71" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64032,8 +64245,11 @@
       <c r="KF72" s="2" t="n">
         <v>28.31</v>
       </c>
-      <c r="KG72" t="n">
+      <c r="KG72" s="2" t="n">
         <v>38.62</v>
+      </c>
+      <c r="KH72" t="n">
+        <v>49.71</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -64915,8 +65131,11 @@
       <c r="KF73" s="2" t="n">
         <v>17.52</v>
       </c>
-      <c r="KG73" t="n">
+      <c r="KG73" s="2" t="n">
         <v>14.71</v>
+      </c>
+      <c r="KH73" t="n">
+        <v>20.47</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -65798,8 +66017,11 @@
       <c r="KF74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KG74" t="n">
+      <c r="KG74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KH74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66681,8 +66903,11 @@
       <c r="KF75" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KG75" t="n">
+      <c r="KG75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KH75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67564,7 +67789,10 @@
       <c r="KF76" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KG76" t="n">
+      <c r="KG76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KH76" t="n">
         <v>36</v>
       </c>
     </row>
@@ -68447,8 +68675,11 @@
       <c r="KF77" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KG77" t="n">
+      <c r="KG77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KH77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69330,8 +69561,11 @@
       <c r="KF78" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="KG78" t="n">
+      <c r="KG78" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="KH78" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70213,8 +70447,11 @@
       <c r="KF79" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="KG79" t="n">
+      <c r="KG79" s="2" t="n">
         <v>6.38</v>
+      </c>
+      <c r="KH79" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71096,8 +71333,11 @@
       <c r="KF80" s="2" t="n">
         <v>48.8</v>
       </c>
-      <c r="KG80" t="n">
+      <c r="KG80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KH80" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -71979,8 +72219,11 @@
       <c r="KF81" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="KG81" t="n">
+      <c r="KG81" s="2" t="n">
         <v>15.7</v>
+      </c>
+      <c r="KH81" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -72862,8 +73105,11 @@
       <c r="KF82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="KG82" t="n">
+      <c r="KG82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KH82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -73745,8 +73991,11 @@
       <c r="KF83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KG83" t="n">
+      <c r="KG83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KH83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74628,8 +74877,11 @@
       <c r="KF84" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="KG84" t="n">
+      <c r="KG84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KH84" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75511,8 +75763,11 @@
       <c r="KF85" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="KG85" t="n">
+      <c r="KG85" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KH85" t="n">
+        <v>72.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76394,8 +76649,11 @@
       <c r="KF86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG86" t="n">
+      <c r="KG86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KH86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77277,8 +77535,11 @@
       <c r="KF87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KG87" t="n">
+      <c r="KG87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KH87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78160,8 +78421,11 @@
       <c r="KF88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG88" t="n">
+      <c r="KG88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KH88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79043,8 +79307,11 @@
       <c r="KF89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KG89" t="n">
+      <c r="KG89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KH89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -79926,8 +80193,11 @@
       <c r="KF90" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="KG90" t="n">
+      <c r="KG90" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="KH90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -80809,8 +81079,11 @@
       <c r="KF91" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KG91" t="n">
+      <c r="KG91" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="KH91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81692,8 +81965,11 @@
       <c r="KF92" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KG92" t="n">
+      <c r="KG92" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="KH92" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82575,8 +82851,11 @@
       <c r="KF93" s="2" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="KG93" t="n">
+      <c r="KG93" s="2" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="KH93" t="n">
+        <v>69.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -83458,8 +83737,11 @@
       <c r="KF94" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KG94" t="n">
+      <c r="KG94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KH94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84341,8 +84623,11 @@
       <c r="KF95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KG95" t="n">
+      <c r="KG95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KH95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -85224,8 +85509,11 @@
       <c r="KF96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KG96" t="n">
+      <c r="KG96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KH96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86107,8 +86395,11 @@
       <c r="KF97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KG97" t="n">
+      <c r="KG97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KH97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -86990,7 +87281,10 @@
       <c r="KF98" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KG98" t="n">
+      <c r="KG98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KH98" t="n">
         <v>36</v>
       </c>
     </row>
@@ -87873,8 +88167,11 @@
       <c r="KF99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KG99" t="n">
+      <c r="KG99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KH99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -88756,8 +89053,11 @@
       <c r="KF100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG100" t="n">
+      <c r="KG100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KH100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89639,8 +89939,11 @@
       <c r="KF101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KG101" t="n">
+      <c r="KG101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KH101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -90522,8 +90825,11 @@
       <c r="KF102" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KG102" t="n">
+      <c r="KG102" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KH102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KH102"/>
+  <dimension ref="A1:KI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1342,8 +1342,11 @@
       <c r="KG1" s="2" t="n">
         <v>10869</v>
       </c>
-      <c r="KH1" t="n">
+      <c r="KH1" s="2" t="n">
         <v>10880</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>10894</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2228,7 +2231,10 @@
       <c r="KG2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KH2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KI2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3114,8 +3120,11 @@
       <c r="KG3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KH3" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4000,7 +4009,10 @@
       <c r="KG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KH4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,7 +4898,10 @@
       <c r="KG5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KH5" t="n">
+      <c r="KH5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,8 +5787,11 @@
       <c r="KG6" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KH6" t="n">
+      <c r="KH6" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6658,8 +6676,11 @@
       <c r="KG7" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KH7" t="n">
+      <c r="KH7" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7544,8 +7565,11 @@
       <c r="KG8" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KH8" t="n">
+      <c r="KH8" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8430,7 +8454,10 @@
       <c r="KG9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH9" t="n">
+      <c r="KH9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9316,8 +9343,11 @@
       <c r="KG10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH10" t="n">
+      <c r="KH10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10202,8 +10232,11 @@
       <c r="KG11" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="KH11" t="n">
+      <c r="KH11" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11088,8 +11121,11 @@
       <c r="KG12" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KH12" t="n">
+      <c r="KH12" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11974,8 +12010,11 @@
       <c r="KG13" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="KH13" t="n">
+      <c r="KH13" s="2" t="n">
         <v>405</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12860,8 +12899,11 @@
       <c r="KG14" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="KH14" t="n">
+      <c r="KH14" s="2" t="n">
         <v>1.41</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13746,8 +13788,11 @@
       <c r="KG15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KH15" t="n">
+      <c r="KH15" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14632,8 +14677,11 @@
       <c r="KG16" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KH16" t="n">
+      <c r="KH16" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15518,8 +15566,11 @@
       <c r="KG17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KH17" t="n">
+      <c r="KH17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16404,8 +16455,11 @@
       <c r="KG18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KH18" t="n">
+      <c r="KH18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17290,8 +17344,11 @@
       <c r="KG19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KH19" t="n">
+      <c r="KH19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18176,8 +18233,11 @@
       <c r="KG20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KH20" t="n">
+      <c r="KH20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19062,8 +19122,11 @@
       <c r="KG21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KH21" t="n">
+      <c r="KH21" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KI21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19948,8 +20011,11 @@
       <c r="KG22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH22" t="n">
+      <c r="KH22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KI22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20834,8 +20900,11 @@
       <c r="KG23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH23" t="n">
+      <c r="KH23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21720,8 +21789,11 @@
       <c r="KG24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KH24" t="n">
+      <c r="KH24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22606,8 +22678,11 @@
       <c r="KG25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KH25" t="n">
+      <c r="KH25" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23492,8 +23567,11 @@
       <c r="KG26" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KH26" t="n">
+      <c r="KH26" s="2" t="n">
         <v>23.82</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>28.43</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24378,8 +24456,11 @@
       <c r="KG27" s="2" t="n">
         <v>12.6</v>
       </c>
-      <c r="KH27" t="n">
+      <c r="KH27" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI27" t="n">
+        <v>14.21</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25264,8 +25345,11 @@
       <c r="KG28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KH28" t="n">
+      <c r="KH28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KI28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26150,8 +26234,11 @@
       <c r="KG29" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KH29" t="n">
+      <c r="KH29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KI29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27036,8 +27123,11 @@
       <c r="KG30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KH30" t="n">
+      <c r="KH30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KI30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27922,8 +28012,11 @@
       <c r="KG31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KH31" t="n">
+      <c r="KH31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KI31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28808,8 +28901,11 @@
       <c r="KG32" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="KH32" t="n">
+      <c r="KH32" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI32" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29694,8 +29790,11 @@
       <c r="KG33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH33" t="n">
+      <c r="KH33" s="2" t="n">
         <v>3.18</v>
+      </c>
+      <c r="KI33" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30580,8 +30679,11 @@
       <c r="KG34" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KH34" t="n">
+      <c r="KH34" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="KI34" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31466,8 +31568,11 @@
       <c r="KG35" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KH35" t="n">
+      <c r="KH35" s="2" t="n">
         <v>31.5</v>
+      </c>
+      <c r="KI35" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32352,8 +32457,11 @@
       <c r="KG36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KH36" t="n">
+      <c r="KH36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KI36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33238,8 +33346,11 @@
       <c r="KG37" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KH37" t="n">
+      <c r="KH37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KI37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34124,8 +34235,11 @@
       <c r="KG38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KH38" t="n">
+      <c r="KH38" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="KI38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35010,8 +35124,11 @@
       <c r="KG39" s="2" t="n">
         <v>85.5</v>
       </c>
-      <c r="KH39" t="n">
+      <c r="KH39" s="2" t="n">
         <v>100.2</v>
+      </c>
+      <c r="KI39" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35896,8 +36013,11 @@
       <c r="KG40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH40" t="n">
+      <c r="KH40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36782,8 +36902,11 @@
       <c r="KG41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH41" t="n">
+      <c r="KH41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37668,8 +37791,11 @@
       <c r="KG42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH42" t="n">
+      <c r="KH42" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38554,8 +38680,11 @@
       <c r="KG43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH43" t="n">
+      <c r="KH43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39440,8 +39569,11 @@
       <c r="KG44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KH44" t="n">
+      <c r="KH44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40326,8 +40458,11 @@
       <c r="KG45" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KH45" t="n">
+      <c r="KH45" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KI45" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41212,8 +41347,11 @@
       <c r="KG46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="KH46" t="n">
+      <c r="KH46" s="2" t="n">
         <v>288</v>
+      </c>
+      <c r="KI46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42098,8 +42236,11 @@
       <c r="KG47" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="KH47" t="n">
+      <c r="KH47" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KI47" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42984,8 +43125,11 @@
       <c r="KG48" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KH48" t="n">
+      <c r="KH48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KI48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43870,8 +44014,11 @@
       <c r="KG49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH49" t="n">
+      <c r="KH49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KI49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44756,8 +44903,11 @@
       <c r="KG50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KH50" t="n">
+      <c r="KH50" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KI50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45642,8 +45792,11 @@
       <c r="KG51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KH51" t="n">
+      <c r="KH51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KI51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46528,8 +46681,11 @@
       <c r="KG52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KH52" t="n">
+      <c r="KH52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KI52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47414,8 +47570,11 @@
       <c r="KG53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KH53" t="n">
+      <c r="KH53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KI53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48300,8 +48459,11 @@
       <c r="KG54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH54" t="n">
+      <c r="KH54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49186,8 +49348,11 @@
       <c r="KG55" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KH55" t="n">
+      <c r="KH55" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KI55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50072,8 +50237,11 @@
       <c r="KG56" s="2" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="KH56" t="n">
+      <c r="KH56" s="2" t="n">
         <v>94.09999999999999</v>
+      </c>
+      <c r="KI56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50958,8 +51126,11 @@
       <c r="KG57" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="KH57" t="n">
+      <c r="KH57" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="KI57" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51844,8 +52015,11 @@
       <c r="KG58" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="KH58" t="n">
+      <c r="KH58" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="KI58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52730,8 +52904,11 @@
       <c r="KG59" s="2" t="n">
         <v>309</v>
       </c>
-      <c r="KH59" t="n">
+      <c r="KH59" s="2" t="n">
         <v>348</v>
+      </c>
+      <c r="KI59" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53616,8 +53793,11 @@
       <c r="KG60" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="KH60" t="n">
+      <c r="KH60" s="2" t="n">
         <v>1.1</v>
+      </c>
+      <c r="KI60" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54502,8 +54682,11 @@
       <c r="KG61" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KH61" t="n">
+      <c r="KH61" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KI61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55388,8 +55571,11 @@
       <c r="KG62" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH62" t="n">
+      <c r="KH62" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KI62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56274,8 +56460,11 @@
       <c r="KG63" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KH63" t="n">
+      <c r="KH63" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KI63" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57160,8 +57349,11 @@
       <c r="KG64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KH64" t="n">
+      <c r="KH64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KI64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58046,8 +58238,11 @@
       <c r="KG65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KH65" t="n">
+      <c r="KH65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KI65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58932,8 +59127,11 @@
       <c r="KG66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH66" t="n">
+      <c r="KH66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59818,8 +60016,11 @@
       <c r="KG67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH67" t="n">
+      <c r="KH67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60704,7 +60905,10 @@
       <c r="KG68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH68" t="n">
+      <c r="KH68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -61590,8 +61794,11 @@
       <c r="KG69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH69" t="n">
+      <c r="KH69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62476,8 +62683,11 @@
       <c r="KG70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KH70" t="n">
+      <c r="KH70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63362,8 +63572,11 @@
       <c r="KG71" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="KH71" t="n">
+      <c r="KH71" s="2" t="n">
         <v>41.2</v>
+      </c>
+      <c r="KI71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64248,8 +64461,11 @@
       <c r="KG72" s="2" t="n">
         <v>38.62</v>
       </c>
-      <c r="KH72" t="n">
+      <c r="KH72" s="2" t="n">
         <v>49.71</v>
+      </c>
+      <c r="KI72" t="n">
+        <v>57.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65134,8 +65350,11 @@
       <c r="KG73" s="2" t="n">
         <v>14.71</v>
       </c>
-      <c r="KH73" t="n">
+      <c r="KH73" s="2" t="n">
         <v>20.47</v>
+      </c>
+      <c r="KI73" t="n">
+        <v>22.93</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66020,8 +66239,11 @@
       <c r="KG74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KH74" t="n">
+      <c r="KH74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KI74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66906,8 +67128,11 @@
       <c r="KG75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH75" t="n">
+      <c r="KH75" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KI75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67792,8 +68017,11 @@
       <c r="KG76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KH76" t="n">
+      <c r="KH76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KI76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68678,8 +68906,11 @@
       <c r="KG77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH77" t="n">
+      <c r="KH77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KI77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69564,8 +69795,11 @@
       <c r="KG78" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="KH78" t="n">
+      <c r="KH78" s="2" t="n">
         <v>2.82</v>
+      </c>
+      <c r="KI78" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70450,8 +70684,11 @@
       <c r="KG79" s="2" t="n">
         <v>6.38</v>
       </c>
-      <c r="KH79" t="n">
+      <c r="KH79" s="2" t="n">
         <v>6.86</v>
+      </c>
+      <c r="KI79" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71336,8 +71573,11 @@
       <c r="KG80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="KH80" t="n">
+      <c r="KH80" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KI80" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72222,8 +72462,11 @@
       <c r="KG81" s="2" t="n">
         <v>15.7</v>
       </c>
-      <c r="KH81" t="n">
+      <c r="KH81" s="2" t="n">
         <v>14.6</v>
+      </c>
+      <c r="KI81" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73108,8 +73351,11 @@
       <c r="KG82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KH82" t="n">
+      <c r="KH82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KI82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -73994,8 +74240,11 @@
       <c r="KG83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KH83" t="n">
+      <c r="KH83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KI83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74880,8 +75129,11 @@
       <c r="KG84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KH84" t="n">
+      <c r="KH84" s="2" t="n">
         <v>24.33</v>
+      </c>
+      <c r="KI84" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75766,8 +76018,11 @@
       <c r="KG85" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KH85" t="n">
+      <c r="KH85" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="KI85" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76652,8 +76907,11 @@
       <c r="KG86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH86" t="n">
+      <c r="KH86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KI86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77538,8 +77796,11 @@
       <c r="KG87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH87" t="n">
+      <c r="KH87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78424,8 +78685,11 @@
       <c r="KG88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH88" t="n">
+      <c r="KH88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79310,7 +79574,10 @@
       <c r="KG89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH89" t="n">
+      <c r="KH89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -80196,8 +80463,11 @@
       <c r="KG90" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="KH90" t="n">
+      <c r="KH90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KI90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81082,8 +81352,11 @@
       <c r="KG91" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="KH91" t="n">
+      <c r="KH91" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="KI91" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81968,8 +82241,11 @@
       <c r="KG92" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KH92" t="n">
+      <c r="KH92" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KI92" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82854,8 +83130,11 @@
       <c r="KG93" s="2" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="KH93" t="n">
+      <c r="KH93" s="2" t="n">
         <v>69.5</v>
+      </c>
+      <c r="KI93" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -83740,8 +84019,11 @@
       <c r="KG94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH94" t="n">
+      <c r="KH94" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KI94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84626,8 +84908,11 @@
       <c r="KG95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH95" t="n">
+      <c r="KH95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -85512,8 +85797,11 @@
       <c r="KG96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH96" t="n">
+      <c r="KH96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86398,8 +86686,11 @@
       <c r="KG97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KH97" t="n">
+      <c r="KH97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KI97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87284,8 +87575,11 @@
       <c r="KG98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KH98" t="n">
+      <c r="KH98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KI98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88170,8 +88464,11 @@
       <c r="KG99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH99" t="n">
+      <c r="KH99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KI99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89056,8 +89353,11 @@
       <c r="KG100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KH100" t="n">
+      <c r="KH100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89942,8 +90242,11 @@
       <c r="KG101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH101" t="n">
+      <c r="KH101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -90828,8 +91131,11 @@
       <c r="KG102" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="KH102" t="n">
+      <c r="KH102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KI102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KJ102"/>
+  <dimension ref="A1:KK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1348,8 +1348,11 @@
       <c r="KI1" s="2" t="n">
         <v>10894</v>
       </c>
-      <c r="KJ1" t="n">
+      <c r="KJ1" s="2" t="n">
         <v>10895</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>10905</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2240,7 +2243,10 @@
       <c r="KI2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KJ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KK2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3132,8 +3138,11 @@
       <c r="KI3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KJ3" t="n">
+      <c r="KJ3" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4024,7 +4033,10 @@
       <c r="KI4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +4928,10 @@
       <c r="KI5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ5" t="n">
+      <c r="KJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5808,8 +5823,11 @@
       <c r="KI6" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="KJ6" t="n">
+      <c r="KJ6" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6700,8 +6718,11 @@
       <c r="KI7" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KJ7" t="n">
+      <c r="KJ7" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7592,8 +7613,11 @@
       <c r="KI8" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KJ8" t="n">
+      <c r="KJ8" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8484,7 +8508,10 @@
       <c r="KI9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ9" t="n">
+      <c r="KJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9376,8 +9403,11 @@
       <c r="KI10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ10" t="n">
+      <c r="KJ10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10268,8 +10298,11 @@
       <c r="KI11" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KJ11" t="n">
+      <c r="KJ11" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11160,8 +11193,11 @@
       <c r="KI12" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="KJ12" t="n">
+      <c r="KJ12" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12052,8 +12088,11 @@
       <c r="KI13" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="KJ13" t="n">
+      <c r="KJ13" s="2" t="n">
         <v>353</v>
+      </c>
+      <c r="KK13" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12944,8 +12983,11 @@
       <c r="KI14" s="2" t="n">
         <v>1.22</v>
       </c>
-      <c r="KJ14" t="n">
+      <c r="KJ14" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13836,8 +13878,11 @@
       <c r="KI15" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KJ15" t="n">
+      <c r="KJ15" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14728,8 +14773,11 @@
       <c r="KI16" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KJ16" t="n">
+      <c r="KJ16" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15620,8 +15668,11 @@
       <c r="KI17" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KJ17" t="n">
+      <c r="KJ17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16512,8 +16563,11 @@
       <c r="KI18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KJ18" t="n">
+      <c r="KJ18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17404,8 +17458,11 @@
       <c r="KI19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KJ19" t="n">
+      <c r="KJ19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KK19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18296,8 +18353,11 @@
       <c r="KI20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KJ20" t="n">
+      <c r="KJ20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19188,8 +19248,11 @@
       <c r="KI21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KJ21" t="n">
+      <c r="KJ21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KK21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20080,7 +20143,10 @@
       <c r="KI22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KJ22" t="n">
+      <c r="KJ22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KK22" t="n">
         <v>12</v>
       </c>
     </row>
@@ -20972,7 +21038,10 @@
       <c r="KI23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ23" t="n">
+      <c r="KJ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21864,8 +21933,11 @@
       <c r="KI24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KJ24" t="n">
+      <c r="KJ24" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22756,8 +22828,11 @@
       <c r="KI25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KJ25" t="n">
+      <c r="KJ25" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23648,8 +23723,11 @@
       <c r="KI26" s="2" t="n">
         <v>28.43</v>
       </c>
-      <c r="KJ26" t="n">
+      <c r="KJ26" s="2" t="n">
         <v>19.61</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>17.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24540,8 +24618,11 @@
       <c r="KI27" s="2" t="n">
         <v>14.21</v>
       </c>
-      <c r="KJ27" t="n">
+      <c r="KJ27" s="2" t="n">
         <v>11.03</v>
+      </c>
+      <c r="KK27" t="n">
+        <v>10.57</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25432,8 +25513,11 @@
       <c r="KI28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KJ28" t="n">
+      <c r="KJ28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KK28" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26324,8 +26408,11 @@
       <c r="KI29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KJ29" t="n">
+      <c r="KJ29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KK29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27216,8 +27303,11 @@
       <c r="KI30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ30" t="n">
+      <c r="KJ30" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KK30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28108,8 +28198,11 @@
       <c r="KI31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KJ31" t="n">
+      <c r="KJ31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KK31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29000,8 +29093,11 @@
       <c r="KI32" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="KJ32" t="n">
+      <c r="KJ32" s="2" t="n">
         <v>1.84</v>
+      </c>
+      <c r="KK32" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29892,8 +29988,11 @@
       <c r="KI33" s="2" t="n">
         <v>4.29</v>
       </c>
-      <c r="KJ33" t="n">
+      <c r="KJ33" s="2" t="n">
         <v>3.28</v>
+      </c>
+      <c r="KK33" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30784,8 +30883,11 @@
       <c r="KI34" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KJ34" t="n">
+      <c r="KJ34" s="2" t="n">
         <v>50.8</v>
+      </c>
+      <c r="KK34" t="n">
+        <v>51.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31676,8 +31778,11 @@
       <c r="KI35" s="2" t="n">
         <v>23.3</v>
       </c>
-      <c r="KJ35" t="n">
+      <c r="KJ35" s="2" t="n">
         <v>30.5</v>
+      </c>
+      <c r="KK35" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32568,8 +32673,11 @@
       <c r="KI36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="KJ36" t="n">
+      <c r="KJ36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KK36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33460,8 +33568,11 @@
       <c r="KI37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KJ37" t="n">
+      <c r="KJ37" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KK37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34352,8 +34463,11 @@
       <c r="KI38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KJ38" t="n">
+      <c r="KJ38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KK38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35244,8 +35358,11 @@
       <c r="KI39" s="2" t="n">
         <v>93.7</v>
       </c>
-      <c r="KJ39" t="n">
+      <c r="KJ39" s="2" t="n">
         <v>92.40000000000001</v>
+      </c>
+      <c r="KK39" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36136,8 +36253,11 @@
       <c r="KI40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ40" t="n">
+      <c r="KJ40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KK40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37028,8 +37148,11 @@
       <c r="KI41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ41" t="n">
+      <c r="KJ41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KK41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37920,8 +38043,11 @@
       <c r="KI42" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KJ42" t="n">
+      <c r="KJ42" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KK42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38812,7 +38938,10 @@
       <c r="KI43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ43" t="n">
+      <c r="KJ43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39704,8 +39833,11 @@
       <c r="KI44" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KJ44" t="n">
+      <c r="KJ44" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KK44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40596,8 +40728,11 @@
       <c r="KI45" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KJ45" t="n">
+      <c r="KJ45" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="KK45" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41488,8 +41623,11 @@
       <c r="KI46" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="KJ46" t="n">
+      <c r="KJ46" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KK46" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42380,8 +42518,11 @@
       <c r="KI47" s="2" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="KJ47" t="n">
+      <c r="KJ47" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="KK47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43272,8 +43413,11 @@
       <c r="KI48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KJ48" t="n">
+      <c r="KJ48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KK48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44164,8 +44308,11 @@
       <c r="KI49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KJ49" t="n">
+      <c r="KJ49" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45056,8 +45203,11 @@
       <c r="KI50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KJ50" t="n">
+      <c r="KJ50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KK50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45948,8 +46098,11 @@
       <c r="KI51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KJ51" t="n">
+      <c r="KJ51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KK51" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46840,8 +46993,11 @@
       <c r="KI52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ52" t="n">
+      <c r="KJ52" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KK52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47732,8 +47888,11 @@
       <c r="KI53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KJ53" t="n">
+      <c r="KJ53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KK53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48624,8 +48783,11 @@
       <c r="KI54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ54" t="n">
+      <c r="KJ54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KK54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49516,8 +49678,11 @@
       <c r="KI55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KJ55" t="n">
+      <c r="KJ55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KK55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50408,8 +50573,11 @@
       <c r="KI56" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KJ56" t="n">
+      <c r="KJ56" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KK56" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51300,8 +51468,11 @@
       <c r="KI57" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KJ57" t="n">
+      <c r="KJ57" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="KK57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52192,8 +52363,11 @@
       <c r="KI58" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KJ58" t="n">
+      <c r="KJ58" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="KK58" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53084,8 +53258,11 @@
       <c r="KI59" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="KJ59" t="n">
+      <c r="KJ59" s="2" t="n">
         <v>361</v>
+      </c>
+      <c r="KK59" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53976,8 +54153,11 @@
       <c r="KI60" s="2" t="n">
         <v>1.29</v>
       </c>
-      <c r="KJ60" t="n">
+      <c r="KJ60" s="2" t="n">
         <v>1.21</v>
+      </c>
+      <c r="KK60" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54868,8 +55048,11 @@
       <c r="KI61" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="KJ61" t="n">
+      <c r="KJ61" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KK61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55760,8 +55943,11 @@
       <c r="KI62" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KJ62" t="n">
+      <c r="KJ62" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KK62" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56652,8 +56838,11 @@
       <c r="KI63" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KJ63" t="n">
+      <c r="KJ63" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KK63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57544,8 +57733,11 @@
       <c r="KI64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KJ64" t="n">
+      <c r="KJ64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KK64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58436,8 +58628,11 @@
       <c r="KI65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KJ65" t="n">
+      <c r="KJ65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59328,7 +59523,10 @@
       <c r="KI66" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ66" t="n">
+      <c r="KJ66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -60220,8 +60418,11 @@
       <c r="KI67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ67" t="n">
+      <c r="KJ67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KK67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61112,8 +61313,11 @@
       <c r="KI68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KJ68" t="n">
+      <c r="KJ68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KK68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62004,7 +62208,10 @@
       <c r="KI69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ69" t="n">
+      <c r="KJ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -62896,8 +63103,11 @@
       <c r="KI70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KJ70" t="n">
+      <c r="KJ70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KK70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63788,8 +63998,11 @@
       <c r="KI71" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KJ71" t="n">
+      <c r="KJ71" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KK71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64680,8 +64893,11 @@
       <c r="KI72" s="2" t="n">
         <v>57.33</v>
       </c>
-      <c r="KJ72" t="n">
+      <c r="KJ72" s="2" t="n">
         <v>36.1</v>
+      </c>
+      <c r="KK72" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65572,8 +65788,11 @@
       <c r="KI73" s="2" t="n">
         <v>22.93</v>
       </c>
-      <c r="KJ73" t="n">
+      <c r="KJ73" s="2" t="n">
         <v>16.41</v>
+      </c>
+      <c r="KK73" t="n">
+        <v>20.26</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66464,8 +66683,11 @@
       <c r="KI74" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ74" t="n">
+      <c r="KJ74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KK74" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67356,8 +67578,11 @@
       <c r="KI75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KJ75" t="n">
+      <c r="KJ75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KK75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68248,8 +68473,11 @@
       <c r="KI76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KJ76" t="n">
+      <c r="KJ76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KK76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69140,8 +69368,11 @@
       <c r="KI77" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KJ77" t="n">
+      <c r="KJ77" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KK77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70032,8 +70263,11 @@
       <c r="KI78" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="KJ78" t="n">
+      <c r="KJ78" s="2" t="n">
         <v>2.82</v>
+      </c>
+      <c r="KK78" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70924,8 +71158,11 @@
       <c r="KI79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ79" t="n">
+      <c r="KJ79" s="2" t="n">
         <v>6.2</v>
+      </c>
+      <c r="KK79" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71816,8 +72053,11 @@
       <c r="KI80" s="2" t="n">
         <v>26.2</v>
       </c>
-      <c r="KJ80" t="n">
+      <c r="KJ80" s="2" t="n">
         <v>32.3</v>
+      </c>
+      <c r="KK80" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72708,8 +72948,11 @@
       <c r="KI81" s="2" t="n">
         <v>14.3</v>
       </c>
-      <c r="KJ81" t="n">
+      <c r="KJ81" s="2" t="n">
         <v>16.1</v>
+      </c>
+      <c r="KK81" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73600,8 +73843,11 @@
       <c r="KI82" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="KJ82" t="n">
+      <c r="KJ82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="KK82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74492,8 +74738,11 @@
       <c r="KI83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KJ83" t="n">
+      <c r="KJ83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="KK83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75384,7 +75633,10 @@
       <c r="KI84" s="2" t="n">
         <v>24.16</v>
       </c>
-      <c r="KJ84" t="n">
+      <c r="KJ84" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="KK84" t="n">
         <v>25.33</v>
       </c>
     </row>
@@ -76276,8 +76528,11 @@
       <c r="KI85" s="2" t="n">
         <v>77.3</v>
       </c>
-      <c r="KJ85" t="n">
+      <c r="KJ85" s="2" t="n">
         <v>101.5</v>
+      </c>
+      <c r="KK85" t="n">
+        <v>109.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77168,8 +77423,11 @@
       <c r="KI86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ86" t="n">
+      <c r="KJ86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KK86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78060,8 +78318,11 @@
       <c r="KI87" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KJ87" t="n">
+      <c r="KJ87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KK87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78952,8 +79213,11 @@
       <c r="KI88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ88" t="n">
+      <c r="KJ88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KK88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79844,8 +80108,11 @@
       <c r="KI89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ89" t="n">
+      <c r="KJ89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KK89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80736,8 +81003,11 @@
       <c r="KI90" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KJ90" t="n">
+      <c r="KJ90" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KK90" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81628,8 +81898,11 @@
       <c r="KI91" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KJ91" t="n">
+      <c r="KJ91" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KK91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82520,8 +82793,11 @@
       <c r="KI92" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KJ92" t="n">
+      <c r="KJ92" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KK92" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83412,8 +83688,11 @@
       <c r="KI93" s="2" t="n">
         <v>71.2</v>
       </c>
-      <c r="KJ93" t="n">
+      <c r="KJ93" s="2" t="n">
         <v>70.09999999999999</v>
+      </c>
+      <c r="KK93" t="n">
+        <v>78.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84304,8 +84583,11 @@
       <c r="KI94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KJ94" t="n">
+      <c r="KJ94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KK94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85196,8 +85478,11 @@
       <c r="KI95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KJ95" t="n">
+      <c r="KJ95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KK95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86088,8 +86373,11 @@
       <c r="KI96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KJ96" t="n">
+      <c r="KJ96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KK96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86980,8 +87268,11 @@
       <c r="KI97" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ97" t="n">
+      <c r="KJ97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KK97" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87872,8 +88163,11 @@
       <c r="KI98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KJ98" t="n">
+      <c r="KJ98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KK98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88764,8 +89058,11 @@
       <c r="KI99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KJ99" t="n">
+      <c r="KJ99" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KK99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89656,8 +89953,11 @@
       <c r="KI100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KJ100" t="n">
+      <c r="KJ100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KK100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90548,8 +90848,11 @@
       <c r="KI101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ101" t="n">
+      <c r="KJ101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KK101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91440,8 +91743,11 @@
       <c r="KI102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KJ102" t="n">
+      <c r="KJ102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KK102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KK102"/>
+  <dimension ref="A1:KL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1351,8 +1351,11 @@
       <c r="KJ1" s="2" t="n">
         <v>10895</v>
       </c>
-      <c r="KK1" t="n">
+      <c r="KK1" s="2" t="n">
         <v>10905</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>10913</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2246,7 +2249,10 @@
       <c r="KJ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KK2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KL2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3141,8 +3147,11 @@
       <c r="KJ3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KK3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4036,8 +4045,11 @@
       <c r="KJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KK4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4931,8 +4943,11 @@
       <c r="KJ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK5" t="n">
+      <c r="KK5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5826,8 +5841,11 @@
       <c r="KJ6" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="KK6" t="n">
+      <c r="KK6" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6721,8 +6739,11 @@
       <c r="KJ7" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KK7" t="n">
+      <c r="KK7" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7616,8 +7637,11 @@
       <c r="KJ8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KK8" t="n">
+      <c r="KK8" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8511,7 +8535,10 @@
       <c r="KJ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KK9" t="n">
+      <c r="KK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9406,8 +9433,11 @@
       <c r="KJ10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK10" t="n">
+      <c r="KK10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10301,8 +10331,11 @@
       <c r="KJ11" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KK11" t="n">
+      <c r="KK11" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11196,8 +11229,11 @@
       <c r="KJ12" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KK12" t="n">
+      <c r="KK12" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12091,8 +12127,11 @@
       <c r="KJ13" s="2" t="n">
         <v>353</v>
       </c>
-      <c r="KK13" t="n">
+      <c r="KK13" s="2" t="n">
         <v>370</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12986,8 +13025,11 @@
       <c r="KJ14" s="2" t="n">
         <v>1.35</v>
       </c>
-      <c r="KK14" t="n">
+      <c r="KK14" s="2" t="n">
         <v>1.39</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13881,8 +13923,11 @@
       <c r="KJ15" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KK15" t="n">
+      <c r="KK15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14776,8 +14821,11 @@
       <c r="KJ16" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KK16" t="n">
+      <c r="KK16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15671,8 +15719,11 @@
       <c r="KJ17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KK17" t="n">
+      <c r="KK17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16566,8 +16617,11 @@
       <c r="KJ18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK18" t="n">
+      <c r="KK18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17461,8 +17515,11 @@
       <c r="KJ19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KK19" t="n">
+      <c r="KK19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18356,8 +18413,11 @@
       <c r="KJ20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK20" t="n">
+      <c r="KK20" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KL20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19251,8 +19311,11 @@
       <c r="KJ21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK21" t="n">
+      <c r="KK21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20146,8 +20209,11 @@
       <c r="KJ22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KK22" t="n">
+      <c r="KK22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KL22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21041,8 +21107,11 @@
       <c r="KJ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KK23" t="n">
+      <c r="KK23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21936,8 +22005,11 @@
       <c r="KJ24" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KK24" t="n">
+      <c r="KK24" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22831,8 +22903,11 @@
       <c r="KJ25" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="KK25" t="n">
+      <c r="KK25" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23726,8 +23801,11 @@
       <c r="KJ26" s="2" t="n">
         <v>19.61</v>
       </c>
-      <c r="KK26" t="n">
+      <c r="KK26" s="2" t="n">
         <v>17.62</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>24.14</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24621,8 +24699,11 @@
       <c r="KJ27" s="2" t="n">
         <v>11.03</v>
       </c>
-      <c r="KK27" t="n">
+      <c r="KK27" s="2" t="n">
         <v>10.57</v>
+      </c>
+      <c r="KL27" t="n">
+        <v>14.7</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25516,8 +25597,11 @@
       <c r="KJ28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KK28" t="n">
+      <c r="KK28" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KL28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26411,8 +26495,11 @@
       <c r="KJ29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KK29" t="n">
+      <c r="KK29" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KL29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27306,8 +27393,11 @@
       <c r="KJ30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KK30" t="n">
+      <c r="KK30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KL30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28201,8 +28291,11 @@
       <c r="KJ31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KK31" t="n">
+      <c r="KK31" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KL31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29096,8 +29189,11 @@
       <c r="KJ32" s="2" t="n">
         <v>1.84</v>
       </c>
-      <c r="KK32" t="n">
+      <c r="KK32" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="KL32" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29991,8 +30087,11 @@
       <c r="KJ33" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="KK33" t="n">
+      <c r="KK33" s="2" t="n">
         <v>3.05</v>
+      </c>
+      <c r="KL33" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30886,8 +30985,11 @@
       <c r="KJ34" s="2" t="n">
         <v>50.8</v>
       </c>
-      <c r="KK34" t="n">
+      <c r="KK34" s="2" t="n">
         <v>51.6</v>
+      </c>
+      <c r="KL34" t="n">
+        <v>44.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31781,8 +31883,11 @@
       <c r="KJ35" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KK35" t="n">
+      <c r="KK35" s="2" t="n">
         <v>32.8</v>
+      </c>
+      <c r="KL35" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32676,8 +32781,11 @@
       <c r="KJ36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KK36" t="n">
+      <c r="KK36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KL36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33571,8 +33679,11 @@
       <c r="KJ37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KK37" t="n">
+      <c r="KK37" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KL37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34466,8 +34577,11 @@
       <c r="KJ38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KK38" t="n">
+      <c r="KK38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KL38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35361,8 +35475,11 @@
       <c r="KJ39" s="2" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="KK39" t="n">
+      <c r="KK39" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KL39" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36256,8 +36373,11 @@
       <c r="KJ40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK40" t="n">
+      <c r="KK40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KL40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37151,7 +37271,10 @@
       <c r="KJ41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KK41" t="n">
+      <c r="KK41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38046,7 +38169,10 @@
       <c r="KJ42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK42" t="n">
+      <c r="KK42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38941,8 +39067,11 @@
       <c r="KJ43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KK43" t="n">
+      <c r="KK43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39836,8 +39965,11 @@
       <c r="KJ44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KK44" t="n">
+      <c r="KK44" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40731,8 +40863,11 @@
       <c r="KJ45" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KK45" t="n">
+      <c r="KK45" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="KL45" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41626,8 +41761,11 @@
       <c r="KJ46" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="KK46" t="n">
+      <c r="KK46" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="KL46" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42521,8 +42659,11 @@
       <c r="KJ47" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="KK47" t="n">
+      <c r="KK47" s="2" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="KL47" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43416,8 +43557,11 @@
       <c r="KJ48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KK48" t="n">
+      <c r="KK48" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KL48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44311,8 +44455,11 @@
       <c r="KJ49" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK49" t="n">
+      <c r="KK49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KL49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45206,8 +45353,11 @@
       <c r="KJ50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KK50" t="n">
+      <c r="KK50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46101,8 +46251,11 @@
       <c r="KJ51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KK51" t="n">
+      <c r="KK51" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KL51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46996,8 +47149,11 @@
       <c r="KJ52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KK52" t="n">
+      <c r="KK52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KL52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47891,8 +48047,11 @@
       <c r="KJ53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KK53" t="n">
+      <c r="KK53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KL53" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48786,8 +48945,11 @@
       <c r="KJ54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK54" t="n">
+      <c r="KK54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KL54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49681,8 +49843,11 @@
       <c r="KJ55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK55" t="n">
+      <c r="KK55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50576,8 +50741,11 @@
       <c r="KJ56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KK56" t="n">
+      <c r="KK56" s="2" t="n">
         <v>61.9</v>
+      </c>
+      <c r="KL56" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51471,8 +51639,11 @@
       <c r="KJ57" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KK57" t="n">
+      <c r="KK57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KL57" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52366,8 +52537,11 @@
       <c r="KJ58" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="KK58" t="n">
+      <c r="KK58" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="KL58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53261,8 +53435,11 @@
       <c r="KJ59" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KK59" t="n">
+      <c r="KK59" s="2" t="n">
         <v>385</v>
+      </c>
+      <c r="KL59" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54156,8 +54333,11 @@
       <c r="KJ60" s="2" t="n">
         <v>1.21</v>
       </c>
-      <c r="KK60" t="n">
+      <c r="KK60" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="KL60" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55051,8 +55231,11 @@
       <c r="KJ61" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KK61" t="n">
+      <c r="KK61" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="KL61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55946,8 +56129,11 @@
       <c r="KJ62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KK62" t="n">
+      <c r="KK62" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KL62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56841,8 +57027,11 @@
       <c r="KJ63" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KK63" t="n">
+      <c r="KK63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KL63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57736,8 +57925,11 @@
       <c r="KJ64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KK64" t="n">
+      <c r="KK64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KL64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58631,8 +58823,11 @@
       <c r="KJ65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK65" t="n">
+      <c r="KK65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KL65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59526,7 +59721,10 @@
       <c r="KJ66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK66" t="n">
+      <c r="KK66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KL66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -60421,8 +60619,11 @@
       <c r="KJ67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK67" t="n">
+      <c r="KK67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KL67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61316,8 +61517,11 @@
       <c r="KJ68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK68" t="n">
+      <c r="KK68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62211,8 +62415,11 @@
       <c r="KJ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KK69" t="n">
+      <c r="KK69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KL69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63106,8 +63313,11 @@
       <c r="KJ70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KK70" t="n">
+      <c r="KK70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KL70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64001,8 +64211,11 @@
       <c r="KJ71" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KK71" t="n">
+      <c r="KK71" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="KL71" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64896,8 +65109,11 @@
       <c r="KJ72" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="KK72" t="n">
+      <c r="KK72" s="2" t="n">
         <v>38.5</v>
+      </c>
+      <c r="KL72" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65791,8 +66007,11 @@
       <c r="KJ73" s="2" t="n">
         <v>16.41</v>
       </c>
-      <c r="KK73" t="n">
+      <c r="KK73" s="2" t="n">
         <v>20.26</v>
+      </c>
+      <c r="KL73" t="n">
+        <v>13.96</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66686,8 +66905,11 @@
       <c r="KJ74" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KK74" t="n">
+      <c r="KK74" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KL74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67581,8 +67803,11 @@
       <c r="KJ75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KK75" t="n">
+      <c r="KK75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KL75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68476,8 +68701,11 @@
       <c r="KJ76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KK76" t="n">
+      <c r="KK76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KL76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69371,8 +69599,11 @@
       <c r="KJ77" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KK77" t="n">
+      <c r="KK77" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KL77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70266,8 +70497,11 @@
       <c r="KJ78" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="KK78" t="n">
+      <c r="KK78" s="2" t="n">
         <v>2.26</v>
+      </c>
+      <c r="KL78" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71161,8 +71395,11 @@
       <c r="KJ79" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="KK79" t="n">
+      <c r="KK79" s="2" t="n">
         <v>4.3</v>
+      </c>
+      <c r="KL79" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72056,8 +72293,11 @@
       <c r="KJ80" s="2" t="n">
         <v>32.3</v>
       </c>
-      <c r="KK80" t="n">
+      <c r="KK80" s="2" t="n">
         <v>39.5</v>
+      </c>
+      <c r="KL80" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72951,8 +73191,11 @@
       <c r="KJ81" s="2" t="n">
         <v>16.1</v>
       </c>
-      <c r="KK81" t="n">
+      <c r="KK81" s="2" t="n">
         <v>23.3</v>
+      </c>
+      <c r="KL81" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73846,8 +74089,11 @@
       <c r="KJ82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KK82" t="n">
+      <c r="KK82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KL82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74741,8 +74987,11 @@
       <c r="KJ83" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="KK83" t="n">
+      <c r="KK83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KL83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75636,8 +75885,11 @@
       <c r="KJ84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KK84" t="n">
+      <c r="KK84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KL84" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76531,8 +76783,11 @@
       <c r="KJ85" s="2" t="n">
         <v>101.5</v>
       </c>
-      <c r="KK85" t="n">
+      <c r="KK85" s="2" t="n">
         <v>109.6</v>
+      </c>
+      <c r="KL85" t="n">
+        <v>147.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77426,8 +77681,11 @@
       <c r="KJ86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK86" t="n">
+      <c r="KK86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KL86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78321,8 +78579,11 @@
       <c r="KJ87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK87" t="n">
+      <c r="KK87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79216,7 +79477,10 @@
       <c r="KJ88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK88" t="n">
+      <c r="KK88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -80111,8 +80375,11 @@
       <c r="KJ89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KK89" t="n">
+      <c r="KK89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81006,8 +81273,11 @@
       <c r="KJ90" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KK90" t="n">
+      <c r="KK90" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="KL90" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81901,8 +82171,11 @@
       <c r="KJ91" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KK91" t="n">
+      <c r="KK91" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="KL91" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82796,8 +83069,11 @@
       <c r="KJ92" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KK92" t="n">
+      <c r="KK92" s="2" t="n">
         <v>301</v>
+      </c>
+      <c r="KL92" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83691,8 +83967,11 @@
       <c r="KJ93" s="2" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="KK93" t="n">
+      <c r="KK93" s="2" t="n">
         <v>78.2</v>
+      </c>
+      <c r="KL93" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84586,8 +84865,11 @@
       <c r="KJ94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KK94" t="n">
+      <c r="KK94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KL94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85481,8 +85763,11 @@
       <c r="KJ95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK95" t="n">
+      <c r="KK95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86376,8 +86661,11 @@
       <c r="KJ96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KK96" t="n">
+      <c r="KK96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KL96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87271,8 +87559,11 @@
       <c r="KJ97" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KK97" t="n">
+      <c r="KK97" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KL97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88166,8 +88457,11 @@
       <c r="KJ98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KK98" t="n">
+      <c r="KK98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KL98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89061,8 +89355,11 @@
       <c r="KJ99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KK99" t="n">
+      <c r="KK99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KL99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89956,8 +90253,11 @@
       <c r="KJ100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KK100" t="n">
+      <c r="KK100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90851,8 +91151,11 @@
       <c r="KJ101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK101" t="n">
+      <c r="KK101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KL101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91746,8 +92049,11 @@
       <c r="KJ102" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KK102" t="n">
+      <c r="KK102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KL102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KL102"/>
+  <dimension ref="A1:KM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1354,8 +1354,11 @@
       <c r="KK1" s="2" t="n">
         <v>10905</v>
       </c>
-      <c r="KL1" t="n">
+      <c r="KL1" s="2" t="n">
         <v>10913</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>10927</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2252,7 +2255,10 @@
       <c r="KK2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KL2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KM2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3150,8 +3156,11 @@
       <c r="KK3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KL3" t="n">
+      <c r="KL3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4048,7 +4057,10 @@
       <c r="KK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KL4" t="n">
+      <c r="KL4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,7 +4958,10 @@
       <c r="KK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KL5" t="n">
+      <c r="KL5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,8 +5859,11 @@
       <c r="KK6" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KL6" t="n">
+      <c r="KL6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6742,8 +6760,11 @@
       <c r="KK7" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KL7" t="n">
+      <c r="KL7" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7640,8 +7661,11 @@
       <c r="KK8" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KL8" t="n">
+      <c r="KL8" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8538,7 +8562,10 @@
       <c r="KK9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL9" t="n">
+      <c r="KL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9436,8 +9463,11 @@
       <c r="KK10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KL10" t="n">
+      <c r="KL10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10334,8 +10364,11 @@
       <c r="KK11" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KL11" t="n">
+      <c r="KL11" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11232,8 +11265,11 @@
       <c r="KK12" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KL12" t="n">
+      <c r="KL12" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12130,8 +12166,11 @@
       <c r="KK13" s="2" t="n">
         <v>370</v>
       </c>
-      <c r="KL13" t="n">
+      <c r="KL13" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13028,8 +13067,11 @@
       <c r="KK14" s="2" t="n">
         <v>1.39</v>
       </c>
-      <c r="KL14" t="n">
+      <c r="KL14" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13926,8 +13968,11 @@
       <c r="KK15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KL15" t="n">
+      <c r="KL15" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14824,8 +14869,11 @@
       <c r="KK16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KL16" t="n">
+      <c r="KL16" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15722,8 +15770,11 @@
       <c r="KK17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KL17" t="n">
+      <c r="KL17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16620,8 +16671,11 @@
       <c r="KK18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KL18" t="n">
+      <c r="KL18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KM18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17518,8 +17572,11 @@
       <c r="KK19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KL19" t="n">
+      <c r="KL19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KM19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18416,8 +18473,11 @@
       <c r="KK20" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KL20" t="n">
+      <c r="KL20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KM20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19314,7 +19374,10 @@
       <c r="KK21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL21" t="n">
+      <c r="KL21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -20212,8 +20275,11 @@
       <c r="KK22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KL22" t="n">
+      <c r="KL22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21110,8 +21176,11 @@
       <c r="KK23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KL23" t="n">
+      <c r="KL23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KM23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22008,7 +22077,10 @@
       <c r="KK24" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KL24" t="n">
+      <c r="KL24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KM24" t="n">
         <v>23</v>
       </c>
     </row>
@@ -22906,8 +22978,11 @@
       <c r="KK25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KL25" t="n">
+      <c r="KL25" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23804,8 +23879,11 @@
       <c r="KK26" s="2" t="n">
         <v>17.62</v>
       </c>
-      <c r="KL26" t="n">
+      <c r="KL26" s="2" t="n">
         <v>24.14</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24702,8 +24780,11 @@
       <c r="KK27" s="2" t="n">
         <v>10.57</v>
       </c>
-      <c r="KL27" t="n">
+      <c r="KL27" s="2" t="n">
         <v>14.7</v>
+      </c>
+      <c r="KM27" t="n">
+        <v>17.39</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25600,8 +25681,11 @@
       <c r="KK28" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KL28" t="n">
+      <c r="KL28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KM28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26498,8 +26582,11 @@
       <c r="KK29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KL29" t="n">
+      <c r="KL29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KM29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27396,8 +27483,11 @@
       <c r="KK30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KL30" t="n">
+      <c r="KL30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KM30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28294,8 +28384,11 @@
       <c r="KK31" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KL31" t="n">
+      <c r="KL31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KM31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29192,8 +29285,11 @@
       <c r="KK32" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="KL32" t="n">
+      <c r="KL32" s="2" t="n">
         <v>2.13</v>
+      </c>
+      <c r="KM32" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30090,8 +30186,11 @@
       <c r="KK33" s="2" t="n">
         <v>3.05</v>
       </c>
-      <c r="KL33" t="n">
+      <c r="KL33" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="KM33" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30988,8 +31087,11 @@
       <c r="KK34" s="2" t="n">
         <v>51.6</v>
       </c>
-      <c r="KL34" t="n">
+      <c r="KL34" s="2" t="n">
         <v>44.9</v>
+      </c>
+      <c r="KM34" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31886,8 +31988,11 @@
       <c r="KK35" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="KL35" t="n">
+      <c r="KL35" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="KM35" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32784,8 +32889,11 @@
       <c r="KK36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="KL36" t="n">
+      <c r="KL36" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KM36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33682,8 +33790,11 @@
       <c r="KK37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KL37" t="n">
+      <c r="KL37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KM37" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34580,8 +34691,11 @@
       <c r="KK38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KL38" t="n">
+      <c r="KL38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="KM38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35478,8 +35592,11 @@
       <c r="KK39" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KL39" t="n">
+      <c r="KL39" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="KM39" t="n">
+        <v>92.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36376,8 +36493,11 @@
       <c r="KK40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KL40" t="n">
+      <c r="KL40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37274,8 +37394,11 @@
       <c r="KK41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KL41" t="n">
+      <c r="KL41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KM41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38172,8 +38295,11 @@
       <c r="KK42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL42" t="n">
+      <c r="KL42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39070,8 +39196,11 @@
       <c r="KK43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KL43" t="n">
+      <c r="KL43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39968,8 +40097,11 @@
       <c r="KK44" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="KL44" t="n">
+      <c r="KL44" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KM44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40866,8 +40998,11 @@
       <c r="KK45" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="KL45" t="n">
+      <c r="KL45" s="2" t="n">
         <v>193</v>
+      </c>
+      <c r="KM45" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41764,8 +41899,11 @@
       <c r="KK46" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="KL46" t="n">
+      <c r="KL46" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KM46" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42662,8 +42800,11 @@
       <c r="KK47" s="2" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="KL47" t="n">
+      <c r="KL47" s="2" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="KM47" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43560,8 +43701,11 @@
       <c r="KK48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KL48" t="n">
+      <c r="KL48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KM48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44458,8 +44602,11 @@
       <c r="KK49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KL49" t="n">
+      <c r="KL49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45356,8 +45503,11 @@
       <c r="KK50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL50" t="n">
+      <c r="KL50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KM50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46254,8 +46404,11 @@
       <c r="KK51" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KL51" t="n">
+      <c r="KL51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KM51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47152,8 +47305,11 @@
       <c r="KK52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KL52" t="n">
+      <c r="KL52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KM52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48050,8 +48206,11 @@
       <c r="KK53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KL53" t="n">
+      <c r="KL53" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KM53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48948,8 +49107,11 @@
       <c r="KK54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KL54" t="n">
+      <c r="KL54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM54" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49846,7 +50008,10 @@
       <c r="KK55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL55" t="n">
+      <c r="KL55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM55" t="n">
         <v>9</v>
       </c>
     </row>
@@ -50744,8 +50909,11 @@
       <c r="KK56" s="2" t="n">
         <v>61.9</v>
       </c>
-      <c r="KL56" t="n">
+      <c r="KL56" s="2" t="n">
         <v>64.3</v>
+      </c>
+      <c r="KM56" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51642,8 +51810,11 @@
       <c r="KK57" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KL57" t="n">
+      <c r="KL57" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KM57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52540,8 +52711,11 @@
       <c r="KK58" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="KL58" t="n">
+      <c r="KL58" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="KM58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53438,8 +53612,11 @@
       <c r="KK59" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="KL59" t="n">
+      <c r="KL59" s="2" t="n">
         <v>363</v>
+      </c>
+      <c r="KM59" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54336,8 +54513,11 @@
       <c r="KK60" s="2" t="n">
         <v>1.31</v>
       </c>
-      <c r="KL60" t="n">
+      <c r="KL60" s="2" t="n">
         <v>1.21</v>
+      </c>
+      <c r="KM60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55234,8 +55414,11 @@
       <c r="KK61" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="KL61" t="n">
+      <c r="KL61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KM61" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56132,8 +56315,11 @@
       <c r="KK62" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KL62" t="n">
+      <c r="KL62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KM62" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57030,8 +57216,11 @@
       <c r="KK63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KL63" t="n">
+      <c r="KL63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KM63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57928,8 +58117,11 @@
       <c r="KK64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KL64" t="n">
+      <c r="KL64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KM64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58826,8 +59018,11 @@
       <c r="KK65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KL65" t="n">
+      <c r="KL65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KM65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59724,8 +59919,11 @@
       <c r="KK66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KL66" t="n">
+      <c r="KL66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KM66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60622,8 +60820,11 @@
       <c r="KK67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL67" t="n">
+      <c r="KL67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61520,8 +61721,11 @@
       <c r="KK68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL68" t="n">
+      <c r="KL68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KM68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62418,8 +62622,11 @@
       <c r="KK69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KL69" t="n">
+      <c r="KL69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KM69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63316,8 +63523,11 @@
       <c r="KK70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KL70" t="n">
+      <c r="KL70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KM70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64214,8 +64424,11 @@
       <c r="KK71" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="KL71" t="n">
+      <c r="KL71" s="2" t="n">
         <v>38.5</v>
+      </c>
+      <c r="KM71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65112,8 +65325,11 @@
       <c r="KK72" s="2" t="n">
         <v>38.5</v>
       </c>
-      <c r="KL72" t="n">
+      <c r="KL72" s="2" t="n">
         <v>36.3</v>
+      </c>
+      <c r="KM72" t="n">
+        <v>47.38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66010,8 +66226,11 @@
       <c r="KK73" s="2" t="n">
         <v>20.26</v>
       </c>
-      <c r="KL73" t="n">
+      <c r="KL73" s="2" t="n">
         <v>13.96</v>
+      </c>
+      <c r="KM73" t="n">
+        <v>27.07</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66908,8 +67127,11 @@
       <c r="KK74" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KL74" t="n">
+      <c r="KL74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KM74" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67806,8 +68028,11 @@
       <c r="KK75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KL75" t="n">
+      <c r="KL75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KM75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68704,8 +68929,11 @@
       <c r="KK76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KL76" t="n">
+      <c r="KL76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KM76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69602,8 +69830,11 @@
       <c r="KK77" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KL77" t="n">
+      <c r="KL77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KM77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70500,8 +70731,11 @@
       <c r="KK78" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="KL78" t="n">
+      <c r="KL78" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="KM78" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71398,8 +71632,11 @@
       <c r="KK79" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="KL79" t="n">
+      <c r="KL79" s="2" t="n">
         <v>5.3</v>
+      </c>
+      <c r="KM79" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72296,8 +72533,11 @@
       <c r="KK80" s="2" t="n">
         <v>39.5</v>
       </c>
-      <c r="KL80" t="n">
+      <c r="KL80" s="2" t="n">
         <v>41.5</v>
+      </c>
+      <c r="KM80" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73194,8 +73434,11 @@
       <c r="KK81" s="2" t="n">
         <v>23.3</v>
       </c>
-      <c r="KL81" t="n">
+      <c r="KL81" s="2" t="n">
         <v>18.9</v>
+      </c>
+      <c r="KM81" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74092,8 +74335,11 @@
       <c r="KK82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KL82" t="n">
+      <c r="KL82" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="KM82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74990,8 +75236,11 @@
       <c r="KK83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KL83" t="n">
+      <c r="KL83" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="KM83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75888,8 +76137,11 @@
       <c r="KK84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KL84" t="n">
+      <c r="KL84" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="KM84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76786,8 +77038,11 @@
       <c r="KK85" s="2" t="n">
         <v>109.6</v>
       </c>
-      <c r="KL85" t="n">
+      <c r="KL85" s="2" t="n">
         <v>147.3</v>
+      </c>
+      <c r="KM85" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77684,8 +77939,11 @@
       <c r="KK86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KL86" t="n">
+      <c r="KL86" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KM86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78582,8 +78840,11 @@
       <c r="KK87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KL87" t="n">
+      <c r="KL87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79480,8 +79741,11 @@
       <c r="KK88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL88" t="n">
+      <c r="KL88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KM88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80378,8 +80642,11 @@
       <c r="KK89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL89" t="n">
+      <c r="KL89" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KM89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81276,8 +81543,11 @@
       <c r="KK90" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KL90" t="n">
+      <c r="KL90" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="KM90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82174,8 +82444,11 @@
       <c r="KK91" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="KL91" t="n">
+      <c r="KL91" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="KM91" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83072,8 +83345,11 @@
       <c r="KK92" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="KL92" t="n">
+      <c r="KL92" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="KM92" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83970,8 +84246,11 @@
       <c r="KK93" s="2" t="n">
         <v>78.2</v>
       </c>
-      <c r="KL93" t="n">
+      <c r="KL93" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="KM93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84868,8 +85147,11 @@
       <c r="KK94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KL94" t="n">
+      <c r="KL94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KM94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85766,8 +86048,11 @@
       <c r="KK95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL95" t="n">
+      <c r="KL95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KM95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86664,8 +86949,11 @@
       <c r="KK96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KL96" t="n">
+      <c r="KL96" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KM96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87562,8 +87850,11 @@
       <c r="KK97" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KL97" t="n">
+      <c r="KL97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KM97" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88460,8 +88751,11 @@
       <c r="KK98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KL98" t="n">
+      <c r="KL98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KM98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89358,8 +89652,11 @@
       <c r="KK99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KL99" t="n">
+      <c r="KL99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KM99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90256,8 +90553,11 @@
       <c r="KK100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL100" t="n">
+      <c r="KL100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KM100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91154,8 +91454,11 @@
       <c r="KK101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL101" t="n">
+      <c r="KL101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92052,8 +92355,11 @@
       <c r="KK102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KL102" t="n">
+      <c r="KL102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KM102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KM102"/>
+  <dimension ref="A1:KN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1357,8 +1357,11 @@
       <c r="KL1" s="2" t="n">
         <v>10913</v>
       </c>
-      <c r="KM1" t="n">
+      <c r="KM1" s="2" t="n">
         <v>10927</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>10931</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2258,7 +2261,10 @@
       <c r="KL2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KM2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KN2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3159,8 +3165,11 @@
       <c r="KL3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KM3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4060,8 +4069,11 @@
       <c r="KL4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KM4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4961,8 +4973,11 @@
       <c r="KL5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM5" t="n">
+      <c r="KM5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5862,8 +5877,11 @@
       <c r="KL6" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KM6" t="n">
+      <c r="KM6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6763,8 +6781,11 @@
       <c r="KL7" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KM7" t="n">
+      <c r="KM7" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7664,8 +7685,11 @@
       <c r="KL8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KM8" t="n">
+      <c r="KM8" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8565,7 +8589,10 @@
       <c r="KL9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM9" t="n">
+      <c r="KM9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9466,8 +9493,11 @@
       <c r="KL10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KM10" t="n">
+      <c r="KM10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10367,8 +10397,11 @@
       <c r="KL11" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="KM11" t="n">
+      <c r="KM11" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11268,8 +11301,11 @@
       <c r="KL12" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KM12" t="n">
+      <c r="KM12" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12169,8 +12205,11 @@
       <c r="KL13" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="KM13" t="n">
+      <c r="KM13" s="2" t="n">
         <v>400</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13070,8 +13109,11 @@
       <c r="KL14" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="KM14" t="n">
+      <c r="KM14" s="2" t="n">
         <v>1.34</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13971,8 +14013,11 @@
       <c r="KL15" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="KM15" t="n">
+      <c r="KM15" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14872,8 +14917,11 @@
       <c r="KL16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KM16" t="n">
+      <c r="KM16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15773,8 +15821,11 @@
       <c r="KL17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KM17" t="n">
+      <c r="KM17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16674,8 +16725,11 @@
       <c r="KL18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KM18" t="n">
+      <c r="KM18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KN18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17575,8 +17629,11 @@
       <c r="KL19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KM19" t="n">
+      <c r="KM19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KN19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18476,8 +18533,11 @@
       <c r="KL20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KM20" t="n">
+      <c r="KM20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19377,8 +19437,11 @@
       <c r="KL21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KM21" t="n">
+      <c r="KM21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20278,8 +20341,11 @@
       <c r="KL22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM22" t="n">
+      <c r="KM22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21179,8 +21245,11 @@
       <c r="KL23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM23" t="n">
+      <c r="KM23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22080,8 +22149,11 @@
       <c r="KL24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KM24" t="n">
+      <c r="KM24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22981,8 +23053,11 @@
       <c r="KL25" s="2" t="n">
         <v>60.9</v>
       </c>
-      <c r="KM25" t="n">
+      <c r="KM25" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23882,8 +23957,11 @@
       <c r="KL26" s="2" t="n">
         <v>24.14</v>
       </c>
-      <c r="KM26" t="n">
+      <c r="KM26" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>42.89</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24783,8 +24861,11 @@
       <c r="KL27" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="KM27" t="n">
+      <c r="KM27" s="2" t="n">
         <v>17.39</v>
+      </c>
+      <c r="KN27" t="n">
+        <v>25.73</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25684,8 +25765,11 @@
       <c r="KL28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KM28" t="n">
+      <c r="KM28" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KN28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26585,8 +26669,11 @@
       <c r="KL29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KM29" t="n">
+      <c r="KM29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KN29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27486,8 +27573,11 @@
       <c r="KL30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KM30" t="n">
+      <c r="KM30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KN30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28387,8 +28477,11 @@
       <c r="KL31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KM31" t="n">
+      <c r="KM31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KN31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29288,8 +29381,11 @@
       <c r="KL32" s="2" t="n">
         <v>2.13</v>
       </c>
-      <c r="KM32" t="n">
+      <c r="KM32" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="KN32" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30189,8 +30285,11 @@
       <c r="KL33" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="KM33" t="n">
+      <c r="KM33" s="2" t="n">
         <v>5.6</v>
+      </c>
+      <c r="KN33" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31090,8 +31189,11 @@
       <c r="KL34" s="2" t="n">
         <v>44.9</v>
       </c>
-      <c r="KM34" t="n">
+      <c r="KM34" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="KN34" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31991,8 +32093,11 @@
       <c r="KL35" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="KM35" t="n">
+      <c r="KM35" s="2" t="n">
         <v>17.9</v>
+      </c>
+      <c r="KN35" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32892,7 +32997,10 @@
       <c r="KL36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="KM36" t="n">
+      <c r="KM36" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KN36" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -33793,7 +33901,10 @@
       <c r="KL37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KM37" t="n">
+      <c r="KM37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="KN37" t="n">
         <v>85.90000000000001</v>
       </c>
     </row>
@@ -34694,7 +34805,10 @@
       <c r="KL38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KM38" t="n">
+      <c r="KM38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KN38" t="n">
         <v>26.24</v>
       </c>
     </row>
@@ -35595,8 +35709,11 @@
       <c r="KL39" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="KM39" t="n">
+      <c r="KM39" s="2" t="n">
         <v>92.3</v>
+      </c>
+      <c r="KN39" t="n">
+        <v>93.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36496,7 +36613,10 @@
       <c r="KL40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM40" t="n">
+      <c r="KM40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37397,7 +37517,10 @@
       <c r="KL41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KM41" t="n">
+      <c r="KM41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38298,7 +38421,10 @@
       <c r="KL42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KM42" t="n">
+      <c r="KM42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39199,7 +39325,10 @@
       <c r="KL43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM43" t="n">
+      <c r="KM43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40100,8 +40229,11 @@
       <c r="KL44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KM44" t="n">
+      <c r="KM44" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="KN44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41001,8 +41133,11 @@
       <c r="KL45" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="KM45" t="n">
+      <c r="KM45" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="KN45" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41902,8 +42037,11 @@
       <c r="KL46" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KM46" t="n">
+      <c r="KM46" s="2" t="n">
         <v>303</v>
+      </c>
+      <c r="KN46" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42803,8 +42941,11 @@
       <c r="KL47" s="2" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="KM47" t="n">
+      <c r="KM47" s="2" t="n">
         <v>75.8</v>
+      </c>
+      <c r="KN47" t="n">
+        <v>72.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43704,8 +43845,11 @@
       <c r="KL48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KM48" t="n">
+      <c r="KM48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KN48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44605,8 +44749,11 @@
       <c r="KL49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM49" t="n">
+      <c r="KM49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45506,8 +45653,11 @@
       <c r="KL50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KM50" t="n">
+      <c r="KM50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KN50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46407,8 +46557,11 @@
       <c r="KL51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KM51" t="n">
+      <c r="KM51" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KN51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47308,8 +47461,11 @@
       <c r="KL52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KM52" t="n">
+      <c r="KM52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KN52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48209,8 +48365,11 @@
       <c r="KL53" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KM53" t="n">
+      <c r="KM53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KN53" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49110,8 +49269,11 @@
       <c r="KL54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KM54" t="n">
+      <c r="KM54" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KN54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50011,8 +50173,11 @@
       <c r="KL55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KM55" t="n">
+      <c r="KM55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50912,8 +51077,11 @@
       <c r="KL56" s="2" t="n">
         <v>64.3</v>
       </c>
-      <c r="KM56" t="n">
+      <c r="KM56" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KN56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51813,8 +51981,11 @@
       <c r="KL57" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="KM57" t="n">
+      <c r="KM57" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="KN57" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52714,8 +52885,11 @@
       <c r="KL58" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KM58" t="n">
+      <c r="KM58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KN58" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53615,8 +53789,11 @@
       <c r="KL59" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="KM59" t="n">
+      <c r="KM59" s="2" t="n">
         <v>379</v>
+      </c>
+      <c r="KN59" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54516,8 +54693,11 @@
       <c r="KL60" s="2" t="n">
         <v>1.21</v>
       </c>
-      <c r="KM60" t="n">
+      <c r="KM60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="KN60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55417,8 +55597,11 @@
       <c r="KL61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KM61" t="n">
+      <c r="KM61" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="KN61" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56318,8 +56501,11 @@
       <c r="KL62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KM62" t="n">
+      <c r="KM62" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KN62" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57219,8 +57405,11 @@
       <c r="KL63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KM63" t="n">
+      <c r="KM63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KN63" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58120,8 +58309,11 @@
       <c r="KL64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KM64" t="n">
+      <c r="KM64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KN64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59021,8 +59213,11 @@
       <c r="KL65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KM65" t="n">
+      <c r="KM65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KN65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59922,7 +60117,10 @@
       <c r="KL66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KM66" t="n">
+      <c r="KM66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -60823,8 +61021,11 @@
       <c r="KL67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KM67" t="n">
+      <c r="KM67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KN67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61724,8 +61925,11 @@
       <c r="KL68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KM68" t="n">
+      <c r="KM68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KN68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62625,7 +62829,10 @@
       <c r="KL69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KM69" t="n">
+      <c r="KM69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -63526,8 +63733,11 @@
       <c r="KL70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KM70" t="n">
+      <c r="KM70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KN70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64427,8 +64637,11 @@
       <c r="KL71" s="2" t="n">
         <v>38.5</v>
       </c>
-      <c r="KM71" t="n">
+      <c r="KM71" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="KN71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65328,8 +65541,11 @@
       <c r="KL72" s="2" t="n">
         <v>36.3</v>
       </c>
-      <c r="KM72" t="n">
+      <c r="KM72" s="2" t="n">
         <v>47.38</v>
+      </c>
+      <c r="KN72" t="n">
+        <v>44.38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66229,8 +66445,11 @@
       <c r="KL73" s="2" t="n">
         <v>13.96</v>
       </c>
-      <c r="KM73" t="n">
+      <c r="KM73" s="2" t="n">
         <v>27.07</v>
+      </c>
+      <c r="KN73" t="n">
+        <v>22.19</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67130,8 +67349,11 @@
       <c r="KL74" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KM74" t="n">
+      <c r="KM74" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KN74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68031,8 +68253,11 @@
       <c r="KL75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KM75" t="n">
+      <c r="KM75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KN75" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68932,8 +69157,11 @@
       <c r="KL76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KM76" t="n">
+      <c r="KM76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KN76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69833,8 +70061,11 @@
       <c r="KL77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KM77" t="n">
+      <c r="KM77" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KN77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70734,8 +70965,11 @@
       <c r="KL78" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="KM78" t="n">
+      <c r="KM78" s="2" t="n">
         <v>3.14</v>
+      </c>
+      <c r="KN78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71635,8 +71869,11 @@
       <c r="KL79" s="2" t="n">
         <v>5.3</v>
       </c>
-      <c r="KM79" t="n">
+      <c r="KM79" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="KN79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72536,8 +72773,11 @@
       <c r="KL80" s="2" t="n">
         <v>41.5</v>
       </c>
-      <c r="KM80" t="n">
+      <c r="KM80" s="2" t="n">
         <v>29.5</v>
+      </c>
+      <c r="KN80" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73437,8 +73677,11 @@
       <c r="KL81" s="2" t="n">
         <v>18.9</v>
       </c>
-      <c r="KM81" t="n">
+      <c r="KM81" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="KN81" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74338,8 +74581,11 @@
       <c r="KL82" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="KM82" t="n">
+      <c r="KM82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KN82" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75239,8 +75485,11 @@
       <c r="KL83" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="KM83" t="n">
+      <c r="KM83" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KN83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76140,8 +76389,11 @@
       <c r="KL84" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="KM84" t="n">
+      <c r="KM84" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KN84" t="n">
+        <v>26.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77041,8 +77293,11 @@
       <c r="KL85" s="2" t="n">
         <v>147.3</v>
       </c>
-      <c r="KM85" t="n">
+      <c r="KM85" s="2" t="n">
         <v>93.7</v>
+      </c>
+      <c r="KN85" t="n">
+        <v>128.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77942,8 +78197,11 @@
       <c r="KL86" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM86" t="n">
+      <c r="KM86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KN86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78843,7 +79101,10 @@
       <c r="KL87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM87" t="n">
+      <c r="KM87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KN87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -79744,8 +80005,11 @@
       <c r="KL88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KM88" t="n">
+      <c r="KM88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KN88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80645,8 +80909,11 @@
       <c r="KL89" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KM89" t="n">
+      <c r="KM89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KN89" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81546,8 +81813,11 @@
       <c r="KL90" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="KM90" t="n">
+      <c r="KM90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KN90" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82447,8 +82717,11 @@
       <c r="KL91" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="KM91" t="n">
+      <c r="KM91" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="KN91" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83348,8 +83621,11 @@
       <c r="KL92" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="KM92" t="n">
+      <c r="KM92" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="KN92" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84249,8 +84525,11 @@
       <c r="KL93" s="2" t="n">
         <v>75.2</v>
       </c>
-      <c r="KM93" t="n">
+      <c r="KM93" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="KN93" t="n">
+        <v>66.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85150,8 +85429,11 @@
       <c r="KL94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KM94" t="n">
+      <c r="KM94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KN94" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86051,8 +86333,11 @@
       <c r="KL95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KM95" t="n">
+      <c r="KM95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KN95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86952,8 +87237,11 @@
       <c r="KL96" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KM96" t="n">
+      <c r="KM96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KN96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87853,8 +88141,11 @@
       <c r="KL97" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KM97" t="n">
+      <c r="KM97" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KN97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88754,8 +89045,11 @@
       <c r="KL98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KM98" t="n">
+      <c r="KM98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KN98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89655,8 +89949,11 @@
       <c r="KL99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KM99" t="n">
+      <c r="KM99" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KN99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90556,8 +90853,11 @@
       <c r="KL100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KM100" t="n">
+      <c r="KM100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KN100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91457,8 +91757,11 @@
       <c r="KL101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KM101" t="n">
+      <c r="KM101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KN101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92358,8 +92661,11 @@
       <c r="KL102" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KM102" t="n">
+      <c r="KM102" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KN102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1360,8 +1360,11 @@
       <c r="KM1" s="2" t="n">
         <v>10927</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="2" t="n">
         <v>10931</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>10941</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2264,7 +2267,10 @@
       <c r="KM2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3168,8 +3174,11 @@
       <c r="KM3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4072,8 +4081,11 @@
       <c r="KM4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4976,8 +4988,11 @@
       <c r="KM5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5880,8 +5895,11 @@
       <c r="KM6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6784,8 +6802,11 @@
       <c r="KM7" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7688,7 +7709,10 @@
       <c r="KM8" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8592,7 +8616,10 @@
       <c r="KM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9496,8 +9523,11 @@
       <c r="KM10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10400,8 +10430,11 @@
       <c r="KM11" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11304,8 +11337,11 @@
       <c r="KM12" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12208,8 +12244,11 @@
       <c r="KM13" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="2" t="n">
         <v>386</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13112,8 +13151,11 @@
       <c r="KM14" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="2" t="n">
         <v>1.57</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14016,8 +14058,11 @@
       <c r="KM15" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14920,8 +14965,11 @@
       <c r="KM16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15824,8 +15872,11 @@
       <c r="KM17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16728,8 +16779,11 @@
       <c r="KM18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17632,8 +17686,11 @@
       <c r="KM19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18536,8 +18593,11 @@
       <c r="KM20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19440,8 +19500,11 @@
       <c r="KM21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20344,8 +20407,11 @@
       <c r="KM22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21248,7 +21314,10 @@
       <c r="KM23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22152,8 +22221,11 @@
       <c r="KM24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23056,8 +23128,11 @@
       <c r="KM25" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23960,8 +24035,11 @@
       <c r="KM26" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="2" t="n">
         <v>42.89</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>28.77</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24864,8 +24942,11 @@
       <c r="KM27" s="2" t="n">
         <v>17.39</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="2" t="n">
         <v>25.73</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>14.38</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25768,8 +25849,11 @@
       <c r="KM28" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KO28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26672,8 +26756,11 @@
       <c r="KM29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27576,8 +27663,11 @@
       <c r="KM30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28480,8 +28570,11 @@
       <c r="KM31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29384,8 +29477,11 @@
       <c r="KM32" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30288,8 +30384,11 @@
       <c r="KM33" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="2" t="n">
         <v>5.89</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31192,8 +31291,11 @@
       <c r="KM34" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32096,8 +32198,11 @@
       <c r="KM35" s="2" t="n">
         <v>17.9</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KO35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33000,8 +33105,11 @@
       <c r="KM36" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KO36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33904,8 +34012,11 @@
       <c r="KM37" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="2" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="KO37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34808,8 +34919,11 @@
       <c r="KM38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KO38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35712,8 +35826,11 @@
       <c r="KM39" s="2" t="n">
         <v>92.3</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="2" t="n">
         <v>93.3</v>
+      </c>
+      <c r="KO39" t="n">
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36616,8 +36733,11 @@
       <c r="KM40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37520,8 +37640,11 @@
       <c r="KM41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38424,8 +38547,11 @@
       <c r="KM42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39328,7 +39454,10 @@
       <c r="KM43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40232,8 +40361,11 @@
       <c r="KM44" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41136,8 +41268,11 @@
       <c r="KM45" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42040,8 +42175,11 @@
       <c r="KM46" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="2" t="n">
         <v>279</v>
+      </c>
+      <c r="KO46" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42944,8 +43082,11 @@
       <c r="KM47" s="2" t="n">
         <v>75.8</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="KO47" t="n">
+        <v>72.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43848,8 +43989,11 @@
       <c r="KM48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KO48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44752,8 +44896,11 @@
       <c r="KM49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45656,8 +45803,11 @@
       <c r="KM50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46560,8 +46710,11 @@
       <c r="KM51" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KO51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47464,8 +47617,11 @@
       <c r="KM52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48368,8 +48524,11 @@
       <c r="KM53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49272,8 +49431,11 @@
       <c r="KM54" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50176,8 +50338,11 @@
       <c r="KM55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51080,8 +51245,11 @@
       <c r="KM56" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KO56" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51984,8 +52152,11 @@
       <c r="KM57" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KO57" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52888,8 +53059,11 @@
       <c r="KM58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="KO58" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53792,8 +53966,11 @@
       <c r="KM59" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="KO59" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54696,8 +54873,11 @@
       <c r="KM60" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="2" t="n">
         <v>1.34</v>
+      </c>
+      <c r="KO60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55600,8 +55780,11 @@
       <c r="KM61" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KO61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56504,8 +56687,11 @@
       <c r="KM62" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KO62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57408,8 +57594,11 @@
       <c r="KM63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KO63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58312,8 +58501,11 @@
       <c r="KM64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KO64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59216,8 +59408,11 @@
       <c r="KM65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KO65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60120,8 +60315,11 @@
       <c r="KM66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61024,8 +61222,11 @@
       <c r="KM67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61928,8 +62129,11 @@
       <c r="KM68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62832,8 +63036,11 @@
       <c r="KM69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63736,8 +63943,11 @@
       <c r="KM70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KO70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64640,8 +64850,11 @@
       <c r="KM71" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KO71" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65544,8 +65757,11 @@
       <c r="KM72" s="2" t="n">
         <v>47.38</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="2" t="n">
         <v>44.38</v>
+      </c>
+      <c r="KO72" t="n">
+        <v>27.85</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66448,8 +66664,11 @@
       <c r="KM73" s="2" t="n">
         <v>27.07</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="2" t="n">
         <v>22.19</v>
+      </c>
+      <c r="KO73" t="n">
+        <v>16.45</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67352,8 +67571,11 @@
       <c r="KM74" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KO74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68256,8 +68478,11 @@
       <c r="KM75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KO75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69160,8 +69385,11 @@
       <c r="KM76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KO76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70064,8 +70292,11 @@
       <c r="KM77" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KO77" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70968,8 +71199,11 @@
       <c r="KM78" s="2" t="n">
         <v>3.14</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KO78" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71872,8 +72106,11 @@
       <c r="KM79" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO79" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72776,8 +73013,11 @@
       <c r="KM80" s="2" t="n">
         <v>29.5</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="KO80" t="n">
+        <v>28.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73680,8 +73920,11 @@
       <c r="KM81" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KO81" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74584,8 +74827,11 @@
       <c r="KM82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="KO82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75488,8 +75734,11 @@
       <c r="KM83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KO83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76392,8 +76641,11 @@
       <c r="KM84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="KO84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77296,8 +77548,11 @@
       <c r="KM85" s="2" t="n">
         <v>93.7</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="2" t="n">
         <v>128.2</v>
+      </c>
+      <c r="KO85" t="n">
+        <v>104.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78200,8 +78455,11 @@
       <c r="KM86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79104,8 +79362,11 @@
       <c r="KM87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80008,8 +80269,11 @@
       <c r="KM88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80912,8 +81176,11 @@
       <c r="KM89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81816,8 +82083,11 @@
       <c r="KM90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="KO90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82720,8 +82990,11 @@
       <c r="KM91" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="KO91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83624,8 +83897,11 @@
       <c r="KM92" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="KO92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84528,8 +84804,11 @@
       <c r="KM93" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="2" t="n">
         <v>66.2</v>
+      </c>
+      <c r="KO93" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85432,8 +85711,11 @@
       <c r="KM94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KO94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86336,8 +86618,11 @@
       <c r="KM95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87240,8 +87525,11 @@
       <c r="KM96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88144,8 +88432,11 @@
       <c r="KM97" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KO97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89048,8 +89339,11 @@
       <c r="KM98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KO98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89952,8 +90246,11 @@
       <c r="KM99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KO99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90856,8 +91153,11 @@
       <c r="KM100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91760,8 +92060,11 @@
       <c r="KM101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92664,8 +92967,11 @@
       <c r="KM102" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KO102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KO102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1363,8 +1363,11 @@
       <c r="KN1" s="2" t="n">
         <v>10931</v>
       </c>
-      <c r="KO1" t="n">
+      <c r="KO1" s="2" t="n">
         <v>10941</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>10950</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2270,7 +2273,10 @@
       <c r="KN2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3177,8 +3183,11 @@
       <c r="KN3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KO3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4084,8 +4093,11 @@
       <c r="KN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KO4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4991,7 +5003,10 @@
       <c r="KN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,8 +5913,11 @@
       <c r="KN6" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KO6" t="n">
+      <c r="KO6" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6805,8 +6823,11 @@
       <c r="KN7" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KO7" t="n">
+      <c r="KO7" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7712,8 +7733,11 @@
       <c r="KN8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO8" t="n">
+      <c r="KO8" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>-32</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8619,8 +8643,11 @@
       <c r="KN9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO9" t="n">
+      <c r="KO9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9526,8 +9553,11 @@
       <c r="KN10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO10" t="n">
+      <c r="KO10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10433,8 +10463,11 @@
       <c r="KN11" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="KO11" t="n">
+      <c r="KO11" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11340,8 +11373,11 @@
       <c r="KN12" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KO12" t="n">
+      <c r="KO12" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12247,8 +12283,11 @@
       <c r="KN13" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="KO13" t="n">
+      <c r="KO13" s="2" t="n">
         <v>374</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13154,8 +13193,11 @@
       <c r="KN14" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="KO14" t="n">
+      <c r="KO14" s="2" t="n">
         <v>1.56</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14061,8 +14103,11 @@
       <c r="KN15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KO15" t="n">
+      <c r="KO15" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14968,8 +15013,11 @@
       <c r="KN16" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KO16" t="n">
+      <c r="KO16" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15875,8 +15923,11 @@
       <c r="KN17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KO17" t="n">
+      <c r="KO17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16782,8 +16833,11 @@
       <c r="KN18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KO18" t="n">
+      <c r="KO18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17689,8 +17743,11 @@
       <c r="KN19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KO19" t="n">
+      <c r="KO19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18596,8 +18653,11 @@
       <c r="KN20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO20" t="n">
+      <c r="KO20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19503,8 +19563,11 @@
       <c r="KN21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO21" t="n">
+      <c r="KO21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20410,8 +20473,11 @@
       <c r="KN22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO22" t="n">
+      <c r="KO22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21317,8 +21383,11 @@
       <c r="KN23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KO23" t="n">
+      <c r="KO23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22224,8 +22293,11 @@
       <c r="KN24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KO24" t="n">
+      <c r="KO24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23131,8 +23203,11 @@
       <c r="KN25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KO25" t="n">
+      <c r="KO25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24038,8 +24113,11 @@
       <c r="KN26" s="2" t="n">
         <v>42.89</v>
       </c>
-      <c r="KO26" t="n">
+      <c r="KO26" s="2" t="n">
         <v>28.77</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>35.45</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24945,8 +25023,11 @@
       <c r="KN27" s="2" t="n">
         <v>25.73</v>
       </c>
-      <c r="KO27" t="n">
+      <c r="KO27" s="2" t="n">
         <v>14.38</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>21.67</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25852,8 +25933,11 @@
       <c r="KN28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KO28" t="n">
+      <c r="KO28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26759,8 +26843,11 @@
       <c r="KN29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KO29" t="n">
+      <c r="KO29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27666,8 +27753,11 @@
       <c r="KN30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KO30" t="n">
+      <c r="KO30" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28573,8 +28663,11 @@
       <c r="KN31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KO31" t="n">
+      <c r="KO31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KP31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29480,8 +29573,11 @@
       <c r="KN32" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="KO32" t="n">
+      <c r="KO32" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>3.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30387,8 +30483,11 @@
       <c r="KN33" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="KO33" t="n">
+      <c r="KO33" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="KP33" t="n">
+        <v>5.45</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31294,8 +31393,11 @@
       <c r="KN34" s="2" t="n">
         <v>24.5</v>
       </c>
-      <c r="KO34" t="n">
+      <c r="KO34" s="2" t="n">
         <v>47.1</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32201,8 +32303,11 @@
       <c r="KN35" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KO35" t="n">
+      <c r="KO35" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="KP35" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33108,8 +33213,11 @@
       <c r="KN36" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="KO36" t="n">
+      <c r="KO36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KP36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34015,8 +34123,11 @@
       <c r="KN37" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KO37" t="n">
+      <c r="KO37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KP37" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34922,8 +35033,11 @@
       <c r="KN38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KO38" t="n">
+      <c r="KO38" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="KP38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35829,8 +35943,11 @@
       <c r="KN39" s="2" t="n">
         <v>93.3</v>
       </c>
-      <c r="KO39" t="n">
+      <c r="KO39" s="2" t="n">
         <v>96.59999999999999</v>
+      </c>
+      <c r="KP39" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36736,7 +36853,10 @@
       <c r="KN40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO40" t="n">
+      <c r="KO40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37643,8 +37763,11 @@
       <c r="KN41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO41" t="n">
+      <c r="KO41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38550,8 +38673,11 @@
       <c r="KN42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO42" t="n">
+      <c r="KO42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39457,8 +39583,11 @@
       <c r="KN43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO43" t="n">
+      <c r="KO43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40364,8 +40493,11 @@
       <c r="KN44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="KO44" t="n">
+      <c r="KO44" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41271,8 +41403,11 @@
       <c r="KN45" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KO45" t="n">
+      <c r="KO45" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42178,8 +42313,11 @@
       <c r="KN46" s="2" t="n">
         <v>279</v>
       </c>
-      <c r="KO46" t="n">
+      <c r="KO46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="KP46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43085,8 +43223,11 @@
       <c r="KN47" s="2" t="n">
         <v>72.3</v>
       </c>
-      <c r="KO47" t="n">
+      <c r="KO47" s="2" t="n">
         <v>72.5</v>
+      </c>
+      <c r="KP47" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43992,8 +44133,11 @@
       <c r="KN48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KO48" t="n">
+      <c r="KO48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KP48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44899,8 +45043,11 @@
       <c r="KN49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO49" t="n">
+      <c r="KO49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45806,8 +45953,11 @@
       <c r="KN50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KO50" t="n">
+      <c r="KO50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46713,8 +46863,11 @@
       <c r="KN51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KO51" t="n">
+      <c r="KO51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KP51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47620,8 +47773,11 @@
       <c r="KN52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KO52" t="n">
+      <c r="KO52" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48527,8 +48683,11 @@
       <c r="KN53" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KO53" t="n">
+      <c r="KO53" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KP53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49434,8 +49593,11 @@
       <c r="KN54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO54" t="n">
+      <c r="KO54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50341,8 +50503,11 @@
       <c r="KN55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO55" t="n">
+      <c r="KO55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51248,8 +51413,11 @@
       <c r="KN56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KO56" t="n">
+      <c r="KO56" s="2" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="KP56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52155,8 +52323,11 @@
       <c r="KN57" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KO57" t="n">
+      <c r="KO57" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KP57" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53062,8 +53233,11 @@
       <c r="KN58" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KO58" t="n">
+      <c r="KO58" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KP58" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53969,8 +54143,11 @@
       <c r="KN59" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="KO59" t="n">
+      <c r="KO59" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="KP59" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54876,8 +55053,11 @@
       <c r="KN60" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="KO60" t="n">
+      <c r="KO60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="KP60" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55783,8 +55963,11 @@
       <c r="KN61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KO61" t="n">
+      <c r="KO61" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KP61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56690,8 +56873,11 @@
       <c r="KN62" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KO62" t="n">
+      <c r="KO62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KP62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57597,8 +57783,11 @@
       <c r="KN63" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KO63" t="n">
+      <c r="KO63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KP63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58504,8 +58693,11 @@
       <c r="KN64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KO64" t="n">
+      <c r="KO64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KP64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59411,8 +59603,11 @@
       <c r="KN65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KO65" t="n">
+      <c r="KO65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KP65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60318,8 +60513,11 @@
       <c r="KN66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO66" t="n">
+      <c r="KO66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KP66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61225,8 +61423,11 @@
       <c r="KN67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO67" t="n">
+      <c r="KO67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62132,8 +62333,11 @@
       <c r="KN68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO68" t="n">
+      <c r="KO68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KP68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63039,8 +63243,11 @@
       <c r="KN69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO69" t="n">
+      <c r="KO69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63946,8 +64153,11 @@
       <c r="KN70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KO70" t="n">
+      <c r="KO70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KP70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64853,8 +65063,11 @@
       <c r="KN71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KO71" t="n">
+      <c r="KO71" s="2" t="n">
         <v>59.1</v>
+      </c>
+      <c r="KP71" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65760,8 +65973,11 @@
       <c r="KN72" s="2" t="n">
         <v>44.38</v>
       </c>
-      <c r="KO72" t="n">
+      <c r="KO72" s="2" t="n">
         <v>27.85</v>
+      </c>
+      <c r="KP72" t="n">
+        <v>23.88</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66667,8 +66883,11 @@
       <c r="KN73" s="2" t="n">
         <v>22.19</v>
       </c>
-      <c r="KO73" t="n">
+      <c r="KO73" s="2" t="n">
         <v>16.45</v>
+      </c>
+      <c r="KP73" t="n">
+        <v>15.28</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67574,8 +67793,11 @@
       <c r="KN74" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KO74" t="n">
+      <c r="KO74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68481,8 +68703,11 @@
       <c r="KN75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KO75" t="n">
+      <c r="KO75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KP75" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69388,8 +69613,11 @@
       <c r="KN76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO76" t="n">
+      <c r="KO76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KP76" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70295,8 +70523,11 @@
       <c r="KN77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KO77" t="n">
+      <c r="KO77" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KP77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71202,8 +71433,11 @@
       <c r="KN78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO78" t="n">
+      <c r="KO78" s="2" t="n">
         <v>2.91</v>
+      </c>
+      <c r="KP78" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72109,8 +72343,11 @@
       <c r="KN79" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO79" t="n">
+      <c r="KO79" s="2" t="n">
         <v>4.92</v>
+      </c>
+      <c r="KP79" t="n">
+        <v>3.88</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73016,8 +73253,11 @@
       <c r="KN80" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="KO80" t="n">
+      <c r="KO80" s="2" t="n">
         <v>28.1</v>
+      </c>
+      <c r="KP80" t="n">
+        <v>38.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73923,8 +74163,11 @@
       <c r="KN81" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="KO81" t="n">
+      <c r="KO81" s="2" t="n">
         <v>20.3</v>
+      </c>
+      <c r="KP81" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74830,8 +75073,11 @@
       <c r="KN82" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="KO82" t="n">
+      <c r="KO82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KP82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75737,8 +75983,11 @@
       <c r="KN83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KO83" t="n">
+      <c r="KO83" s="2" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="KP83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76644,8 +76893,11 @@
       <c r="KN84" s="2" t="n">
         <v>26.49</v>
       </c>
-      <c r="KO84" t="n">
+      <c r="KO84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KP84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77551,8 +77803,11 @@
       <c r="KN85" s="2" t="n">
         <v>128.2</v>
       </c>
-      <c r="KO85" t="n">
+      <c r="KO85" s="2" t="n">
         <v>104.1</v>
+      </c>
+      <c r="KP85" t="n">
+        <v>106.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78458,8 +78713,11 @@
       <c r="KN86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO86" t="n">
+      <c r="KO86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79365,7 +79623,10 @@
       <c r="KN87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO87" t="n">
+      <c r="KO87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP87" t="n">
         <v>6</v>
       </c>
     </row>
@@ -80272,8 +80533,11 @@
       <c r="KN88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO88" t="n">
+      <c r="KO88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KP88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81179,7 +81443,10 @@
       <c r="KN89" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO89" t="n">
+      <c r="KO89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -82086,8 +82353,11 @@
       <c r="KN90" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="KO90" t="n">
+      <c r="KO90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KP90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82993,8 +83263,11 @@
       <c r="KN91" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="KO91" t="n">
+      <c r="KO91" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="KP91" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83900,8 +84173,11 @@
       <c r="KN92" s="2" t="n">
         <v>235</v>
       </c>
-      <c r="KO92" t="n">
+      <c r="KO92" s="2" t="n">
         <v>264</v>
+      </c>
+      <c r="KP92" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84807,8 +85083,11 @@
       <c r="KN93" s="2" t="n">
         <v>66.2</v>
       </c>
-      <c r="KO93" t="n">
+      <c r="KO93" s="2" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="KP93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85714,8 +85993,11 @@
       <c r="KN94" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KO94" t="n">
+      <c r="KO94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KP94" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86621,8 +86903,11 @@
       <c r="KN95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO95" t="n">
+      <c r="KO95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KP95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87528,8 +87813,11 @@
       <c r="KN96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO96" t="n">
+      <c r="KO96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KP96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88435,8 +88723,11 @@
       <c r="KN97" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KO97" t="n">
+      <c r="KO97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89342,8 +89633,11 @@
       <c r="KN98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO98" t="n">
+      <c r="KO98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KP98" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90249,8 +90543,11 @@
       <c r="KN99" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KO99" t="n">
+      <c r="KO99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KP99" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91156,7 +91453,10 @@
       <c r="KN100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO100" t="n">
+      <c r="KO100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP100" t="n">
         <v>6</v>
       </c>
     </row>
@@ -92063,8 +92363,11 @@
       <c r="KN101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO101" t="n">
+      <c r="KO101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92970,8 +93273,11 @@
       <c r="KN102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KO102" t="n">
+      <c r="KO102" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KP102" t="n">
+        <v>68.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1366,8 +1366,17 @@
       <c r="KO1" s="2" t="n">
         <v>10941</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
         <v>10950</v>
+      </c>
+      <c r="KQ1" s="2" t="n">
+        <v>10963</v>
+      </c>
+      <c r="KR1" s="2" t="n">
+        <v>10966</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10969</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2276,7 +2285,16 @@
       <c r="KO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3186,8 +3204,17 @@
       <c r="KO3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KQ3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KR3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4096,8 +4123,17 @@
       <c r="KO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5006,8 +5042,17 @@
       <c r="KO5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5916,8 +5961,17 @@
       <c r="KO6" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KQ6" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="KR6" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6826,8 +6880,17 @@
       <c r="KO7" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="KQ7" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KR7" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7736,8 +7799,17 @@
       <c r="KO8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
         <v>-32</v>
+      </c>
+      <c r="KQ8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8646,7 +8718,16 @@
       <c r="KO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9556,8 +9637,17 @@
       <c r="KO10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KR10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10466,8 +10556,17 @@
       <c r="KO11" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="KQ11" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="KR11" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11376,8 +11475,17 @@
       <c r="KO12" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
         <v>180</v>
+      </c>
+      <c r="KQ12" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="KR12" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12286,8 +12394,17 @@
       <c r="KO13" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
         <v>390</v>
+      </c>
+      <c r="KQ13" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="KR13" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13196,8 +13313,17 @@
       <c r="KO14" s="2" t="n">
         <v>1.56</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
         <v>1.17</v>
+      </c>
+      <c r="KQ14" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="KR14" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14106,8 +14232,17 @@
       <c r="KO15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KQ15" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="KR15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15016,8 +15151,17 @@
       <c r="KO16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KQ16" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="KR16" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15926,8 +16070,17 @@
       <c r="KO17" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KQ17" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KR17" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16836,7 +16989,16 @@
       <c r="KO18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR18" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="KS18" t="n">
         <v>15</v>
       </c>
     </row>
@@ -17746,8 +17908,17 @@
       <c r="KO19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18656,8 +18827,17 @@
       <c r="KO20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KR20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19566,8 +19746,17 @@
       <c r="KO21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20476,7 +20665,16 @@
       <c r="KO22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -21386,8 +21584,17 @@
       <c r="KO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22296,7 +22503,16 @@
       <c r="KO24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KQ24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR24" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KS24" t="n">
         <v>18</v>
       </c>
     </row>
@@ -23206,8 +23422,17 @@
       <c r="KO25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
         <v>61.1</v>
+      </c>
+      <c r="KQ25" s="2" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="KR25" s="2" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24116,8 +24341,17 @@
       <c r="KO26" s="2" t="n">
         <v>28.77</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
         <v>35.45</v>
+      </c>
+      <c r="KQ26" s="2" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="KR26" s="2" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>36.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25026,8 +25260,17 @@
       <c r="KO27" s="2" t="n">
         <v>14.38</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
         <v>21.67</v>
+      </c>
+      <c r="KQ27" s="2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="KR27" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>18.22</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25936,8 +26179,17 @@
       <c r="KO28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KQ28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KR28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26846,8 +27098,17 @@
       <c r="KO29" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KQ29" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KR29" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27756,8 +28017,17 @@
       <c r="KO30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KQ30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KR30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28666,8 +28936,17 @@
       <c r="KO31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KQ31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KR31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29576,8 +29855,17 @@
       <c r="KO32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
         <v>3.33</v>
+      </c>
+      <c r="KQ32" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="KR32" s="2" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30486,8 +30774,17 @@
       <c r="KO33" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
         <v>5.45</v>
+      </c>
+      <c r="KQ33" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="KR33" s="2" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>5.78</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31396,8 +31693,17 @@
       <c r="KO34" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
         <v>28.3</v>
+      </c>
+      <c r="KQ34" s="2" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="KR34" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32306,8 +32612,17 @@
       <c r="KO35" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
         <v>18.3</v>
+      </c>
+      <c r="KQ35" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="KR35" s="2" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33216,8 +33531,17 @@
       <c r="KO36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KQ36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KR36" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34126,8 +34450,17 @@
       <c r="KO37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
         <v>85.59999999999999</v>
+      </c>
+      <c r="KQ37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KR37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35036,8 +35369,17 @@
       <c r="KO38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KQ38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KR38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35946,8 +36288,17 @@
       <c r="KO39" s="2" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KQ39" s="2" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="KR39" s="2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36856,8 +37207,17 @@
       <c r="KO40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37766,7 +38126,16 @@
       <c r="KO41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38676,8 +39045,17 @@
       <c r="KO42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39586,8 +39964,17 @@
       <c r="KO43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40496,8 +40883,17 @@
       <c r="KO44" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="KQ44" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="KR44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41406,8 +41802,17 @@
       <c r="KO45" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="KQ45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="KR45" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42316,8 +42721,17 @@
       <c r="KO46" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
         <v>281</v>
+      </c>
+      <c r="KQ46" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="KR46" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43226,8 +43640,17 @@
       <c r="KO47" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="KQ47" s="2" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="KR47" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44136,8 +44559,17 @@
       <c r="KO48" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KQ48" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KR48" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KS48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45046,8 +45478,17 @@
       <c r="KO49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KQ49" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KR49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45956,8 +46397,17 @@
       <c r="KO50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46866,8 +47316,17 @@
       <c r="KO51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KQ51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KR51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47776,8 +48235,17 @@
       <c r="KO52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KQ52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KR52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48686,8 +49154,17 @@
       <c r="KO53" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ53" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KR53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49596,8 +50073,17 @@
       <c r="KO54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR54" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50506,8 +50992,17 @@
       <c r="KO55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51416,8 +51911,17 @@
       <c r="KO56" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KQ56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KR56" s="2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52326,8 +52830,17 @@
       <c r="KO57" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="KQ57" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KR57" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53236,8 +53749,17 @@
       <c r="KO58" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
         <v>172</v>
+      </c>
+      <c r="KQ58" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="KR58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54146,8 +54668,17 @@
       <c r="KO59" s="2" t="n">
         <v>362</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
         <v>382</v>
+      </c>
+      <c r="KQ59" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="KR59" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55056,8 +55587,17 @@
       <c r="KO60" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
         <v>1.22</v>
+      </c>
+      <c r="KQ60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="KR60" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55966,8 +56506,17 @@
       <c r="KO61" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KQ61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KR61" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56876,8 +57425,17 @@
       <c r="KO62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KQ62" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KR62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57786,8 +58344,17 @@
       <c r="KO63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KQ63" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KR63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58696,8 +59263,17 @@
       <c r="KO64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59606,7 +60182,16 @@
       <c r="KO65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR65" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="KS65" t="n">
         <v>15</v>
       </c>
     </row>
@@ -60516,8 +61101,17 @@
       <c r="KO66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KQ66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KR66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61426,8 +62020,17 @@
       <c r="KO67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62336,8 +62939,17 @@
       <c r="KO68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KR68" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63246,8 +63858,17 @@
       <c r="KO69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64156,8 +64777,17 @@
       <c r="KO70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KQ70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KR70" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65066,8 +65696,17 @@
       <c r="KO71" s="2" t="n">
         <v>59.1</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KQ71" s="2" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="KR71" s="2" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65976,8 +66615,17 @@
       <c r="KO72" s="2" t="n">
         <v>27.85</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
         <v>23.88</v>
+      </c>
+      <c r="KQ72" s="2" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="KR72" s="2" t="n">
+        <v>40.89</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>30.82</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66886,8 +67534,17 @@
       <c r="KO73" s="2" t="n">
         <v>16.45</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
         <v>15.28</v>
+      </c>
+      <c r="KQ73" s="2" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="KR73" s="2" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>14.12</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67796,7 +68453,16 @@
       <c r="KO74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KQ74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KR74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KS74" t="n">
         <v>44</v>
       </c>
     </row>
@@ -68706,8 +69372,17 @@
       <c r="KO75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KQ75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="KR75" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69616,8 +70291,17 @@
       <c r="KO76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KQ76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KR76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70526,8 +71210,17 @@
       <c r="KO77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KQ77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KR77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71436,8 +72129,17 @@
       <c r="KO78" s="2" t="n">
         <v>2.91</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
         <v>2.48</v>
+      </c>
+      <c r="KQ78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR78" s="2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72346,8 +73048,17 @@
       <c r="KO79" s="2" t="n">
         <v>4.92</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
         <v>3.88</v>
+      </c>
+      <c r="KQ79" s="2" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="KR79" s="2" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>5.73</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73256,8 +73967,17 @@
       <c r="KO80" s="2" t="n">
         <v>28.1</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
         <v>38.7</v>
+      </c>
+      <c r="KQ80" s="2" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="KR80" s="2" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74166,8 +74886,17 @@
       <c r="KO81" s="2" t="n">
         <v>20.3</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KQ81" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="KR81" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75076,8 +75805,17 @@
       <c r="KO82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="KQ82" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="KR82" s="2" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75986,8 +76724,17 @@
       <c r="KO83" s="2" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KQ83" s="2" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="KR83" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76896,8 +77643,17 @@
       <c r="KO84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KQ84" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="KR84" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77806,8 +78562,17 @@
       <c r="KO85" s="2" t="n">
         <v>104.1</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
         <v>106.6</v>
+      </c>
+      <c r="KQ85" s="2" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="KR85" s="2" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>135.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78716,8 +79481,17 @@
       <c r="KO86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79626,8 +80400,17 @@
       <c r="KO87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80536,8 +81319,17 @@
       <c r="KO88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81446,8 +82238,17 @@
       <c r="KO89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR89" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KS89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82356,8 +83157,17 @@
       <c r="KO90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KQ90" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="KR90" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83266,8 +84076,17 @@
       <c r="KO91" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="KQ91" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="KR91" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84176,8 +84995,17 @@
       <c r="KO92" s="2" t="n">
         <v>264</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="KQ92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="KR92" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85086,8 +85914,17 @@
       <c r="KO93" s="2" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="KQ93" s="2" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="KR93" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>67.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85996,8 +86833,17 @@
       <c r="KO94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KQ94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="KR94" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86906,7 +87752,16 @@
       <c r="KO95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KQ95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -87816,8 +88671,17 @@
       <c r="KO96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KR96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88726,7 +89590,16 @@
       <c r="KO97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KQ97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KR97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KS97" t="n">
         <v>44</v>
       </c>
     </row>
@@ -89636,8 +90509,17 @@
       <c r="KO98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KQ98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KR98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90546,8 +91428,17 @@
       <c r="KO99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KQ99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KR99" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91456,8 +92347,17 @@
       <c r="KO100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92366,8 +93266,17 @@
       <c r="KO101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93276,8 +94185,17 @@
       <c r="KO102" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="KQ102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KR102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KS102"/>
+  <dimension ref="A1:KT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1375,8 +1375,11 @@
       <c r="KR1" s="2" t="n">
         <v>10966</v>
       </c>
-      <c r="KS1" t="n">
+      <c r="KS1" s="2" t="n">
         <v>10969</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>11175</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2294,8 +2297,11 @@
       <c r="KR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KS2" s="2" t="n">
         <v>2023</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>2024</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -3213,8 +3219,11 @@
       <c r="KR3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KS3" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4132,7 +4141,10 @@
       <c r="KR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,8 +5063,11 @@
       <c r="KR5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS5" t="n">
+      <c r="KS5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5970,8 +5985,11 @@
       <c r="KR6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KS6" t="n">
+      <c r="KS6" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6889,8 +6907,11 @@
       <c r="KR7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KS7" t="n">
+      <c r="KS7" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7808,8 +7829,11 @@
       <c r="KR8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS8" t="n">
+      <c r="KS8" s="2" t="n">
         <v>-16</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8727,8 +8751,11 @@
       <c r="KR9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS9" t="n">
+      <c r="KS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KT9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9646,7 +9673,10 @@
       <c r="KR10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS10" t="n">
+      <c r="KS10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10565,8 +10595,11 @@
       <c r="KR11" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KS11" t="n">
+      <c r="KS11" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11484,8 +11517,11 @@
       <c r="KR12" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KS12" t="n">
+      <c r="KS12" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KT12" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12403,8 +12439,11 @@
       <c r="KR13" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KS13" t="n">
+      <c r="KS13" s="2" t="n">
         <v>328</v>
+      </c>
+      <c r="KT13" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13322,8 +13361,11 @@
       <c r="KR14" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="KS14" t="n">
+      <c r="KS14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14241,8 +14283,11 @@
       <c r="KR15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KS15" t="n">
+      <c r="KS15" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15160,7 +15205,10 @@
       <c r="KR16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KS16" t="n">
+      <c r="KS16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KT16" t="n">
         <v>59</v>
       </c>
     </row>
@@ -16079,8 +16127,11 @@
       <c r="KR17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KS17" t="n">
+      <c r="KS17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16998,8 +17049,11 @@
       <c r="KR18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KS18" t="n">
+      <c r="KS18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17917,8 +17971,11 @@
       <c r="KR19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KS19" t="n">
+      <c r="KS19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18836,8 +18893,11 @@
       <c r="KR20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KS20" t="n">
+      <c r="KS20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19755,8 +19815,11 @@
       <c r="KR21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS21" t="n">
+      <c r="KS21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20674,8 +20737,11 @@
       <c r="KR22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS22" t="n">
+      <c r="KS22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21593,8 +21659,11 @@
       <c r="KR23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS23" t="n">
+      <c r="KS23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22512,8 +22581,11 @@
       <c r="KR24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS24" t="n">
+      <c r="KS24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KT24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23431,8 +23503,11 @@
       <c r="KR25" s="2" t="n">
         <v>61.1</v>
       </c>
-      <c r="KS25" t="n">
+      <c r="KS25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KT25" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24350,8 +24425,11 @@
       <c r="KR26" s="2" t="n">
         <v>32.82</v>
       </c>
-      <c r="KS26" t="n">
+      <c r="KS26" s="2" t="n">
         <v>36.44</v>
+      </c>
+      <c r="KT26" t="n">
+        <v>26.23</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25269,8 +25347,11 @@
       <c r="KR27" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="KS27" t="n">
+      <c r="KS27" s="2" t="n">
         <v>18.22</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>16.24</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26188,8 +26269,11 @@
       <c r="KR28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KS28" t="n">
+      <c r="KS28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KT28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27107,7 +27191,10 @@
       <c r="KR29" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KS29" t="n">
+      <c r="KS29" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KT29" t="n">
         <v>59</v>
       </c>
     </row>
@@ -28026,7 +28113,10 @@
       <c r="KR30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KS30" t="n">
+      <c r="KS30" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT30" t="n">
         <v>50</v>
       </c>
     </row>
@@ -28945,8 +29035,11 @@
       <c r="KR31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KS31" t="n">
+      <c r="KS31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29864,8 +29957,11 @@
       <c r="KR32" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="KS32" t="n">
+      <c r="KS32" s="2" t="n">
         <v>2.89</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30783,8 +30879,11 @@
       <c r="KR33" s="2" t="n">
         <v>4.73</v>
       </c>
-      <c r="KS33" t="n">
+      <c r="KS33" s="2" t="n">
         <v>5.78</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31702,8 +31801,11 @@
       <c r="KR34" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="KS34" t="n">
+      <c r="KS34" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32621,8 +32723,11 @@
       <c r="KR35" s="2" t="n">
         <v>21.2</v>
       </c>
-      <c r="KS35" t="n">
+      <c r="KS35" s="2" t="n">
         <v>17.3</v>
+      </c>
+      <c r="KT35" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33540,8 +33645,11 @@
       <c r="KR36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KS36" t="n">
+      <c r="KS36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KT36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34459,8 +34567,11 @@
       <c r="KR37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KS37" t="n">
+      <c r="KS37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KT37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35378,8 +35489,11 @@
       <c r="KR38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KS38" t="n">
+      <c r="KS38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KT38" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36297,8 +36411,11 @@
       <c r="KR39" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KS39" t="n">
+      <c r="KS39" s="2" t="n">
         <v>98.09999999999999</v>
+      </c>
+      <c r="KT39" t="n">
+        <v>92.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37216,7 +37333,10 @@
       <c r="KR40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS40" t="n">
+      <c r="KS40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38135,7 +38255,10 @@
       <c r="KR41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KS41" t="n">
+      <c r="KS41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39054,8 +39177,11 @@
       <c r="KR42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS42" t="n">
+      <c r="KS42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39973,8 +40099,11 @@
       <c r="KR43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS43" t="n">
+      <c r="KS43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40892,8 +41021,11 @@
       <c r="KR44" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KS44" t="n">
+      <c r="KS44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41811,8 +41943,11 @@
       <c r="KR45" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="KS45" t="n">
+      <c r="KS45" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42730,8 +42865,11 @@
       <c r="KR46" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="KS46" t="n">
+      <c r="KS46" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="KT46" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43649,8 +43787,11 @@
       <c r="KR47" s="2" t="n">
         <v>71.7</v>
       </c>
-      <c r="KS47" t="n">
+      <c r="KS47" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="KT47" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44568,7 +44709,10 @@
       <c r="KR48" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KS48" t="n">
+      <c r="KS48" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KT48" t="n">
         <v>59</v>
       </c>
     </row>
@@ -45487,8 +45631,11 @@
       <c r="KR49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS49" t="n">
+      <c r="KS49" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KT49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46406,8 +46553,11 @@
       <c r="KR50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS50" t="n">
+      <c r="KS50" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47325,8 +47475,11 @@
       <c r="KR51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KS51" t="n">
+      <c r="KS51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KT51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48244,7 +48397,10 @@
       <c r="KR52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KS52" t="n">
+      <c r="KS52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT52" t="n">
         <v>50</v>
       </c>
     </row>
@@ -49163,8 +49319,11 @@
       <c r="KR53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KS53" t="n">
+      <c r="KS53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KT53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50082,8 +50241,11 @@
       <c r="KR54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS54" t="n">
+      <c r="KS54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51001,8 +51163,11 @@
       <c r="KR55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS55" t="n">
+      <c r="KS55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KT55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51920,8 +52085,11 @@
       <c r="KR56" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KS56" t="n">
+      <c r="KS56" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="KT56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52839,8 +53007,11 @@
       <c r="KR57" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KS57" t="n">
+      <c r="KS57" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KT57" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53758,8 +53929,11 @@
       <c r="KR58" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KS58" t="n">
+      <c r="KS58" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="KT58" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54677,8 +54851,11 @@
       <c r="KR59" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="KS59" t="n">
+      <c r="KS59" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="KT59" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55596,8 +55773,11 @@
       <c r="KR60" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="KS60" t="n">
+      <c r="KS60" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="KT60" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56515,8 +56695,11 @@
       <c r="KR61" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="KS61" t="n">
+      <c r="KS61" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="KT61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57434,8 +57617,11 @@
       <c r="KR62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KS62" t="n">
+      <c r="KS62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KT62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58353,8 +58539,11 @@
       <c r="KR63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KS63" t="n">
+      <c r="KS63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KT63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59272,8 +59461,11 @@
       <c r="KR64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KS64" t="n">
+      <c r="KS64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KT64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60191,8 +60383,11 @@
       <c r="KR65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KS65" t="n">
+      <c r="KS65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61110,8 +61305,11 @@
       <c r="KR66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS66" t="n">
+      <c r="KS66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62029,8 +62227,11 @@
       <c r="KR67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS67" t="n">
+      <c r="KS67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62948,8 +63149,11 @@
       <c r="KR68" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KS68" t="n">
+      <c r="KS68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63867,8 +64071,11 @@
       <c r="KR69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS69" t="n">
+      <c r="KS69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64786,8 +64993,11 @@
       <c r="KR70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KS70" t="n">
+      <c r="KS70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KT70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65705,8 +65915,11 @@
       <c r="KR71" s="2" t="n">
         <v>34.6</v>
       </c>
-      <c r="KS71" t="n">
+      <c r="KS71" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="KT71" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66624,8 +66837,11 @@
       <c r="KR72" s="2" t="n">
         <v>40.89</v>
       </c>
-      <c r="KS72" t="n">
+      <c r="KS72" s="2" t="n">
         <v>30.82</v>
+      </c>
+      <c r="KT72" t="n">
+        <v>26.92</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67543,8 +67759,11 @@
       <c r="KR73" s="2" t="n">
         <v>14.15</v>
       </c>
-      <c r="KS73" t="n">
+      <c r="KS73" s="2" t="n">
         <v>14.12</v>
+      </c>
+      <c r="KT73" t="n">
+        <v>12.92</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68462,8 +68681,11 @@
       <c r="KR74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KS74" t="n">
+      <c r="KS74" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KT74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69381,8 +69603,11 @@
       <c r="KR75" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KS75" t="n">
+      <c r="KS75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KT75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70300,8 +70525,11 @@
       <c r="KR76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KS76" t="n">
+      <c r="KS76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KT76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71219,8 +71447,11 @@
       <c r="KR77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KS77" t="n">
+      <c r="KS77" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KT77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72138,8 +72369,11 @@
       <c r="KR78" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="KS78" t="n">
+      <c r="KS78" s="2" t="n">
         <v>2.62</v>
+      </c>
+      <c r="KT78" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73057,8 +73291,11 @@
       <c r="KR79" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="KS79" t="n">
+      <c r="KS79" s="2" t="n">
         <v>5.73</v>
+      </c>
+      <c r="KT79" t="n">
+        <v>5.17</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73976,8 +74213,11 @@
       <c r="KR80" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="KS80" t="n">
+      <c r="KS80" s="2" t="n">
         <v>31.7</v>
+      </c>
+      <c r="KT80" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74895,8 +75135,11 @@
       <c r="KR81" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KS81" t="n">
+      <c r="KS81" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="KT81" t="n">
+        <v>19.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75814,8 +76057,11 @@
       <c r="KR82" s="2" t="n">
         <v>186.5</v>
       </c>
-      <c r="KS82" t="n">
+      <c r="KS82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KT82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76733,8 +76979,11 @@
       <c r="KR83" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="KS83" t="n">
+      <c r="KS83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KT83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77652,8 +77901,11 @@
       <c r="KR84" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="KS84" t="n">
+      <c r="KS84" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="KT84" t="n">
+        <v>26.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78571,8 +78823,11 @@
       <c r="KR85" s="2" t="n">
         <v>126.6</v>
       </c>
-      <c r="KS85" t="n">
+      <c r="KS85" s="2" t="n">
         <v>135.4</v>
+      </c>
+      <c r="KT85" t="n">
+        <v>133.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79490,7 +79745,10 @@
       <c r="KR86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS86" t="n">
+      <c r="KS86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT86" t="n">
         <v>3</v>
       </c>
     </row>
@@ -80409,8 +80667,11 @@
       <c r="KR87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS87" t="n">
+      <c r="KS87" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KT87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81328,8 +81589,11 @@
       <c r="KR88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS88" t="n">
+      <c r="KS88" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82247,7 +82511,10 @@
       <c r="KR89" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS89" t="n">
+      <c r="KS89" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KT89" t="n">
         <v>10</v>
       </c>
     </row>
@@ -83166,8 +83433,11 @@
       <c r="KR90" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="KS90" t="n">
+      <c r="KS90" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KT90" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84085,8 +84355,11 @@
       <c r="KR91" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KS91" t="n">
+      <c r="KS91" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KT91" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85004,8 +85277,11 @@
       <c r="KR92" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="KS92" t="n">
+      <c r="KS92" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KT92" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85923,8 +86199,11 @@
       <c r="KR93" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="KS93" t="n">
+      <c r="KS93" s="2" t="n">
         <v>67.3</v>
+      </c>
+      <c r="KT93" t="n">
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86842,8 +87121,11 @@
       <c r="KR94" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KS94" t="n">
+      <c r="KS94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KT94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87761,8 +88043,11 @@
       <c r="KR95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KS95" t="n">
+      <c r="KS95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88680,8 +88965,11 @@
       <c r="KR96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS96" t="n">
+      <c r="KS96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KT96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89599,8 +89887,11 @@
       <c r="KR97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KS97" t="n">
+      <c r="KS97" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KT97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90518,8 +90809,11 @@
       <c r="KR98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KS98" t="n">
+      <c r="KS98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KT98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91437,8 +91731,11 @@
       <c r="KR99" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KS99" t="n">
+      <c r="KS99" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KT99" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92356,8 +92653,11 @@
       <c r="KR100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS100" t="n">
+      <c r="KS100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93275,8 +93575,11 @@
       <c r="KR101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS101" t="n">
+      <c r="KS101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94194,8 +94497,11 @@
       <c r="KR102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KS102" t="n">
+      <c r="KS102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KT102" t="n">
+        <v>58.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KT102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1378,8 +1378,11 @@
       <c r="KS1" s="2" t="n">
         <v>10969</v>
       </c>
-      <c r="KT1" t="n">
+      <c r="KT1" s="2" t="n">
         <v>11175</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>10971</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2300,8 +2303,11 @@
       <c r="KS2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KT2" s="2" t="n">
         <v>2024</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -3222,8 +3228,11 @@
       <c r="KS3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KT3" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4144,8 +4153,11 @@
       <c r="KS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KT4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5066,8 +5078,11 @@
       <c r="KS5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KT5" t="n">
+      <c r="KT5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5988,7 +6003,10 @@
       <c r="KS6" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KT6" t="n">
+      <c r="KT6" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="KU6" t="n">
         <v>86</v>
       </c>
     </row>
@@ -6910,8 +6928,11 @@
       <c r="KS7" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KT7" t="n">
+      <c r="KT7" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7832,8 +7853,11 @@
       <c r="KS8" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="KT8" t="n">
+      <c r="KT8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8754,7 +8778,10 @@
       <c r="KS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KT9" t="n">
+      <c r="KT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9676,8 +9703,11 @@
       <c r="KS10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KT10" t="n">
+      <c r="KT10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10598,8 +10628,11 @@
       <c r="KS11" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KT11" t="n">
+      <c r="KT11" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11520,8 +11553,11 @@
       <c r="KS12" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KT12" t="n">
+      <c r="KT12" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12442,8 +12478,11 @@
       <c r="KS13" s="2" t="n">
         <v>328</v>
       </c>
-      <c r="KT13" t="n">
+      <c r="KT13" s="2" t="n">
         <v>341</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13364,8 +13403,11 @@
       <c r="KS14" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="KT14" t="n">
+      <c r="KT14" s="2" t="n">
         <v>1.73</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14286,8 +14328,11 @@
       <c r="KS15" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KT15" t="n">
+      <c r="KT15" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15208,8 +15253,11 @@
       <c r="KS16" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KT16" t="n">
+      <c r="KT16" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16130,8 +16178,11 @@
       <c r="KS17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KT17" t="n">
+      <c r="KT17" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17052,8 +17103,11 @@
       <c r="KS18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KT18" t="n">
+      <c r="KT18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17974,8 +18028,11 @@
       <c r="KS19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KT19" t="n">
+      <c r="KT19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18896,8 +18953,11 @@
       <c r="KS20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT20" t="n">
+      <c r="KT20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19818,7 +19878,10 @@
       <c r="KS21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT21" t="n">
+      <c r="KT21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -20740,8 +20803,11 @@
       <c r="KS22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT22" t="n">
+      <c r="KT22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21662,8 +21728,11 @@
       <c r="KS23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT23" t="n">
+      <c r="KT23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22584,8 +22653,11 @@
       <c r="KS24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KT24" t="n">
+      <c r="KT24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23506,8 +23578,11 @@
       <c r="KS25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KT25" t="n">
+      <c r="KT25" s="2" t="n">
         <v>61.9</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24428,8 +24503,11 @@
       <c r="KS26" s="2" t="n">
         <v>36.44</v>
       </c>
-      <c r="KT26" t="n">
+      <c r="KT26" s="2" t="n">
         <v>26.23</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>29.58</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25350,8 +25428,11 @@
       <c r="KS27" s="2" t="n">
         <v>18.22</v>
       </c>
-      <c r="KT27" t="n">
+      <c r="KT27" s="2" t="n">
         <v>16.24</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>13.65</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26272,8 +26353,11 @@
       <c r="KS28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KT28" t="n">
+      <c r="KT28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27194,8 +27278,11 @@
       <c r="KS29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KT29" t="n">
+      <c r="KT29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28116,8 +28203,11 @@
       <c r="KS30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KT30" t="n">
+      <c r="KT30" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29038,8 +29128,11 @@
       <c r="KS31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KT31" t="n">
+      <c r="KT31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29960,8 +30053,11 @@
       <c r="KS32" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="KT32" t="n">
+      <c r="KT32" s="2" t="n">
         <v>2.33</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30882,8 +30978,11 @@
       <c r="KS33" s="2" t="n">
         <v>5.78</v>
       </c>
-      <c r="KT33" t="n">
+      <c r="KT33" s="2" t="n">
         <v>3.77</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31804,8 +31903,11 @@
       <c r="KS34" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="KT34" t="n">
+      <c r="KT34" s="2" t="n">
         <v>34.7</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>36.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32726,8 +32828,11 @@
       <c r="KS35" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="KT35" t="n">
+      <c r="KT35" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="KU35" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33648,8 +33753,11 @@
       <c r="KS36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KT36" t="n">
+      <c r="KT36" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34570,8 +34678,11 @@
       <c r="KS37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KT37" t="n">
+      <c r="KT37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35492,8 +35603,11 @@
       <c r="KS38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KT38" t="n">
+      <c r="KT38" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36414,8 +36528,11 @@
       <c r="KS39" s="2" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="KT39" t="n">
+      <c r="KT39" s="2" t="n">
         <v>92.5</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37336,8 +37453,11 @@
       <c r="KS40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KT40" t="n">
+      <c r="KT40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38258,7 +38378,10 @@
       <c r="KS41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT41" t="n">
+      <c r="KT41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39180,7 +39303,10 @@
       <c r="KS42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT42" t="n">
+      <c r="KT42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU42" t="n">
         <v>8</v>
       </c>
     </row>
@@ -40102,8 +40228,11 @@
       <c r="KS43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KT43" t="n">
+      <c r="KT43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KU43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41024,8 +41153,11 @@
       <c r="KS44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KT44" t="n">
+      <c r="KT44" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41946,8 +42078,11 @@
       <c r="KS45" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="KT45" t="n">
+      <c r="KT45" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42868,8 +43003,11 @@
       <c r="KS46" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KT46" t="n">
+      <c r="KT46" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43790,8 +43928,11 @@
       <c r="KS47" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="KT47" t="n">
+      <c r="KT47" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44712,8 +44853,11 @@
       <c r="KS48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KT48" t="n">
+      <c r="KT48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45634,8 +45778,11 @@
       <c r="KS49" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KT49" t="n">
+      <c r="KT49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KU49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46556,8 +46703,11 @@
       <c r="KS50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KT50" t="n">
+      <c r="KT50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47478,8 +47628,11 @@
       <c r="KS51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KT51" t="n">
+      <c r="KT51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KU51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48400,8 +48553,11 @@
       <c r="KS52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KT52" t="n">
+      <c r="KT52" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KU52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49322,8 +49478,11 @@
       <c r="KS53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KT53" t="n">
+      <c r="KT53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KU53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50244,8 +50403,11 @@
       <c r="KS54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT54" t="n">
+      <c r="KT54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KU54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51166,7 +51328,10 @@
       <c r="KS55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KT55" t="n">
+      <c r="KT55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -52088,8 +52253,11 @@
       <c r="KS56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KT56" t="n">
+      <c r="KT56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KU56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53010,8 +53178,11 @@
       <c r="KS57" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KT57" t="n">
+      <c r="KT57" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="KU57" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53932,8 +54103,11 @@
       <c r="KS58" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="KT58" t="n">
+      <c r="KT58" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="KU58" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54854,8 +55028,11 @@
       <c r="KS59" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="KT59" t="n">
+      <c r="KT59" s="2" t="n">
         <v>323</v>
+      </c>
+      <c r="KU59" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55776,8 +55953,11 @@
       <c r="KS60" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="KT60" t="n">
+      <c r="KT60" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="KU60" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56698,8 +56878,11 @@
       <c r="KS61" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KT61" t="n">
+      <c r="KT61" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KU61" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57620,8 +57803,11 @@
       <c r="KS62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KT62" t="n">
+      <c r="KT62" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KU62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58542,8 +58728,11 @@
       <c r="KS63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KT63" t="n">
+      <c r="KT63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KU63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59464,8 +59653,11 @@
       <c r="KS64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KT64" t="n">
+      <c r="KT64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KU64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60386,8 +60578,11 @@
       <c r="KS65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KT65" t="n">
+      <c r="KT65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KU65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61308,7 +61503,10 @@
       <c r="KS66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KT66" t="n">
+      <c r="KT66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU66" t="n">
         <v>12</v>
       </c>
     </row>
@@ -62230,7 +62428,10 @@
       <c r="KS67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT67" t="n">
+      <c r="KT67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -63152,8 +63353,11 @@
       <c r="KS68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT68" t="n">
+      <c r="KT68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64074,8 +64278,11 @@
       <c r="KS69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KT69" t="n">
+      <c r="KT69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64996,8 +65203,11 @@
       <c r="KS70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KT70" t="n">
+      <c r="KT70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KU70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65918,8 +66128,11 @@
       <c r="KS71" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="KT71" t="n">
+      <c r="KT71" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KU71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66840,8 +67053,11 @@
       <c r="KS72" s="2" t="n">
         <v>30.82</v>
       </c>
-      <c r="KT72" t="n">
+      <c r="KT72" s="2" t="n">
         <v>26.92</v>
+      </c>
+      <c r="KU72" t="n">
+        <v>26.83</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67762,8 +67978,11 @@
       <c r="KS73" s="2" t="n">
         <v>14.12</v>
       </c>
-      <c r="KT73" t="n">
+      <c r="KT73" s="2" t="n">
         <v>12.92</v>
+      </c>
+      <c r="KU73" t="n">
+        <v>15.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68684,8 +68903,11 @@
       <c r="KS74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KT74" t="n">
+      <c r="KT74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KU74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69606,8 +69828,11 @@
       <c r="KS75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KT75" t="n">
+      <c r="KT75" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KU75" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70528,8 +70753,11 @@
       <c r="KS76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KT76" t="n">
+      <c r="KT76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KU76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71450,8 +71678,11 @@
       <c r="KS77" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KT77" t="n">
+      <c r="KT77" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KU77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72372,8 +72603,11 @@
       <c r="KS78" s="2" t="n">
         <v>2.62</v>
       </c>
-      <c r="KT78" t="n">
+      <c r="KT78" s="2" t="n">
         <v>2.48</v>
+      </c>
+      <c r="KU78" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73294,8 +73528,11 @@
       <c r="KS79" s="2" t="n">
         <v>5.73</v>
       </c>
-      <c r="KT79" t="n">
+      <c r="KT79" s="2" t="n">
         <v>5.17</v>
+      </c>
+      <c r="KU79" t="n">
+        <v>4.17</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74216,8 +74453,11 @@
       <c r="KS80" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="KT80" t="n">
+      <c r="KT80" s="2" t="n">
         <v>35.5</v>
+      </c>
+      <c r="KU80" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75138,8 +75378,11 @@
       <c r="KS81" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="KT81" t="n">
+      <c r="KT81" s="2" t="n">
         <v>19.4</v>
+      </c>
+      <c r="KU81" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76060,8 +76303,11 @@
       <c r="KS82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="KT82" t="n">
+      <c r="KT82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KU82" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76982,8 +77228,11 @@
       <c r="KS83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KT83" t="n">
+      <c r="KT83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KU83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77904,8 +78153,11 @@
       <c r="KS84" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="KT84" t="n">
+      <c r="KT84" s="2" t="n">
         <v>26.91</v>
+      </c>
+      <c r="KU84" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78826,8 +79078,11 @@
       <c r="KS85" s="2" t="n">
         <v>135.4</v>
       </c>
-      <c r="KT85" t="n">
+      <c r="KT85" s="2" t="n">
         <v>133.6</v>
+      </c>
+      <c r="KU85" t="n">
+        <v>120.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79748,8 +80003,11 @@
       <c r="KS86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KT86" t="n">
+      <c r="KT86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KU86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80670,7 +80928,10 @@
       <c r="KS87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KT87" t="n">
+      <c r="KT87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -81592,8 +81853,11 @@
       <c r="KS88" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KT88" t="n">
+      <c r="KT88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KU88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82514,8 +82778,11 @@
       <c r="KS89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KT89" t="n">
+      <c r="KT89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KU89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83436,8 +83703,11 @@
       <c r="KS90" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KT90" t="n">
+      <c r="KT90" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KU90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84358,8 +84628,11 @@
       <c r="KS91" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KT91" t="n">
+      <c r="KT91" s="2" t="n">
         <v>183</v>
+      </c>
+      <c r="KU91" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85280,8 +85553,11 @@
       <c r="KS92" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KT92" t="n">
+      <c r="KT92" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KU92" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86202,8 +86478,11 @@
       <c r="KS93" s="2" t="n">
         <v>67.3</v>
       </c>
-      <c r="KT93" t="n">
+      <c r="KT93" s="2" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="KU93" t="n">
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87124,8 +87403,11 @@
       <c r="KS94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KT94" t="n">
+      <c r="KT94" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KU94" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88046,7 +88328,10 @@
       <c r="KS95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT95" t="n">
+      <c r="KT95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KU95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -88968,8 +89253,11 @@
       <c r="KS96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KT96" t="n">
+      <c r="KT96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KU96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89890,8 +90178,11 @@
       <c r="KS97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KT97" t="n">
+      <c r="KT97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KU97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90812,8 +91103,11 @@
       <c r="KS98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KT98" t="n">
+      <c r="KT98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KU98" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91734,8 +92028,11 @@
       <c r="KS99" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KT99" t="n">
+      <c r="KT99" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KU99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92656,8 +92953,11 @@
       <c r="KS100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KT100" t="n">
+      <c r="KT100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93578,7 +93878,10 @@
       <c r="KS101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KT101" t="n">
+      <c r="KT101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -94500,7 +94803,10 @@
       <c r="KS102" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="KT102" t="n">
+      <c r="KT102" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KU102" t="n">
         <v>58.3</v>
       </c>
     </row>

--- a/AFL_ML/Data/Carlton_stats.xlsx
+++ b/AFL_ML/Data/Carlton_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KU102"/>
+  <dimension ref="A1:KW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JR89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY93" activeCellId="0" sqref="JY93"/>
@@ -1381,8 +1381,14 @@
       <c r="KT1" s="2" t="n">
         <v>11175</v>
       </c>
-      <c r="KU1" t="n">
+      <c r="KU1" s="2" t="n">
         <v>10971</v>
+      </c>
+      <c r="KV1" s="2" t="n">
+        <v>10989</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2306,7 +2312,13 @@
       <c r="KT2" s="2" t="n">
         <v>2024</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3231,8 +3243,14 @@
       <c r="KT3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KU3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4156,8 +4174,14 @@
       <c r="KT4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KU4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KV4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5081,8 +5105,14 @@
       <c r="KT5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU5" t="n">
+      <c r="KU5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6006,8 +6036,14 @@
       <c r="KT6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KU6" t="n">
+      <c r="KU6" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KV6" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6931,8 +6967,14 @@
       <c r="KT7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KU7" t="n">
+      <c r="KU7" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KV7" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7856,8 +7898,14 @@
       <c r="KT8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU8" t="n">
+      <c r="KU8" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV8" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8781,7 +8829,13 @@
       <c r="KT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU9" t="n">
+      <c r="KU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9706,8 +9760,14 @@
       <c r="KT10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU10" t="n">
+      <c r="KU10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10631,8 +10691,14 @@
       <c r="KT11" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="KU11" t="n">
+      <c r="KU11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KV11" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11556,8 +11622,14 @@
       <c r="KT12" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KU12" t="n">
+      <c r="KU12" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KV12" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12481,8 +12553,14 @@
       <c r="KT13" s="2" t="n">
         <v>341</v>
       </c>
-      <c r="KU13" t="n">
+      <c r="KU13" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="KV13" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13406,8 +13484,14 @@
       <c r="KT14" s="2" t="n">
         <v>1.73</v>
       </c>
-      <c r="KU14" t="n">
+      <c r="KU14" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="KV14" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14331,8 +14415,14 @@
       <c r="KT15" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="KU15" t="n">
+      <c r="KU15" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="KV15" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15256,8 +15346,14 @@
       <c r="KT16" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KU16" t="n">
+      <c r="KU16" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KV16" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16181,8 +16277,14 @@
       <c r="KT17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KU17" t="n">
+      <c r="KU17" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KV17" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17106,8 +17208,14 @@
       <c r="KT18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KU18" t="n">
+      <c r="KU18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KV18" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18031,8 +18139,14 @@
       <c r="KT19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU19" t="n">
+      <c r="KU19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KV19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18956,8 +19070,14 @@
       <c r="KT20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU20" t="n">
+      <c r="KU20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV20" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19881,8 +20001,14 @@
       <c r="KT21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU21" t="n">
+      <c r="KU21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20806,7 +20932,13 @@
       <c r="KT22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU22" t="n">
+      <c r="KU22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KV22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW22" t="n">
         <v>12</v>
       </c>
     </row>
@@ -21731,8 +21863,14 @@
       <c r="KT23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU23" t="n">
+      <c r="KU23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KV23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22656,8 +22794,14 @@
       <c r="KT24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KU24" t="n">
+      <c r="KU24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KV24" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23581,8 +23725,14 @@
       <c r="KT25" s="2" t="n">
         <v>61.9</v>
       </c>
-      <c r="KU25" t="n">
+      <c r="KU25" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="KV25" s="2" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24506,8 +24656,14 @@
       <c r="KT26" s="2" t="n">
         <v>26.23</v>
       </c>
-      <c r="KU26" t="n">
+      <c r="KU26" s="2" t="n">
         <v>29.58</v>
+      </c>
+      <c r="KV26" s="2" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25431,8 +25587,14 @@
       <c r="KT27" s="2" t="n">
         <v>16.24</v>
       </c>
-      <c r="KU27" t="n">
+      <c r="KU27" s="2" t="n">
         <v>13.65</v>
+      </c>
+      <c r="KV27" s="2" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>15.35</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26356,8 +26518,14 @@
       <c r="KT28" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KU28" t="n">
+      <c r="KU28" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KV28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KW28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27281,8 +27449,14 @@
       <c r="KT29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KU29" t="n">
+      <c r="KU29" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KV29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28206,8 +28380,14 @@
       <c r="KT30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU30" t="n">
+      <c r="KU30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29131,8 +29311,14 @@
       <c r="KT31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KU31" t="n">
+      <c r="KU31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KV31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KW31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30056,8 +30242,14 @@
       <c r="KT32" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="KU32" t="n">
+      <c r="KU32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="KV32" s="2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="KW32" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30981,8 +31173,14 @@
       <c r="KT33" s="2" t="n">
         <v>3.77</v>
       </c>
-      <c r="KU33" t="n">
+      <c r="KU33" s="2" t="n">
         <v>5.42</v>
+      </c>
+      <c r="KV33" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="KW33" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31906,8 +32104,14 @@
       <c r="KT34" s="2" t="n">
         <v>34.7</v>
       </c>
-      <c r="KU34" t="n">
+      <c r="KU34" s="2" t="n">
         <v>36.9</v>
+      </c>
+      <c r="KV34" s="2" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="KW34" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32831,8 +33035,14 @@
       <c r="KT35" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="KU35" t="n">
+      <c r="KU35" s="2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="KV35" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KW35" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33756,7 +33966,13 @@
       <c r="KT36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="KU36" t="n">
+      <c r="KU36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KV36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KW36" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -34681,8 +34897,14 @@
       <c r="KT37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KU37" t="n">
+      <c r="KU37" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KV37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="KW37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35606,8 +35828,14 @@
       <c r="KT38" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="KU38" t="n">
+      <c r="KU38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KV38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KW38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36531,8 +36759,14 @@
       <c r="KT39" s="2" t="n">
         <v>92.5</v>
       </c>
-      <c r="KU39" t="n">
+      <c r="KU39" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KV39" s="2" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="KW39" t="n">
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37456,8 +37690,14 @@
       <c r="KT40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU40" t="n">
+      <c r="KU40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38381,8 +38621,14 @@
       <c r="KT41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU41" t="n">
+      <c r="KU41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39306,7 +39552,13 @@
       <c r="KT42" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU42" t="n">
+      <c r="KU42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV42" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KW42" t="n">
         <v>8</v>
       </c>
     </row>
@@ -40231,8 +40483,14 @@
       <c r="KT43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU43" t="n">
+      <c r="KU43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KV43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41156,8 +41414,14 @@
       <c r="KT44" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KU44" t="n">
+      <c r="KU44" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KV44" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42081,8 +42345,14 @@
       <c r="KT45" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KU45" t="n">
+      <c r="KU45" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="KV45" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43006,8 +43276,14 @@
       <c r="KT46" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KU46" t="n">
+      <c r="KU46" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="KV46" s="2" t="n">
+        <v>291</v>
+      </c>
+      <c r="KW46" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43931,8 +44207,14 @@
       <c r="KT47" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KU47" t="n">
+      <c r="KU47" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="KV47" s="2" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="KW47" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44856,8 +45138,14 @@
       <c r="KT48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KU48" t="n">
+      <c r="KU48" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KV48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KW48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45781,8 +46069,14 @@
       <c r="KT49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU49" t="n">
+      <c r="KU49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46706,8 +47000,14 @@
       <c r="KT50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU50" t="n">
+      <c r="KU50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KV50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47631,8 +47931,14 @@
       <c r="KT51" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KU51" t="n">
+      <c r="KU51" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KV51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KW51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48556,8 +48862,14 @@
       <c r="KT52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU52" t="n">
+      <c r="KU52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KV52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KW52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49481,8 +49793,14 @@
       <c r="KT53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KU53" t="n">
+      <c r="KU53" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KV53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KW53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50406,8 +50724,14 @@
       <c r="KT54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU54" t="n">
+      <c r="KU54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51331,8 +51655,14 @@
       <c r="KT55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU55" t="n">
+      <c r="KU55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52256,8 +52586,14 @@
       <c r="KT56" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KU56" t="n">
+      <c r="KU56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KV56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="KW56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53181,8 +53517,14 @@
       <c r="KT57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KU57" t="n">
+      <c r="KU57" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KV57" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="KW57" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54106,8 +54448,14 @@
       <c r="KT58" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="KU58" t="n">
+      <c r="KU58" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="KV58" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KW58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55031,8 +55379,14 @@
       <c r="KT59" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="KU59" t="n">
+      <c r="KU59" s="2" t="n">
         <v>322</v>
+      </c>
+      <c r="KV59" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="KW59" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55956,8 +56310,14 @@
       <c r="KT60" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="KU60" t="n">
+      <c r="KU60" s="2" t="n">
         <v>1.71</v>
+      </c>
+      <c r="KV60" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="KW60" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56881,8 +57241,14 @@
       <c r="KT61" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KU61" t="n">
+      <c r="KU61" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KV61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="KW61" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57806,8 +58172,14 @@
       <c r="KT62" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KU62" t="n">
+      <c r="KU62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KV62" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KW62" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58731,8 +59103,14 @@
       <c r="KT63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KU63" t="n">
+      <c r="KU63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KV63" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KW63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59656,8 +60034,14 @@
       <c r="KT64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU64" t="n">
+      <c r="KU64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KV64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KW64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60581,8 +60965,14 @@
       <c r="KT65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KU65" t="n">
+      <c r="KU65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KV65" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KW65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61506,8 +61896,14 @@
       <c r="KT66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU66" t="n">
+      <c r="KU66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62431,8 +62827,14 @@
       <c r="KT67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU67" t="n">
+      <c r="KU67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63356,8 +63758,14 @@
       <c r="KT68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU68" t="n">
+      <c r="KU68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64281,8 +64689,14 @@
       <c r="KT69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU69" t="n">
+      <c r="KU69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KV69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65206,8 +65620,14 @@
       <c r="KT70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KU70" t="n">
+      <c r="KU70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KW70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66131,8 +66551,14 @@
       <c r="KT71" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KU71" t="n">
+      <c r="KU71" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="KV71" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="KW71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67056,8 +67482,14 @@
       <c r="KT72" s="2" t="n">
         <v>26.92</v>
       </c>
-      <c r="KU72" t="n">
+      <c r="KU72" s="2" t="n">
         <v>26.83</v>
+      </c>
+      <c r="KV72" s="2" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="KW72" t="n">
+        <v>41.22</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67981,8 +68413,14 @@
       <c r="KT73" s="2" t="n">
         <v>12.92</v>
       </c>
-      <c r="KU73" t="n">
+      <c r="KU73" s="2" t="n">
         <v>15.33</v>
+      </c>
+      <c r="KV73" s="2" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="KW73" t="n">
+        <v>20.61</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68906,8 +69344,14 @@
       <c r="KT74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU74" t="n">
+      <c r="KU74" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KV74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KW74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69831,8 +70275,14 @@
       <c r="KT75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KU75" t="n">
+      <c r="KU75" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KV75" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="KW75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70756,8 +71206,14 @@
       <c r="KT76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KU76" t="n">
+      <c r="KU76" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KV76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KW76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71681,8 +72137,14 @@
       <c r="KT77" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KU77" t="n">
+      <c r="KU77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KV77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KW77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72606,8 +73068,14 @@
       <c r="KT78" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="KU78" t="n">
+      <c r="KU78" s="2" t="n">
         <v>2.38</v>
+      </c>
+      <c r="KV78" s="2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="KW78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73531,8 +73999,14 @@
       <c r="KT79" s="2" t="n">
         <v>5.17</v>
       </c>
-      <c r="KU79" t="n">
+      <c r="KU79" s="2" t="n">
         <v>4.17</v>
+      </c>
+      <c r="KV79" s="2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="KW79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74456,8 +74930,14 @@
       <c r="KT80" s="2" t="n">
         <v>35.5</v>
       </c>
-      <c r="KU80" t="n">
+      <c r="KU80" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KV80" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="KW80" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75381,8 +75861,14 @@
       <c r="KT81" s="2" t="n">
         <v>19.4</v>
       </c>
-      <c r="KU81" t="n">
+      <c r="KU81" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KV81" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="KW81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76306,8 +76792,14 @@
       <c r="KT82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KU82" t="n">
+      <c r="KU82" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="KV82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KW82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77231,8 +77723,14 @@
       <c r="KT83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KU83" t="n">
+      <c r="KU83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KV83" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="KW83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78156,8 +78654,14 @@
       <c r="KT84" s="2" t="n">
         <v>26.91</v>
       </c>
-      <c r="KU84" t="n">
+      <c r="KU84" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KV84" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KW84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79081,8 +79585,14 @@
       <c r="KT85" s="2" t="n">
         <v>133.6</v>
       </c>
-      <c r="KU85" t="n">
+      <c r="KU85" s="2" t="n">
         <v>120.5</v>
+      </c>
+      <c r="KV85" s="2" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="KW85" t="n">
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80006,8 +80516,14 @@
       <c r="KT86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU86" t="n">
+      <c r="KU86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV86" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KW86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80931,8 +81447,14 @@
       <c r="KT87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU87" t="n">
+      <c r="KU87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KV87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81856,8 +82378,14 @@
       <c r="KT88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU88" t="n">
+      <c r="KU88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KV88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82781,8 +83309,14 @@
       <c r="KT89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU89" t="n">
+      <c r="KU89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83706,8 +84240,14 @@
       <c r="KT90" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KU90" t="n">
+      <c r="KU90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KV90" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="KW90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84631,8 +85171,14 @@
       <c r="KT91" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="KU91" t="n">
+      <c r="KU91" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="KV91" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KW91" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85556,8 +86102,14 @@
       <c r="KT92" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KU92" t="n">
+      <c r="KU92" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="KV92" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="KW92" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86481,8 +87033,14 @@
       <c r="KT93" s="2" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="KU93" t="n">
+      <c r="KU93" s="2" t="n">
         <v>66.09999999999999</v>
+      </c>
+      <c r="KV93" s="2" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="KW93" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87406,8 +87964,14 @@
       <c r="KT94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KU94" t="n">
+      <c r="KU94" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KV94" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="KW94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88331,8 +88895,14 @@
       <c r="KT95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU95" t="n">
+      <c r="KU95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KW95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -89256,8 +89826,14 @@
       <c r="KT96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU96" t="n">
+      <c r="KU96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90181,8 +90757,14 @@
       <c r="KT97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU97" t="n">
+      <c r="KU97" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KV97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KW97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91106,8 +91688,14 @@
       <c r="KT98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KU98" t="n">
+      <c r="KU98" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KV98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KW98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92031,8 +92619,14 @@
       <c r="KT99" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KU99" t="n">
+      <c r="KU99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KV99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KW99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92956,8 +93550,14 @@
       <c r="KT100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU100" t="n">
+      <c r="KU100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KW100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93881,8 +94481,14 @@
       <c r="KT101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU101" t="n">
+      <c r="KU101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94806,8 +95412,14 @@
       <c r="KT102" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="KU102" t="n">
+      <c r="KU102" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="KV102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KW102" t="n">
+        <v>33.3</v>
       </c>
     </row>
   </sheetData>
